--- a/BR_Mailer/J051_TOP15_FSC/J051_Mailing List - excel.xlsx
+++ b/BR_Mailer/J051_TOP15_FSC/J051_Mailing List - excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Business Reporting\ZDEV\BR_Scripts\BRPoSh\BR_Mailer\J051_TOP15_FSC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Business Reporting\zDev\BR_Scripts\BRPoSh\BR_Mailer\J051_TOP15_FSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="558">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="560">
   <si>
     <t>msg</t>
   </si>
@@ -405,9 +405,6 @@
     <t>Simon.Archer@henryschein.ca</t>
   </si>
   <si>
-    <t>Julie.Noel@henryschein.ca</t>
-  </si>
-  <si>
     <t>Suzanne.Lebeau@henryschein.ca</t>
   </si>
   <si>
@@ -567,9 +564,6 @@
     <t>Jessica.Noad@henryschein.ca</t>
   </si>
   <si>
-    <t>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15</t>
-  </si>
-  <si>
     <t>attach 1</t>
   </si>
   <si>
@@ -582,1117 +576,1129 @@
     <t>Marie-Eve.Leclerc@henryschein.ca</t>
   </si>
   <si>
-    <t>FSC Top 15 Summary for August 2017</t>
-  </si>
-  <si>
-    <t>201708_CZ1SD_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1SD_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ125_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ125_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ124_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ124_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_QZ132_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ132_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ128_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ128_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ144_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ144_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ165_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ165_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_QZ177_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ177_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_QZ178_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ178_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ183_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ183_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ107_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ107_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ109_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ109_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_AZ112_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ112_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1CP_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1CP_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ154_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ154_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1KD_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1KD_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_QZ1CF_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1CF_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1EM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1EM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_QZ1DP_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1DP_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1DA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1DA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_QZ1LM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1LM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1EE_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1EE_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1E2_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1E2_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_AZ1EK_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ1EK_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_AZ1FB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ1FB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1FP_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1FP_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_QZ1FT_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1FT_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_QZ1FS_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1FS_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_QZ1FR_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1FR_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_QZ1GO_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1GO_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_AZ1KL_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ1KL_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_QZ1KK_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1KK_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1DN_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1DN_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_QZ1EO_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1EO_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1CB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1CB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1B8_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1B8_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1C4_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1C4_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_QZ1D8_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1D8_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1SW_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1SW_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_QZ1AP_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1AP_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ2CB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ2CB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1CG_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1CG_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_AZ1PV_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ1PV_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ3CB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ3CB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ5CS_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ5CS_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ8JA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ8JA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_QZ7JM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ7JM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_QZ7DO_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ7DO_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ5TA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ5TA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ2LB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ2LB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ2GB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ2GB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ2LH_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ2LH_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ2NM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ2NM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_QZ2SB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ2SB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ2BG_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ2BG_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1SA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1SA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ1FA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1FA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ115_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ115_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ120_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ120_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ118_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ118_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ119_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ119_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ138_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ138_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ142_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ142_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ134_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ134_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ123_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ123_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ136_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ136_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ165_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ165_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ1FF_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1FF_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ167_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ167_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ175_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ175_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ177_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ177_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ143_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ143_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ159_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ159_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ162_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ162_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ113_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ113_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ133_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ133_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ137_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ137_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ237_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ237_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ1G4_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1G4_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZBW1_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZBW1_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ9TS_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ9TS_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ1HM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1HM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ2HM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ2HM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ2RP_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ2RP_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ1TT_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1TT_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ1AM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1AM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ1JW_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1JW_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ1MH_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1MH_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ1M2_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1M2_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ1TM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1TM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ1T2_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1T2_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ2AM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ2AM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ2CR_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ2CR_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ1SC_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1SC_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ1PB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1PB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ1JN_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1JN_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ1J2_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1J2_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ1MK_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1MK_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ1CA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1CA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ2TM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ2TM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ2T1_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ2T1_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ2T2_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ2T2_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ1JA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1JA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ1BC_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1BC_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ1JL_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1JL_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ1AL_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1AL_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ1MW_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1MW_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ1MS_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1MS_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ1DF_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1DF_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ1AJ_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1AJ_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1GF_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1GF_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1G2_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1G2_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_QZ1BP_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1BP_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1JF_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1JF_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_AZ1CI_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ1CI_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1KM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1KM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1OV_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1OV_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_QZ1JB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1JB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_QZ1BG_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1BG_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1TM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1TM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_QZ1BM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1BM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_QZ1MD_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1MD_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1RR_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1RR_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_AZ1JB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ1JB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1AD_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1AD_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_QZ1ML_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1ML_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1FA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1FA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ2SA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ2SA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_QZ1JN_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1JN_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_QZ1SL_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1SL_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_AZ1CM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ1CM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_AZ1WH_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ1WH_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_AZ1YU_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ1YU_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_AZ1WX_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ1WX_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_AZ1XF_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ1XF_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_AZ1XT_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ1XT_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_AZ1YP_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_AZ1YP_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_QZ1XH_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1XH_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_QZ1X2_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1X2_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_QZ1TB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1TB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_QZ1TD_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1TD_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_QZ1B9_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1B9_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_QZ1TK_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1TK_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_QZ1YE_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1YE_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_QZ1TE_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1TE_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_QZ1TI_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ1TI_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1YI_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1YI_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1YW_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1YW_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1UE_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1UE_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1MJ_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1MJ_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1VG_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1VG_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1VJ_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1VJ_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1MI_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1MI_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1XD_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1XD_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1XB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1XB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1WT_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1WT_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1XA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1XA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ1RB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1RB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ2KF_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ2KF_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ148_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ148_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ8GM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ8GM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ1BH_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1BH_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ114_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ114_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ1A6_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1A6_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ139_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ139_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1VL_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1VL_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1VK_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1VK_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1LR_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1LR_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1UV_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1UV_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1WV_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1WV_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1UO_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1UO_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1XC_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1XC_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1YN_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1YN_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1UI_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1UI_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1UU_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1UU_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1UW_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1UW_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1VC_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1VC_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1UX_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1UX_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_CZ1UZ_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_CZ1UZ_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ1CM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1CM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ1JI_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ1JI_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_QZ3JB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_QZ3JB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ2MS_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ2MS_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201708_WZ2JN_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201708_WZ2JN_Top15.xlsx</t>
-  </si>
-  <si>
     <t>subject</t>
   </si>
   <si>
     <t>email</t>
+  </si>
+  <si>
+    <t>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15</t>
+  </si>
+  <si>
+    <t>Jenna.Plenert@henryschein.ca</t>
+  </si>
+  <si>
+    <t>FSC Top 15 Summary for October 2017</t>
+  </si>
+  <si>
+    <t>201710_CZ1SD_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1SD_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ125_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ125_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ124_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ124_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_QZ132_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ132_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ128_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ128_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ144_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ144_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ165_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ165_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_QZ178_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ178_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ183_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ183_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ107_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ107_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ109_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ109_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_AZ112_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ112_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1CP_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1CP_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ154_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ154_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1KD_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1KD_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_QZ1CF_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1CF_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1EM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1EM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_QZ1DP_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1DP_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1DA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1DA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_QZ1LM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1LM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1EE_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1EE_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1E2_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1E2_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_AZ1EK_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ1EK_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_AZ1FB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ1FB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1FP_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1FP_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_QZ1FT_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1FT_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_QZ1FS_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1FS_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_QZ1FR_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1FR_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_QZ1GO_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1GO_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_AZ1KL_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ1KL_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_QZ1KK_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1KK_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1DN_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1DN_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_QZ1EO_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1EO_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1CB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1CB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1B8_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1B8_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1C4_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1C4_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_QZ1D8_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1D8_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1SW_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1SW_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_QZ1AP_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1AP_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ2CB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ2CB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1CG_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1CG_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_AZ1PV_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ1PV_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ3CB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ3CB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ5CS_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ5CS_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ8JA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ8JA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_QZ7JM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ7JM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_QZ7DO_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ7DO_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ5TA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ5TA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ2LB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ2LB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ2GB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ2GB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ2LH_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ2LH_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ2NM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ2NM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_QZ2SB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ2SB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ2BG_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ2BG_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1SA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1SA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ1FA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1FA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ115_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ115_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ120_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ120_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ118_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ118_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ119_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ119_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ138_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ138_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ142_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ142_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ134_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ134_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ123_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ123_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ136_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ136_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ165_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ165_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ1FF_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1FF_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ167_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ167_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ175_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ175_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ177_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ177_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ143_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ143_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ159_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ159_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ162_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ162_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ113_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ113_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ133_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ133_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ137_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ137_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ237_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ237_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ1G4_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1G4_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZBW1_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZBW1_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ9TS_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ9TS_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ1HM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1HM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ2HM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ2HM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ2RP_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ2RP_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ1TT_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1TT_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ1AM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1AM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ1JW_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1JW_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ1MH_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1MH_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ1M2_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1M2_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ1TM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1TM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ1T2_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1T2_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ2AM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ2AM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ2CR_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ2CR_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ1SC_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1SC_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ1PB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1PB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ1JN_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1JN_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ1J2_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1J2_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ1MK_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1MK_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ1CA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1CA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ2TM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ2TM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ2T1_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ2T1_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ2T2_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ2T2_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ1JA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1JA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ1BC_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1BC_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ1JL_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1JL_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ1AL_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1AL_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ1MW_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1MW_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ1MS_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1MS_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ1DF_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1DF_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ1AJ_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1AJ_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ1JI_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1JI_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZJI2_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZJI2_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ1CM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1CM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ2MS_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ2MS_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ2JN_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ2JN_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1GF_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1GF_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1G2_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1G2_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_QZ1BP_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1BP_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1JF_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1JF_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_AZ1CI_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ1CI_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1KM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1KM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1OV_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1OV_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_QZ1JB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1JB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_QZ1BG_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1BG_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1TM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1TM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_QZ177_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ177_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_QZ1BM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1BM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_QZ1MD_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1MD_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1RR_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1RR_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_AZ1JB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ1JB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1AD_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1AD_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_QZ1ML_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1ML_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1FA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1FA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ2SA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ2SA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_QZ1SL_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1SL_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_AZ1CM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ1CM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_QZ3JB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ3JB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_AZ1WH_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ1WH_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_AZ1YU_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ1YU_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_AZ1WX_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ1WX_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_AZ1XF_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ1XF_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_AZ1XT_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ1XT_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_AZ1YP_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_AZ1YP_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_QZ1XH_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1XH_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_QZ1X2_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1X2_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_QZ1TB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1TB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_QZ1TD_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1TD_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_QZ1B9_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1B9_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_QZ1TK_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1TK_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_QZ1YE_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1YE_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_QZ1TE_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1TE_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_QZ1TI_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_QZ1TI_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1YI_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1YI_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1YW_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1YW_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1UE_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1UE_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1MJ_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1MJ_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1VG_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1VG_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1VJ_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1VJ_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1MI_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1MI_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1XD_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1XD_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1XB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1XB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1WT_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1WT_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1XA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1XA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ1RB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1RB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ2KF_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ2KF_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ148_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ148_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ8GM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ8GM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ1BH_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1BH_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ114_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ114_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ1A6_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ1A6_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ139_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ139_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1VL_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1VL_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1VK_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1VK_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1LR_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1LR_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1UV_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1UV_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1WV_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1WV_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1UO_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1UO_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1XC_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1XC_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1YN_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1YN_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1UI_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1UI_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1UU_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1UU_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1UW_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1UW_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1VC_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1VC_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1UX_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1UX_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_CZ1UZ_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_CZ1UZ_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201710_WZ8JP_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201710_WZ8JP_Top15.xlsx</t>
   </si>
 </sst>
 </file>
@@ -2042,16 +2048,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N188"/>
+  <dimension ref="A1:N189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" customWidth="1"/>
     <col min="4" max="4" width="46.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="3.33203125" customWidth="1"/>
     <col min="7" max="7" width="78.6640625" customWidth="1"/>
@@ -2067,13 +2071,13 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>557</v>
+        <v>186</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>556</v>
+        <v>185</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -2097,10 +2101,10 @@
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="M1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="N1" s="1"/>
     </row>
@@ -2111,7 +2115,7 @@
       </c>
       <c r="D2" t="str">
         <f>D3</f>
-        <v>FSC Top 15 Summary for August 2017</v>
+        <v>FSC Top 15 Summary for October 2017</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2121,22 +2125,22 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1SD_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1SD_Top15.pdf</v>
       </c>
       <c r="H2" t="str">
         <f>$K2&amp;"\"&amp;M2</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1SD_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1SD_Top15.xlsx</v>
       </c>
       <c r="K2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L2" t="str">
         <f>L3</f>
-        <v>201708_CZ1SD_Top15.pdf</v>
+        <v>201710_CZ1SD_Top15.pdf</v>
       </c>
       <c r="M2" t="str">
         <f>M3</f>
-        <v>201708_CZ1SD_Top15.xlsx</v>
+        <v>201710_CZ1SD_Top15.xlsx</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -2145,7 +2149,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2155,20 +2159,20 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:H18" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1SD_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1SD_Top15.pdf</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1SD_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1SD_Top15.xlsx</v>
       </c>
       <c r="K3" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M3" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
@@ -2177,7 +2181,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2187,20 +2191,20 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G17" si="1">$K4&amp;"\"&amp;L4</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ125_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ125_Top15.pdf</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ125_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ125_Top15.xlsx</v>
       </c>
       <c r="K4" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L4" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="M4" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
@@ -2209,7 +2213,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2219,20 +2223,20 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ124_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ124_Top15.pdf</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ124_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ124_Top15.xlsx</v>
       </c>
       <c r="K5" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -2241,7 +2245,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2251,20 +2255,20 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ132_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ132_Top15.pdf</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ132_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ132_Top15.xlsx</v>
       </c>
       <c r="K6" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -2273,7 +2277,7 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2283,20 +2287,20 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ128_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ128_Top15.pdf</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ128_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ128_Top15.xlsx</v>
       </c>
       <c r="K7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
@@ -2305,7 +2309,7 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2315,20 +2319,20 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ144_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ144_Top15.pdf</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ144_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ144_Top15.xlsx</v>
       </c>
       <c r="K8" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
@@ -2337,7 +2341,7 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2347,29 +2351,29 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ165_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ165_Top15.pdf</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ165_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ165_Top15.xlsx</v>
       </c>
       <c r="K9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L9" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="M9" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2379,29 +2383,29 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ177_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ178_Top15.pdf</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ177_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ178_Top15.xlsx</v>
       </c>
       <c r="K10" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2411,29 +2415,29 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ178_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ183_Top15.pdf</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ178_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ183_Top15.xlsx</v>
       </c>
       <c r="K11" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L11" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="M11" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2443,29 +2447,29 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ183_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ107_Top15.pdf</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ183_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ107_Top15.xlsx</v>
       </c>
       <c r="K12" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L12" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M12" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2475,29 +2479,29 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ107_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ109_Top15.pdf</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ107_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ109_Top15.xlsx</v>
       </c>
       <c r="K13" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L13" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2507,29 +2511,29 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ109_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ112_Top15.pdf</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ109_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ112_Top15.xlsx</v>
       </c>
       <c r="K14" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L14" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M14" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2539,29 +2543,29 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_AZ112_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1CP_Top15.pdf</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_AZ112_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1CP_Top15.xlsx</v>
       </c>
       <c r="K15" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L15" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M15" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2571,29 +2575,29 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1CP_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ154_Top15.pdf</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1CP_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ154_Top15.xlsx</v>
       </c>
       <c r="K16" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="M16" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2603,29 +2607,29 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ154_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1KD_Top15.pdf</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ154_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1KD_Top15.xlsx</v>
       </c>
       <c r="K17" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="M17" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2635,29 +2639,29 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" ref="G18:G81" si="2">$K18&amp;"\"&amp;L18</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1KD_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1CF_Top15.pdf</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1KD_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1CF_Top15.xlsx</v>
       </c>
       <c r="K18" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="M18" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2667,28 +2671,28 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1CF_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1EM_Top15.pdf</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" ref="H19:H82" si="3">$K19&amp;"\"&amp;M19</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1CF_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1EM_Top15.xlsx</v>
       </c>
       <c r="K19" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L19" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M19" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2698,28 +2702,28 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1EM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1DP_Top15.pdf</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1EM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1DP_Top15.xlsx</v>
       </c>
       <c r="K20" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L20" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M20" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2729,28 +2733,28 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1DP_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1DA_Top15.pdf</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1DP_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1DA_Top15.xlsx</v>
       </c>
       <c r="K21" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L21" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="M21" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2760,28 +2764,28 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1DA_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1LM_Top15.pdf</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1DA_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1LM_Top15.xlsx</v>
       </c>
       <c r="K22" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L22" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M22" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2791,20 +2795,20 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1LM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1EE_Top15.pdf</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1LM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1EE_Top15.xlsx</v>
       </c>
       <c r="K23" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L23" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="M23" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -2812,7 +2816,7 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2822,28 +2826,28 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1EE_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1E2_Top15.pdf</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1EE_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1E2_Top15.xlsx</v>
       </c>
       <c r="K24" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L24" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M24" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2853,28 +2857,28 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1E2_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1EK_Top15.pdf</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1E2_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1EK_Top15.xlsx</v>
       </c>
       <c r="K25" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L25" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M25" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2884,28 +2888,28 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_AZ1EK_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1FB_Top15.pdf</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_AZ1EK_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1FB_Top15.xlsx</v>
       </c>
       <c r="K26" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L26" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M26" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2915,28 +2919,28 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_AZ1FB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1FP_Top15.pdf</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_AZ1FB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1FP_Top15.xlsx</v>
       </c>
       <c r="K27" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L27" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M27" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2946,28 +2950,28 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1FP_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1FT_Top15.pdf</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1FP_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1FT_Top15.xlsx</v>
       </c>
       <c r="K28" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L28" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="M28" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2977,28 +2981,28 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1FT_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1FS_Top15.pdf</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1FT_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1FS_Top15.xlsx</v>
       </c>
       <c r="K29" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L29" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M29" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -3008,28 +3012,28 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1FS_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1FR_Top15.pdf</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1FS_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1FR_Top15.xlsx</v>
       </c>
       <c r="K30" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L30" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M30" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -3039,28 +3043,28 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1FR_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1GO_Top15.pdf</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1FR_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1GO_Top15.xlsx</v>
       </c>
       <c r="K31" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L31" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M31" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -3070,28 +3074,28 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1GO_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1KL_Top15.pdf</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1GO_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1KL_Top15.xlsx</v>
       </c>
       <c r="K32" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L32" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M32" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -3101,28 +3105,28 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_AZ1KL_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1KK_Top15.pdf</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_AZ1KL_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1KK_Top15.xlsx</v>
       </c>
       <c r="K33" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L33" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M33" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3132,28 +3136,28 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1KK_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1DN_Top15.pdf</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1KK_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1DN_Top15.xlsx</v>
       </c>
       <c r="K34" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L34" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M34" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3163,28 +3167,28 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1DN_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1EO_Top15.pdf</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1DN_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1EO_Top15.xlsx</v>
       </c>
       <c r="K35" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L35" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M35" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3194,28 +3198,28 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1EO_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1CB_Top15.pdf</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1EO_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1CB_Top15.xlsx</v>
       </c>
       <c r="K36" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L36" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M36" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3225,28 +3229,28 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1CB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1B8_Top15.pdf</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1CB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1B8_Top15.xlsx</v>
       </c>
       <c r="K37" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L37" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M37" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D38" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -3256,28 +3260,28 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1B8_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1C4_Top15.pdf</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1B8_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1C4_Top15.xlsx</v>
       </c>
       <c r="K38" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L38" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M38" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3287,28 +3291,28 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1C4_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1D8_Top15.pdf</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1C4_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1D8_Top15.xlsx</v>
       </c>
       <c r="K39" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L39" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M39" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3318,28 +3322,28 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1D8_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1SW_Top15.pdf</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1D8_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1SW_Top15.xlsx</v>
       </c>
       <c r="K40" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L40" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M40" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D41" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3349,28 +3353,28 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1SW_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1AP_Top15.pdf</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1SW_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1AP_Top15.xlsx</v>
       </c>
       <c r="K41" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L41" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M41" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3380,28 +3384,28 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1AP_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ2CB_Top15.pdf</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1AP_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ2CB_Top15.xlsx</v>
       </c>
       <c r="K42" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L42" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="M42" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3411,28 +3415,28 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ2CB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1CG_Top15.pdf</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ2CB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1CG_Top15.xlsx</v>
       </c>
       <c r="K43" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L43" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="M43" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D44" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3442,28 +3446,28 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1CG_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1PV_Top15.pdf</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1CG_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1PV_Top15.xlsx</v>
       </c>
       <c r="K44" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L44" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M44" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D45" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -3473,28 +3477,28 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_AZ1PV_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ3CB_Top15.pdf</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_AZ1PV_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ3CB_Top15.xlsx</v>
       </c>
       <c r="K45" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L45" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="M45" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D46" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -3504,28 +3508,28 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ3CB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ5CS_Top15.pdf</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ3CB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ5CS_Top15.xlsx</v>
       </c>
       <c r="K46" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L46" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="M46" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D47" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3535,28 +3539,28 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ5CS_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ8JA_Top15.pdf</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ5CS_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ8JA_Top15.xlsx</v>
       </c>
       <c r="K47" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L47" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="M47" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D48" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3566,28 +3570,28 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ8JA_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ7JM_Top15.pdf</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ8JA_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ7JM_Top15.xlsx</v>
       </c>
       <c r="K48" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L48" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M48" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D49" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3597,28 +3601,28 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ7JM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ7DO_Top15.pdf</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ7JM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ7DO_Top15.xlsx</v>
       </c>
       <c r="K49" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L49" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M49" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D50" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3628,28 +3632,28 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ7DO_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ5TA_Top15.pdf</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ7DO_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ5TA_Top15.xlsx</v>
       </c>
       <c r="K50" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L50" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="M50" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D51" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3659,28 +3663,28 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ5TA_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ2LB_Top15.pdf</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ5TA_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ2LB_Top15.xlsx</v>
       </c>
       <c r="K51" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L51" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="M51" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D52" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3690,28 +3694,28 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ2LB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ2GB_Top15.pdf</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ2LB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ2GB_Top15.xlsx</v>
       </c>
       <c r="K52" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L52" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M52" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D53" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3721,28 +3725,28 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ2GB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ2LH_Top15.pdf</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ2GB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ2LH_Top15.xlsx</v>
       </c>
       <c r="K53" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L53" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="M53" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D54" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3752,28 +3756,28 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ2LH_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ2NM_Top15.pdf</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ2LH_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ2NM_Top15.xlsx</v>
       </c>
       <c r="K54" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L54" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M54" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D55" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3783,28 +3787,28 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ2NM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ2SB_Top15.pdf</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ2NM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ2SB_Top15.xlsx</v>
       </c>
       <c r="K55" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L55" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M55" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D56" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3814,28 +3818,28 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ2SB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ2BG_Top15.pdf</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ2SB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ2BG_Top15.xlsx</v>
       </c>
       <c r="K56" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L56" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M56" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D57" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3845,28 +3849,28 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ2BG_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1SA_Top15.pdf</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ2BG_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1SA_Top15.xlsx</v>
       </c>
       <c r="K57" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L57" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="M57" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D58" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3876,28 +3880,28 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1SA_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1FA_Top15.pdf</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1SA_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1FA_Top15.xlsx</v>
       </c>
       <c r="K58" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L58" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M58" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D59" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3907,28 +3911,28 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1FA_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ115_Top15.pdf</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1FA_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ115_Top15.xlsx</v>
       </c>
       <c r="K59" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L59" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M59" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D60" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3938,28 +3942,28 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ115_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ120_Top15.pdf</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ115_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ120_Top15.xlsx</v>
       </c>
       <c r="K60" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L60" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="M60" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D61" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3969,28 +3973,28 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ120_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ118_Top15.pdf</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ120_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ118_Top15.xlsx</v>
       </c>
       <c r="K61" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L61" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M61" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D62" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4000,28 +4004,28 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ118_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ119_Top15.pdf</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ118_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ119_Top15.xlsx</v>
       </c>
       <c r="K62" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L62" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="M62" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D63" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4031,28 +4035,28 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ119_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ138_Top15.pdf</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ119_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ138_Top15.xlsx</v>
       </c>
       <c r="K63" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L63" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M63" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D64" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -4062,28 +4066,28 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ138_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ142_Top15.pdf</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ138_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ142_Top15.xlsx</v>
       </c>
       <c r="K64" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L64" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="M64" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D65" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -4093,28 +4097,28 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ142_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ134_Top15.pdf</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ142_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ134_Top15.xlsx</v>
       </c>
       <c r="K65" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L65" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M65" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D66" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4124,28 +4128,28 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ134_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ123_Top15.pdf</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ134_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ123_Top15.xlsx</v>
       </c>
       <c r="K66" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L66" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="M66" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D67" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -4155,28 +4159,28 @@
       </c>
       <c r="G67" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ123_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ136_Top15.pdf</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ123_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ136_Top15.xlsx</v>
       </c>
       <c r="K67" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L67" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="M67" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D68" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4186,28 +4190,28 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ136_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ165_Top15.pdf</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ136_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ165_Top15.xlsx</v>
       </c>
       <c r="K68" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L68" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M68" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D69" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4217,28 +4221,28 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ165_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1FF_Top15.pdf</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ165_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1FF_Top15.xlsx</v>
       </c>
       <c r="K69" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L69" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="M69" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D70" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -4248,28 +4252,28 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1FF_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ167_Top15.pdf</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1FF_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ167_Top15.xlsx</v>
       </c>
       <c r="K70" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L70" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="M70" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D71" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -4279,28 +4283,28 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ167_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ175_Top15.pdf</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ167_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ175_Top15.xlsx</v>
       </c>
       <c r="K71" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L71" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="M71" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D72" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -4310,28 +4314,28 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ175_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ177_Top15.pdf</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ175_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ177_Top15.xlsx</v>
       </c>
       <c r="K72" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L72" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="M72" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D73" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -4341,28 +4345,28 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ177_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ143_Top15.pdf</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ177_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ143_Top15.xlsx</v>
       </c>
       <c r="K73" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L73" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="M73" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D74" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -4372,28 +4376,28 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ143_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ159_Top15.pdf</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ143_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ159_Top15.xlsx</v>
       </c>
       <c r="K74" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L74" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M74" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D75" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -4403,28 +4407,28 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ159_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ162_Top15.pdf</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ159_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ162_Top15.xlsx</v>
       </c>
       <c r="K75" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L75" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M75" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D76" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -4434,28 +4438,28 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ162_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ113_Top15.pdf</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ162_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ113_Top15.xlsx</v>
       </c>
       <c r="K76" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L76" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M76" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D77" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -4465,28 +4469,28 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ113_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ133_Top15.pdf</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ113_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ133_Top15.xlsx</v>
       </c>
       <c r="K77" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L77" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M77" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D78" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -4496,20 +4500,20 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ133_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ137_Top15.pdf</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ133_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ137_Top15.xlsx</v>
       </c>
       <c r="K78" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L78" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M78" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.3">
@@ -4517,7 +4521,7 @@
         <v>85</v>
       </c>
       <c r="D79" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -4527,28 +4531,28 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ137_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ237_Top15.pdf</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ137_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ237_Top15.xlsx</v>
       </c>
       <c r="K79" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L79" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="M79" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D80" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -4558,28 +4562,28 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ237_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1G4_Top15.pdf</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ237_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1G4_Top15.xlsx</v>
       </c>
       <c r="K80" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L80" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M80" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D81" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -4589,28 +4593,28 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1G4_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZBW1_Top15.pdf</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1G4_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZBW1_Top15.xlsx</v>
       </c>
       <c r="K81" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L81" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M81" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D82" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -4620,28 +4624,28 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" ref="G82:G145" si="4">$K82&amp;"\"&amp;L82</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZBW1_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ9TS_Top15.pdf</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZBW1_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ9TS_Top15.xlsx</v>
       </c>
       <c r="K82" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L82" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="M82" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D83" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -4651,20 +4655,20 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ9TS_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1HM_Top15.pdf</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" ref="H83:H146" si="5">$K83&amp;"\"&amp;M83</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ9TS_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1HM_Top15.xlsx</v>
       </c>
       <c r="K83" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L83" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M83" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.3">
@@ -4672,7 +4676,7 @@
         <v>89</v>
       </c>
       <c r="D84" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -4682,28 +4686,28 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1HM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2HM_Top15.pdf</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1HM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2HM_Top15.xlsx</v>
       </c>
       <c r="K84" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L84" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M84" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D85" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -4713,20 +4717,20 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ2HM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1HM_Top15.pdf</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ2HM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1HM_Top15.xlsx</v>
       </c>
       <c r="K85" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L85" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M85" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.3">
@@ -4734,7 +4738,7 @@
         <v>90</v>
       </c>
       <c r="D86" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -4744,28 +4748,28 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1HM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2HM_Top15.pdf</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1HM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2HM_Top15.xlsx</v>
       </c>
       <c r="K86" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L86" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="M86" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D87" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -4775,28 +4779,28 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ2HM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2RP_Top15.pdf</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ2HM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2RP_Top15.xlsx</v>
       </c>
       <c r="K87" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L87" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="M87" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D88" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -4806,28 +4810,28 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ2RP_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1TT_Top15.pdf</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ2RP_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1TT_Top15.xlsx</v>
       </c>
       <c r="K88" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L88" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M88" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D89" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -4837,28 +4841,28 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1TT_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1AM_Top15.pdf</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1TT_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1AM_Top15.xlsx</v>
       </c>
       <c r="K89" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L89" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M89" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D90" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -4868,28 +4872,28 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1AM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1JW_Top15.pdf</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1AM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1JW_Top15.xlsx</v>
       </c>
       <c r="K90" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L90" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M90" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D91" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -4899,20 +4903,20 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1JW_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1MH_Top15.pdf</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1JW_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1MH_Top15.xlsx</v>
       </c>
       <c r="K91" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L91" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M91" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.3">
@@ -4920,7 +4924,7 @@
         <v>95</v>
       </c>
       <c r="D92" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -4930,28 +4934,28 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1MH_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1M2_Top15.pdf</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1MH_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1M2_Top15.xlsx</v>
       </c>
       <c r="K92" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L92" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M92" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D93" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -4961,20 +4965,20 @@
       </c>
       <c r="G93" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1M2_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1TM_Top15.pdf</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1M2_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1TM_Top15.xlsx</v>
       </c>
       <c r="K93" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L93" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="M93" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.3">
@@ -4982,7 +4986,7 @@
         <v>96</v>
       </c>
       <c r="D94" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -4992,28 +4996,28 @@
       </c>
       <c r="G94" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1TM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1T2_Top15.pdf</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1TM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1T2_Top15.xlsx</v>
       </c>
       <c r="K94" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L94" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M94" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D95" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -5023,28 +5027,28 @@
       </c>
       <c r="G95" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1T2_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2AM_Top15.pdf</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1T2_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2AM_Top15.xlsx</v>
       </c>
       <c r="K95" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L95" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M95" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D96" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -5054,28 +5058,28 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ2AM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ2CR_Top15.pdf</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ2AM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ2CR_Top15.xlsx</v>
       </c>
       <c r="K96" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L96" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M96" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D97" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -5085,28 +5089,28 @@
       </c>
       <c r="G97" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ2CR_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1SC_Top15.pdf</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ2CR_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1SC_Top15.xlsx</v>
       </c>
       <c r="K97" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L97" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="M97" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D98" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -5116,28 +5120,28 @@
       </c>
       <c r="G98" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1SC_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1PB_Top15.pdf</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1SC_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1PB_Top15.xlsx</v>
       </c>
       <c r="K98" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L98" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M98" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D99" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -5147,20 +5151,20 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1PB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1JN_Top15.pdf</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1PB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1JN_Top15.xlsx</v>
       </c>
       <c r="K99" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L99" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M99" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.3">
@@ -5168,7 +5172,7 @@
         <v>101</v>
       </c>
       <c r="D100" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -5178,28 +5182,28 @@
       </c>
       <c r="G100" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1JN_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1J2_Top15.pdf</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1JN_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1J2_Top15.xlsx</v>
       </c>
       <c r="K100" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L100" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M100" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D101" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -5209,28 +5213,28 @@
       </c>
       <c r="G101" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1J2_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1MK_Top15.pdf</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1J2_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1MK_Top15.xlsx</v>
       </c>
       <c r="K101" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L101" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M101" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B102" t="s">
-        <v>102</v>
+        <v>183</v>
       </c>
       <c r="D102" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -5240,28 +5244,28 @@
       </c>
       <c r="G102" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1MK_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1CA_Top15.pdf</v>
       </c>
       <c r="H102" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1MK_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1CA_Top15.xlsx</v>
       </c>
       <c r="K102" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L102" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="M102" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B103" t="s">
-        <v>185</v>
+        <v>103</v>
       </c>
       <c r="D103" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -5271,20 +5275,20 @@
       </c>
       <c r="G103" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1CA_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2TM_Top15.pdf</v>
       </c>
       <c r="H103" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1CA_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2TM_Top15.xlsx</v>
       </c>
       <c r="K103" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L103" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="M103" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.3">
@@ -5292,7 +5296,7 @@
         <v>103</v>
       </c>
       <c r="D104" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -5302,20 +5306,20 @@
       </c>
       <c r="G104" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ2TM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2T1_Top15.pdf</v>
       </c>
       <c r="H104" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ2TM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2T1_Top15.xlsx</v>
       </c>
       <c r="K104" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L104" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M104" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.3">
@@ -5323,7 +5327,7 @@
         <v>103</v>
       </c>
       <c r="D105" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -5333,28 +5337,28 @@
       </c>
       <c r="G105" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ2T1_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2T2_Top15.pdf</v>
       </c>
       <c r="H105" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ2T1_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2T2_Top15.xlsx</v>
       </c>
       <c r="K105" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L105" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M105" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B106" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D106" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -5364,28 +5368,28 @@
       </c>
       <c r="G106" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ2T2_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1JA_Top15.pdf</v>
       </c>
       <c r="H106" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ2T2_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1JA_Top15.xlsx</v>
       </c>
       <c r="K106" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L106" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="M106" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B107" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D107" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -5395,28 +5399,28 @@
       </c>
       <c r="G107" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1JA_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1BC_Top15.pdf</v>
       </c>
       <c r="H107" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1JA_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1BC_Top15.xlsx</v>
       </c>
       <c r="K107" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L107" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M107" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B108" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D108" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -5426,28 +5430,28 @@
       </c>
       <c r="G108" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1BC_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1JL_Top15.pdf</v>
       </c>
       <c r="H108" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1BC_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1JL_Top15.xlsx</v>
       </c>
       <c r="K108" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L108" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="M108" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B109" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D109" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -5457,28 +5461,28 @@
       </c>
       <c r="G109" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1JL_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1AL_Top15.pdf</v>
       </c>
       <c r="H109" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1JL_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1AL_Top15.xlsx</v>
       </c>
       <c r="K109" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L109" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M109" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B110" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D110" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -5488,28 +5492,28 @@
       </c>
       <c r="G110" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1AL_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1MW_Top15.pdf</v>
       </c>
       <c r="H110" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1AL_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1MW_Top15.xlsx</v>
       </c>
       <c r="K110" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L110" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M110" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B111" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D111" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -5519,28 +5523,28 @@
       </c>
       <c r="G111" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1MW_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1MS_Top15.pdf</v>
       </c>
       <c r="H111" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1MW_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1MS_Top15.xlsx</v>
       </c>
       <c r="K111" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L111" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M111" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B112" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D112" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -5550,28 +5554,28 @@
       </c>
       <c r="G112" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1MS_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1DF_Top15.pdf</v>
       </c>
       <c r="H112" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1MS_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1DF_Top15.xlsx</v>
       </c>
       <c r="K112" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L112" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M112" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B113" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D113" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -5581,28 +5585,28 @@
       </c>
       <c r="G113" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1DF_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1AJ_Top15.pdf</v>
       </c>
       <c r="H113" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1DF_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1AJ_Top15.xlsx</v>
       </c>
       <c r="K113" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L113" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M113" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B114" t="s">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="D114" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -5612,28 +5616,28 @@
       </c>
       <c r="G114" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1AJ_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1JI_Top15.pdf</v>
       </c>
       <c r="H114" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1AJ_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1JI_Top15.xlsx</v>
       </c>
       <c r="K114" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L114" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M114" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B115" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="D115" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -5643,28 +5647,28 @@
       </c>
       <c r="G115" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1GF_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZJI2_Top15.pdf</v>
       </c>
       <c r="H115" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1GF_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZJI2_Top15.xlsx</v>
       </c>
       <c r="K115" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L115" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M115" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B116" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="D116" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -5674,28 +5678,28 @@
       </c>
       <c r="G116" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1G2_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1CM_Top15.pdf</v>
       </c>
       <c r="H116" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1G2_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1CM_Top15.xlsx</v>
       </c>
       <c r="K116" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L116" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M116" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B117" t="s">
-        <v>113</v>
+        <v>179</v>
       </c>
       <c r="D117" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -5705,28 +5709,28 @@
       </c>
       <c r="G117" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1BP_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2MS_Top15.pdf</v>
       </c>
       <c r="H117" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1BP_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2MS_Top15.xlsx</v>
       </c>
       <c r="K117" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L117" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M117" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B118" t="s">
-        <v>114</v>
+        <v>180</v>
       </c>
       <c r="D118" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -5736,28 +5740,28 @@
       </c>
       <c r="G118" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1JF_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2JN_Top15.pdf</v>
       </c>
       <c r="H118" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1JF_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2JN_Top15.xlsx</v>
       </c>
       <c r="K118" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L118" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="M118" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B119" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D119" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -5767,28 +5771,28 @@
       </c>
       <c r="G119" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_AZ1CI_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1GF_Top15.pdf</v>
       </c>
       <c r="H119" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_AZ1CI_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1GF_Top15.xlsx</v>
       </c>
       <c r="K119" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L119" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="M119" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B120" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D120" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -5798,28 +5802,28 @@
       </c>
       <c r="G120" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1KM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1G2_Top15.pdf</v>
       </c>
       <c r="H120" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1KM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1G2_Top15.xlsx</v>
       </c>
       <c r="K120" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L120" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M120" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B121" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D121" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -5829,28 +5833,28 @@
       </c>
       <c r="G121" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1OV_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1BP_Top15.pdf</v>
       </c>
       <c r="H121" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1OV_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1BP_Top15.xlsx</v>
       </c>
       <c r="K121" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L121" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="M121" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B122" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D122" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -5860,28 +5864,28 @@
       </c>
       <c r="G122" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1JB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1JF_Top15.pdf</v>
       </c>
       <c r="H122" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1JB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1JF_Top15.xlsx</v>
       </c>
       <c r="K122" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L122" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M122" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B123" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D123" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -5891,28 +5895,28 @@
       </c>
       <c r="G123" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1BG_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1CI_Top15.pdf</v>
       </c>
       <c r="H123" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1BG_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1CI_Top15.xlsx</v>
       </c>
       <c r="K123" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L123" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M123" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B124" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D124" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -5922,28 +5926,28 @@
       </c>
       <c r="G124" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1TM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1KM_Top15.pdf</v>
       </c>
       <c r="H124" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1TM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1KM_Top15.xlsx</v>
       </c>
       <c r="K124" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L124" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="M124" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B125" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D125" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -5953,28 +5957,28 @@
       </c>
       <c r="G125" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1BM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1OV_Top15.pdf</v>
       </c>
       <c r="H125" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1BM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1OV_Top15.xlsx</v>
       </c>
       <c r="K125" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L125" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="M125" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B126" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D126" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -5984,28 +5988,28 @@
       </c>
       <c r="G126" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1MD_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1JB_Top15.pdf</v>
       </c>
       <c r="H126" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1MD_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1JB_Top15.xlsx</v>
       </c>
       <c r="K126" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L126" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M126" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B127" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D127" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -6015,28 +6019,28 @@
       </c>
       <c r="G127" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1RR_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1BG_Top15.pdf</v>
       </c>
       <c r="H127" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1RR_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1BG_Top15.xlsx</v>
       </c>
       <c r="K127" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L127" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M127" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B128" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D128" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -6046,28 +6050,28 @@
       </c>
       <c r="G128" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_AZ1JB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1TM_Top15.pdf</v>
       </c>
       <c r="H128" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_AZ1JB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1TM_Top15.xlsx</v>
       </c>
       <c r="K128" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L128" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="M128" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B129" t="s">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="D129" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -6077,28 +6081,28 @@
       </c>
       <c r="G129" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1AD_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ177_Top15.pdf</v>
       </c>
       <c r="H129" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1AD_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ177_Top15.xlsx</v>
       </c>
       <c r="K129" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L129" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="M129" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B130" t="s">
-        <v>186</v>
+        <v>121</v>
       </c>
       <c r="D130" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -6108,28 +6112,28 @@
       </c>
       <c r="G130" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1ML_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1BM_Top15.pdf</v>
       </c>
       <c r="H130" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1ML_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1BM_Top15.xlsx</v>
       </c>
       <c r="K130" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L130" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="M130" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B131" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D131" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -6139,28 +6143,28 @@
       </c>
       <c r="G131" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1FA_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1MD_Top15.pdf</v>
       </c>
       <c r="H131" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1FA_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1MD_Top15.xlsx</v>
       </c>
       <c r="K131" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L131" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="M131" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B132" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D132" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -6170,28 +6174,28 @@
       </c>
       <c r="G132" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ2SA_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1RR_Top15.pdf</v>
       </c>
       <c r="H132" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ2SA_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1RR_Top15.xlsx</v>
       </c>
       <c r="K132" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L132" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="M132" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B133" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D133" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -6201,28 +6205,28 @@
       </c>
       <c r="G133" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1JN_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1JB_Top15.pdf</v>
       </c>
       <c r="H133" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1JN_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1JB_Top15.xlsx</v>
       </c>
       <c r="K133" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L133" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M133" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B134" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D134" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -6232,28 +6236,28 @@
       </c>
       <c r="G134" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1SL_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1AD_Top15.pdf</v>
       </c>
       <c r="H134" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1SL_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1AD_Top15.xlsx</v>
       </c>
       <c r="K134" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L134" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M134" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B135" t="s">
-        <v>130</v>
+        <v>184</v>
       </c>
       <c r="D135" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -6263,28 +6267,28 @@
       </c>
       <c r="G135" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_AZ1CM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1ML_Top15.pdf</v>
       </c>
       <c r="H135" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_AZ1CM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1ML_Top15.xlsx</v>
       </c>
       <c r="K135" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L135" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="M135" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B136" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D136" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -6294,28 +6298,28 @@
       </c>
       <c r="G136" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_AZ1WH_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1FA_Top15.pdf</v>
       </c>
       <c r="H136" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_AZ1WH_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1FA_Top15.xlsx</v>
       </c>
       <c r="K136" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L136" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M136" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="137" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B137" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D137" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -6325,28 +6329,28 @@
       </c>
       <c r="G137" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_AZ1YU_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ2SA_Top15.pdf</v>
       </c>
       <c r="H137" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_AZ1YU_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ2SA_Top15.xlsx</v>
       </c>
       <c r="K137" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L137" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="M137" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="138" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B138" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D138" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -6356,28 +6360,28 @@
       </c>
       <c r="G138" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_AZ1WX_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1SL_Top15.pdf</v>
       </c>
       <c r="H138" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_AZ1WX_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1SL_Top15.xlsx</v>
       </c>
       <c r="K138" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L138" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="M138" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B139" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D139" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -6387,28 +6391,28 @@
       </c>
       <c r="G139" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_AZ1XF_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1CM_Top15.pdf</v>
       </c>
       <c r="H139" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_AZ1XF_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1CM_Top15.xlsx</v>
       </c>
       <c r="K139" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L139" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M139" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B140" t="s">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="D140" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -6418,28 +6422,28 @@
       </c>
       <c r="G140" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_AZ1XT_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ3JB_Top15.pdf</v>
       </c>
       <c r="H140" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_AZ1XT_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ3JB_Top15.xlsx</v>
       </c>
       <c r="K140" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L140" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="M140" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B141" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D141" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -6449,28 +6453,28 @@
       </c>
       <c r="G141" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_AZ1YP_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1WH_Top15.pdf</v>
       </c>
       <c r="H141" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_AZ1YP_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1WH_Top15.xlsx</v>
       </c>
       <c r="K141" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L141" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="M141" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B142" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D142" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -6480,28 +6484,28 @@
       </c>
       <c r="G142" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1XH_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1YU_Top15.pdf</v>
       </c>
       <c r="H142" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1XH_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1YU_Top15.xlsx</v>
       </c>
       <c r="K142" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L142" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="M142" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B143" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D143" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -6511,28 +6515,28 @@
       </c>
       <c r="G143" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1X2_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1WX_Top15.pdf</v>
       </c>
       <c r="H143" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1X2_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1WX_Top15.xlsx</v>
       </c>
       <c r="K143" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L143" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="M143" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B144" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D144" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -6542,28 +6546,28 @@
       </c>
       <c r="G144" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1TB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1XF_Top15.pdf</v>
       </c>
       <c r="H144" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1TB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1XF_Top15.xlsx</v>
       </c>
       <c r="K144" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L144" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="M144" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="145" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B145" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D145" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -6573,28 +6577,28 @@
       </c>
       <c r="G145" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1TD_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1XT_Top15.pdf</v>
       </c>
       <c r="H145" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1TD_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1XT_Top15.xlsx</v>
       </c>
       <c r="K145" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L145" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="M145" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B146" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D146" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -6604,28 +6608,28 @@
       </c>
       <c r="G146" t="str">
         <f t="shared" ref="G146:G188" si="6">$K146&amp;"\"&amp;L146</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1B9_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1YP_Top15.pdf</v>
       </c>
       <c r="H146" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1B9_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1YP_Top15.xlsx</v>
       </c>
       <c r="K146" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L146" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="M146" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B147" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D147" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -6635,28 +6639,28 @@
       </c>
       <c r="G147" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1TK_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1XH_Top15.pdf</v>
       </c>
       <c r="H147" t="str">
         <f t="shared" ref="H147:H188" si="7">$K147&amp;"\"&amp;M147</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1TK_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1XH_Top15.xlsx</v>
       </c>
       <c r="K147" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L147" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="M147" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="148" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B148" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D148" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -6666,28 +6670,28 @@
       </c>
       <c r="G148" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1YE_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1X2_Top15.pdf</v>
       </c>
       <c r="H148" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1YE_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1X2_Top15.xlsx</v>
       </c>
       <c r="K148" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L148" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M148" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="149" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B149" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D149" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -6697,28 +6701,28 @@
       </c>
       <c r="G149" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1TE_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1TB_Top15.pdf</v>
       </c>
       <c r="H149" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1TE_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1TB_Top15.xlsx</v>
       </c>
       <c r="K149" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L149" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="M149" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="150" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B150" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D150" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -6728,28 +6732,28 @@
       </c>
       <c r="G150" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1TI_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1TD_Top15.pdf</v>
       </c>
       <c r="H150" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ1TI_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1TD_Top15.xlsx</v>
       </c>
       <c r="K150" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L150" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="M150" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="151" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B151" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D151" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -6759,28 +6763,28 @@
       </c>
       <c r="G151" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1YI_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1B9_Top15.pdf</v>
       </c>
       <c r="H151" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1YI_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1B9_Top15.xlsx</v>
       </c>
       <c r="K151" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L151" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="M151" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B152" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D152" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -6790,28 +6794,28 @@
       </c>
       <c r="G152" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1YW_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1TK_Top15.pdf</v>
       </c>
       <c r="H152" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1YW_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1TK_Top15.xlsx</v>
       </c>
       <c r="K152" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L152" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="M152" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B153" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D153" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -6821,28 +6825,28 @@
       </c>
       <c r="G153" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1UE_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1YE_Top15.pdf</v>
       </c>
       <c r="H153" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1UE_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1YE_Top15.xlsx</v>
       </c>
       <c r="K153" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L153" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M153" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B154" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D154" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -6852,28 +6856,28 @@
       </c>
       <c r="G154" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1MJ_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1TE_Top15.pdf</v>
       </c>
       <c r="H154" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1MJ_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1TE_Top15.xlsx</v>
       </c>
       <c r="K154" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L154" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="M154" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="155" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B155" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D155" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -6883,28 +6887,28 @@
       </c>
       <c r="G155" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1VG_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1TI_Top15.pdf</v>
       </c>
       <c r="H155" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1VG_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1TI_Top15.xlsx</v>
       </c>
       <c r="K155" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L155" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M155" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="156" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B156" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D156" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -6914,28 +6918,28 @@
       </c>
       <c r="G156" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1VJ_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1YI_Top15.pdf</v>
       </c>
       <c r="H156" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1VJ_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1YI_Top15.xlsx</v>
       </c>
       <c r="K156" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L156" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="M156" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B157" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D157" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -6945,28 +6949,28 @@
       </c>
       <c r="G157" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1MI_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1YW_Top15.pdf</v>
       </c>
       <c r="H157" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1MI_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1YW_Top15.xlsx</v>
       </c>
       <c r="K157" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L157" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="M157" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="158" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B158" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D158" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -6976,28 +6980,28 @@
       </c>
       <c r="G158" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1XD_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1UE_Top15.pdf</v>
       </c>
       <c r="H158" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1XD_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1UE_Top15.xlsx</v>
       </c>
       <c r="K158" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L158" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M158" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B159" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D159" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -7007,28 +7011,28 @@
       </c>
       <c r="G159" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1XB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1MJ_Top15.pdf</v>
       </c>
       <c r="H159" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1XB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1MJ_Top15.xlsx</v>
       </c>
       <c r="K159" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L159" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="M159" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="160" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B160" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D160" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -7038,28 +7042,28 @@
       </c>
       <c r="G160" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1WT_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1VG_Top15.pdf</v>
       </c>
       <c r="H160" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1WT_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1VG_Top15.xlsx</v>
       </c>
       <c r="K160" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L160" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="M160" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="161" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B161" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D161" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -7069,28 +7073,28 @@
       </c>
       <c r="G161" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1XA_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1VJ_Top15.pdf</v>
       </c>
       <c r="H161" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1XA_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1VJ_Top15.xlsx</v>
       </c>
       <c r="K161" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L161" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="M161" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="162" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B162" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D162" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -7100,28 +7104,28 @@
       </c>
       <c r="G162" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1RB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1MI_Top15.pdf</v>
       </c>
       <c r="H162" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1RB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1MI_Top15.xlsx</v>
       </c>
       <c r="K162" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L162" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="M162" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="163" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B163" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D163" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -7131,28 +7135,28 @@
       </c>
       <c r="G163" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ2KF_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1XD_Top15.pdf</v>
       </c>
       <c r="H163" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ2KF_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1XD_Top15.xlsx</v>
       </c>
       <c r="K163" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L163" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="M163" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="164" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B164" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D164" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -7162,28 +7166,28 @@
       </c>
       <c r="G164" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ148_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1XB_Top15.pdf</v>
       </c>
       <c r="H164" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ148_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1XB_Top15.xlsx</v>
       </c>
       <c r="K164" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L164" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="M164" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="165" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B165" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D165" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -7193,28 +7197,28 @@
       </c>
       <c r="G165" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ8GM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1WT_Top15.pdf</v>
       </c>
       <c r="H165" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ8GM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1WT_Top15.xlsx</v>
       </c>
       <c r="K165" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L165" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="M165" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="166" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B166" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D166" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -7224,28 +7228,28 @@
       </c>
       <c r="G166" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1BH_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1XA_Top15.pdf</v>
       </c>
       <c r="H166" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1BH_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1XA_Top15.xlsx</v>
       </c>
       <c r="K166" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L166" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="M166" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="167" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B167" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D167" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -7255,28 +7259,28 @@
       </c>
       <c r="G167" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ114_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1RB_Top15.pdf</v>
       </c>
       <c r="H167" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ114_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1RB_Top15.xlsx</v>
       </c>
       <c r="K167" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L167" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="M167" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="168" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B168" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D168" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -7286,28 +7290,28 @@
       </c>
       <c r="G168" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1A6_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2KF_Top15.pdf</v>
       </c>
       <c r="H168" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1A6_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2KF_Top15.xlsx</v>
       </c>
       <c r="K168" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L168" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="M168" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="169" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B169" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D169" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -7317,28 +7321,28 @@
       </c>
       <c r="G169" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ139_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ148_Top15.pdf</v>
       </c>
       <c r="H169" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ139_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ148_Top15.xlsx</v>
       </c>
       <c r="K169" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L169" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="M169" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="170" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B170" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D170" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -7348,28 +7352,28 @@
       </c>
       <c r="G170" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1VL_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ8GM_Top15.pdf</v>
       </c>
       <c r="H170" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1VL_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ8GM_Top15.xlsx</v>
       </c>
       <c r="K170" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L170" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="M170" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="171" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B171" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D171" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -7379,28 +7383,28 @@
       </c>
       <c r="G171" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1VK_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1BH_Top15.pdf</v>
       </c>
       <c r="H171" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1VK_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1BH_Top15.xlsx</v>
       </c>
       <c r="K171" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L171" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="M171" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="172" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B172" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D172" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -7410,28 +7414,28 @@
       </c>
       <c r="G172" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1LR_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ114_Top15.pdf</v>
       </c>
       <c r="H172" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1LR_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ114_Top15.xlsx</v>
       </c>
       <c r="K172" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L172" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="M172" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="173" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B173" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D173" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E173">
         <v>1</v>
@@ -7441,28 +7445,28 @@
       </c>
       <c r="G173" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1UV_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1A6_Top15.pdf</v>
       </c>
       <c r="H173" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1UV_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1A6_Top15.xlsx</v>
       </c>
       <c r="K173" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L173" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="M173" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="174" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B174" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D174" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E174">
         <v>1</v>
@@ -7472,28 +7476,28 @@
       </c>
       <c r="G174" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1WV_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ139_Top15.pdf</v>
       </c>
       <c r="H174" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1WV_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ139_Top15.xlsx</v>
       </c>
       <c r="K174" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L174" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="M174" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="175" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B175" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D175" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -7503,28 +7507,28 @@
       </c>
       <c r="G175" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1UO_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1VL_Top15.pdf</v>
       </c>
       <c r="H175" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1UO_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1VL_Top15.xlsx</v>
       </c>
       <c r="K175" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L175" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="M175" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="176" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B176" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D176" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -7534,28 +7538,28 @@
       </c>
       <c r="G176" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1XC_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1VK_Top15.pdf</v>
       </c>
       <c r="H176" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1XC_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1VK_Top15.xlsx</v>
       </c>
       <c r="K176" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L176" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="M176" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="177" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B177" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D177" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -7565,28 +7569,28 @@
       </c>
       <c r="G177" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1YN_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1LR_Top15.pdf</v>
       </c>
       <c r="H177" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1YN_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1LR_Top15.xlsx</v>
       </c>
       <c r="K177" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L177" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="M177" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="178" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B178" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D178" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -7596,28 +7600,28 @@
       </c>
       <c r="G178" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1UI_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1UV_Top15.pdf</v>
       </c>
       <c r="H178" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1UI_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1UV_Top15.xlsx</v>
       </c>
       <c r="K178" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L178" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="M178" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="179" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B179" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D179" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -7627,28 +7631,28 @@
       </c>
       <c r="G179" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1UU_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1WV_Top15.pdf</v>
       </c>
       <c r="H179" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1UU_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1WV_Top15.xlsx</v>
       </c>
       <c r="K179" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L179" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="M179" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="180" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B180" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D180" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E180">
         <v>1</v>
@@ -7658,28 +7662,28 @@
       </c>
       <c r="G180" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1UW_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1UO_Top15.pdf</v>
       </c>
       <c r="H180" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1UW_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1UO_Top15.xlsx</v>
       </c>
       <c r="K180" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L180" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="M180" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="181" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B181" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D181" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -7689,28 +7693,28 @@
       </c>
       <c r="G181" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1VC_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1XC_Top15.pdf</v>
       </c>
       <c r="H181" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1VC_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1XC_Top15.xlsx</v>
       </c>
       <c r="K181" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L181" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="M181" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="182" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B182" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D182" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -7720,28 +7724,28 @@
       </c>
       <c r="G182" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1UX_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1YN_Top15.pdf</v>
       </c>
       <c r="H182" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1UX_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1YN_Top15.xlsx</v>
       </c>
       <c r="K182" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L182" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="M182" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="183" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B183" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D183" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -7751,28 +7755,28 @@
       </c>
       <c r="G183" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1UZ_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1UI_Top15.pdf</v>
       </c>
       <c r="H183" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_CZ1UZ_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1UI_Top15.xlsx</v>
       </c>
       <c r="K183" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L183" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="M183" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="184" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B184" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D184" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E184">
         <v>1</v>
@@ -7782,28 +7786,28 @@
       </c>
       <c r="G184" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1CM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1UU_Top15.pdf</v>
       </c>
       <c r="H184" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1CM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1UU_Top15.xlsx</v>
       </c>
       <c r="K184" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L184" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="M184" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="185" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B185" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D185" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E185">
         <v>1</v>
@@ -7813,28 +7817,28 @@
       </c>
       <c r="G185" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1JI_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1UW_Top15.pdf</v>
       </c>
       <c r="H185" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ1JI_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1UW_Top15.xlsx</v>
       </c>
       <c r="K185" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L185" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="M185" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="186" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B186" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D186" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -7844,28 +7848,28 @@
       </c>
       <c r="G186" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ3JB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1VC_Top15.pdf</v>
       </c>
       <c r="H186" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_QZ3JB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1VC_Top15.xlsx</v>
       </c>
       <c r="K186" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L186" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="M186" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="187" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B187" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D187" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -7875,28 +7879,28 @@
       </c>
       <c r="G187" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ2MS_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1UX_Top15.pdf</v>
       </c>
       <c r="H187" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ2MS_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1UX_Top15.xlsx</v>
       </c>
       <c r="K187" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L187" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="M187" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
     </row>
     <row r="188" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B188" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D188" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E188">
         <v>1</v>
@@ -7906,20 +7910,37 @@
       </c>
       <c r="G188" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ2JN_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1UZ_Top15.pdf</v>
       </c>
       <c r="H188" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_FSC_Top_15\201708_WZ2JN_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1UZ_Top15.xlsx</v>
       </c>
       <c r="K188" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="L188" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="M188" t="s">
-        <v>555</v>
+        <v>557</v>
+      </c>
+    </row>
+    <row r="189" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B189" t="s">
+        <v>188</v>
+      </c>
+      <c r="D189" t="s">
+        <v>189</v>
+      </c>
+      <c r="K189" t="s">
+        <v>187</v>
+      </c>
+      <c r="L189" t="s">
+        <v>558</v>
+      </c>
+      <c r="M189" t="s">
+        <v>559</v>
       </c>
     </row>
   </sheetData>

--- a/BR_Mailer/J051_TOP15_FSC/J051_Mailing List - excel.xlsx
+++ b/BR_Mailer/J051_TOP15_FSC/J051_Mailing List - excel.xlsx
@@ -588,1117 +588,1117 @@
     <t>Jenna.Plenert@henryschein.ca</t>
   </si>
   <si>
-    <t>FSC Top 15 Summary for October 2017</t>
-  </si>
-  <si>
-    <t>201710_CZ1SD_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1SD_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ125_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ125_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ124_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ124_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_QZ132_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ132_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ128_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ128_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ144_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ144_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ165_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ165_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_QZ178_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ178_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ183_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ183_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ107_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ107_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ109_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ109_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_AZ112_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ112_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1CP_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1CP_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ154_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ154_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1KD_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1KD_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_QZ1CF_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1CF_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1EM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1EM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_QZ1DP_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1DP_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1DA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1DA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_QZ1LM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1LM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1EE_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1EE_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1E2_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1E2_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_AZ1EK_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ1EK_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_AZ1FB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ1FB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1FP_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1FP_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_QZ1FT_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1FT_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_QZ1FS_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1FS_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_QZ1FR_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1FR_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_QZ1GO_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1GO_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_AZ1KL_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ1KL_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_QZ1KK_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1KK_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1DN_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1DN_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_QZ1EO_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1EO_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1CB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1CB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1B8_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1B8_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1C4_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1C4_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_QZ1D8_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1D8_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1SW_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1SW_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_QZ1AP_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1AP_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ2CB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ2CB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1CG_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1CG_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_AZ1PV_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ1PV_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ3CB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ3CB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ5CS_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ5CS_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ8JA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ8JA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_QZ7JM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ7JM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_QZ7DO_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ7DO_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ5TA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ5TA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ2LB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ2LB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ2GB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ2GB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ2LH_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ2LH_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ2NM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ2NM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_QZ2SB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ2SB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ2BG_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ2BG_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1SA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1SA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ1FA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1FA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ115_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ115_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ120_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ120_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ118_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ118_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ119_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ119_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ138_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ138_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ142_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ142_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ134_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ134_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ123_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ123_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ136_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ136_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ165_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ165_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ1FF_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1FF_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ167_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ167_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ175_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ175_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ177_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ177_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ143_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ143_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ159_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ159_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ162_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ162_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ113_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ113_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ133_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ133_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ137_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ137_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ237_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ237_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ1G4_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1G4_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZBW1_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZBW1_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ9TS_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ9TS_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ1HM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1HM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ2HM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ2HM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ2RP_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ2RP_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ1TT_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1TT_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ1AM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1AM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ1JW_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1JW_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ1MH_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1MH_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ1M2_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1M2_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ1TM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1TM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ1T2_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1T2_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ2AM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ2AM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ2CR_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ2CR_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ1SC_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1SC_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ1PB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1PB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ1JN_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1JN_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ1J2_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1J2_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ1MK_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1MK_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ1CA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1CA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ2TM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ2TM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ2T1_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ2T1_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ2T2_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ2T2_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ1JA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1JA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ1BC_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1BC_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ1JL_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1JL_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ1AL_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1AL_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ1MW_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1MW_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ1MS_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1MS_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ1DF_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1DF_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ1AJ_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1AJ_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ1JI_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1JI_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZJI2_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZJI2_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ1CM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1CM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ2MS_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ2MS_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ2JN_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ2JN_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1GF_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1GF_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1G2_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1G2_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_QZ1BP_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1BP_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1JF_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1JF_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_AZ1CI_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ1CI_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1KM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1KM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1OV_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1OV_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_QZ1JB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1JB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_QZ1BG_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1BG_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1TM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1TM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_QZ177_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ177_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_QZ1BM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1BM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_QZ1MD_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1MD_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1RR_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1RR_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_AZ1JB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ1JB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1AD_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1AD_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_QZ1ML_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1ML_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1FA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1FA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ2SA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ2SA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_QZ1SL_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1SL_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_AZ1CM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ1CM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_QZ3JB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ3JB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_AZ1WH_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ1WH_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_AZ1YU_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ1YU_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_AZ1WX_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ1WX_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_AZ1XF_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ1XF_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_AZ1XT_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ1XT_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_AZ1YP_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_AZ1YP_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_QZ1XH_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1XH_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_QZ1X2_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1X2_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_QZ1TB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1TB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_QZ1TD_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1TD_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_QZ1B9_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1B9_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_QZ1TK_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1TK_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_QZ1YE_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1YE_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_QZ1TE_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1TE_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_QZ1TI_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_QZ1TI_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1YI_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1YI_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1YW_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1YW_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1UE_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1UE_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1MJ_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1MJ_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1VG_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1VG_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1VJ_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1VJ_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1MI_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1MI_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1XD_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1XD_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1XB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1XB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1WT_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1WT_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1XA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1XA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ1RB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1RB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ2KF_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ2KF_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ148_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ148_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ8GM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ8GM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ1BH_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1BH_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ114_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ114_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ1A6_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ1A6_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ139_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ139_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1VL_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1VL_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1VK_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1VK_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1LR_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1LR_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1UV_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1UV_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1WV_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1WV_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1UO_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1UO_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1XC_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1XC_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1YN_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1YN_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1UI_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1UI_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1UU_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1UU_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1UW_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1UW_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1VC_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1VC_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1UX_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1UX_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_CZ1UZ_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_CZ1UZ_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201710_WZ8JP_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201710_WZ8JP_Top15.xlsx</t>
+    <t>FSC Top 15 Summary for November 2017</t>
+  </si>
+  <si>
+    <t>201711_CZ1SD_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1SD_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ125_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ125_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ124_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ124_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_QZ132_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ132_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ128_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ128_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ144_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ144_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ165_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ165_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_QZ178_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ178_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ183_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ183_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ107_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ107_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ109_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ109_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_AZ112_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ112_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1CP_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1CP_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ154_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ154_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1KD_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1KD_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_QZ1CF_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1CF_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1EM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1EM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_QZ1DP_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1DP_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1DA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1DA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_QZ1LM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1LM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1EE_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1EE_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1E2_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1E2_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_AZ1EK_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ1EK_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_AZ1FB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ1FB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1FP_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1FP_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_QZ1FT_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1FT_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_QZ1FS_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1FS_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_QZ1FR_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1FR_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_QZ1GO_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1GO_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_AZ1KL_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ1KL_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_QZ1KK_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1KK_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1DN_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1DN_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_QZ1EO_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1EO_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1CB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1CB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1B8_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1B8_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1C4_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1C4_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_QZ1D8_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1D8_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1SW_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1SW_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_QZ1AP_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1AP_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ2CB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ2CB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1CG_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1CG_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_AZ1PV_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ1PV_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ3CB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ3CB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ5CS_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ5CS_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ8JA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ8JA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_QZ7JM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ7JM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_QZ7DO_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ7DO_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ5TA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ5TA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ2LB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ2LB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ2GB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ2GB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ2LH_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ2LH_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ2NM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ2NM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_QZ2SB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ2SB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ2BG_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ2BG_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1SA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1SA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ1FA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1FA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ115_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ115_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ120_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ120_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ118_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ118_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ119_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ119_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ138_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ138_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ142_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ142_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ134_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ134_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ123_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ123_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ136_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ136_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ165_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ165_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ1FF_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1FF_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ167_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ167_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ175_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ175_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ177_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ177_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ143_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ143_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ159_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ159_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ162_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ162_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ113_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ113_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ133_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ133_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ137_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ137_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ237_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ237_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ1G4_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1G4_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZBW1_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZBW1_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ9TS_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ9TS_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ1HM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1HM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ2HM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ2HM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ2RP_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ2RP_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ1TT_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1TT_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ1AM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1AM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ1JW_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1JW_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ1MH_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1MH_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ1M2_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1M2_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ1TM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1TM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ1T2_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1T2_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ2AM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ2AM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ2CR_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ2CR_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ1SC_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1SC_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ1PB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1PB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ1JN_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1JN_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ1J2_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1J2_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ1MK_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1MK_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ1CA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1CA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ2TM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ2TM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ2T1_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ2T1_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ2T2_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ2T2_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ1JA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1JA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ1BC_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1BC_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ1JL_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1JL_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ1AL_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1AL_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ1MW_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1MW_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ1MS_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1MS_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ1DF_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1DF_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ1AJ_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1AJ_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ1JI_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1JI_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZJI2_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZJI2_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ1CM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1CM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ2MS_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ2MS_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ2JN_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ2JN_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1GF_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1GF_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1G2_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1G2_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_QZ1BP_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1BP_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1JF_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1JF_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_AZ1CI_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ1CI_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1KM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1KM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1OV_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1OV_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_QZ1JB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1JB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_QZ1BG_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1BG_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1TM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1TM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_QZ177_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ177_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_QZ1BM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1BM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_QZ1MD_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1MD_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1RR_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1RR_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_AZ1JB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ1JB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1AD_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1AD_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_QZ1ML_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1ML_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1FA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1FA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ2SA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ2SA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_QZ1SL_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1SL_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_AZ1CM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ1CM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_QZ3JB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ3JB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_AZ1WH_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ1WH_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_AZ1YU_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ1YU_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_AZ1WX_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ1WX_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_AZ1XF_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ1XF_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_AZ1XT_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ1XT_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_AZ1YP_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_AZ1YP_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_QZ1XH_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1XH_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_QZ1X2_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1X2_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_QZ1TB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1TB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_QZ1TD_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1TD_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_QZ1B9_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1B9_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_QZ1TK_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1TK_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_QZ1YE_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1YE_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_QZ1TE_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1TE_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_QZ1TI_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_QZ1TI_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1YI_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1YI_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1YW_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1YW_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1UE_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1UE_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1MJ_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1MJ_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1VG_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1VG_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1VJ_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1VJ_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1MI_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1MI_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1XD_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1XD_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1XB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1XB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1WT_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1WT_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1XA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1XA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ1RB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1RB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ2KF_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ2KF_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ148_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ148_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ8GM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ8GM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ1BH_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1BH_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ114_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ114_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ1A6_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ1A6_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ139_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ139_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1VL_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1VL_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1VK_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1VK_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1LR_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1LR_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1UV_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1UV_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1WV_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1WV_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1UO_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1UO_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1XC_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1XC_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1YN_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1YN_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1UI_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1UI_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1UU_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1UU_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1UW_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1UW_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1VC_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1VC_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1UX_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1UX_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_CZ1UZ_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_CZ1UZ_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201711_WZ8JP_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201711_WZ8JP_Top15.xlsx</t>
   </si>
 </sst>
 </file>
@@ -2050,7 +2050,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="A189" sqref="A189:XFD189"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2115,7 +2117,7 @@
       </c>
       <c r="D2" t="str">
         <f>D3</f>
-        <v>FSC Top 15 Summary for October 2017</v>
+        <v>FSC Top 15 Summary for November 2017</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2125,22 +2127,22 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1SD_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1SD_Top15.pdf</v>
       </c>
       <c r="H2" t="str">
         <f>$K2&amp;"\"&amp;M2</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1SD_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1SD_Top15.xlsx</v>
       </c>
       <c r="K2" t="s">
         <v>187</v>
       </c>
       <c r="L2" t="str">
         <f>L3</f>
-        <v>201710_CZ1SD_Top15.pdf</v>
+        <v>201711_CZ1SD_Top15.pdf</v>
       </c>
       <c r="M2" t="str">
         <f>M3</f>
-        <v>201710_CZ1SD_Top15.xlsx</v>
+        <v>201711_CZ1SD_Top15.xlsx</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -2159,11 +2161,11 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:H18" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1SD_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1SD_Top15.pdf</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1SD_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1SD_Top15.xlsx</v>
       </c>
       <c r="K3" t="s">
         <v>187</v>
@@ -2191,11 +2193,11 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G17" si="1">$K4&amp;"\"&amp;L4</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ125_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ125_Top15.pdf</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ125_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ125_Top15.xlsx</v>
       </c>
       <c r="K4" t="s">
         <v>187</v>
@@ -2223,11 +2225,11 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ124_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ124_Top15.pdf</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ124_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ124_Top15.xlsx</v>
       </c>
       <c r="K5" t="s">
         <v>187</v>
@@ -2255,11 +2257,11 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ132_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ132_Top15.pdf</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ132_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ132_Top15.xlsx</v>
       </c>
       <c r="K6" t="s">
         <v>187</v>
@@ -2287,11 +2289,11 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ128_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ128_Top15.pdf</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ128_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ128_Top15.xlsx</v>
       </c>
       <c r="K7" t="s">
         <v>187</v>
@@ -2319,11 +2321,11 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ144_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ144_Top15.pdf</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ144_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ144_Top15.xlsx</v>
       </c>
       <c r="K8" t="s">
         <v>187</v>
@@ -2351,11 +2353,11 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ165_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ165_Top15.pdf</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ165_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ165_Top15.xlsx</v>
       </c>
       <c r="K9" t="s">
         <v>187</v>
@@ -2383,11 +2385,11 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ178_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ178_Top15.pdf</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ178_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ178_Top15.xlsx</v>
       </c>
       <c r="K10" t="s">
         <v>187</v>
@@ -2415,11 +2417,11 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ183_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ183_Top15.pdf</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ183_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ183_Top15.xlsx</v>
       </c>
       <c r="K11" t="s">
         <v>187</v>
@@ -2447,11 +2449,11 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ107_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ107_Top15.pdf</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ107_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ107_Top15.xlsx</v>
       </c>
       <c r="K12" t="s">
         <v>187</v>
@@ -2479,11 +2481,11 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ109_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ109_Top15.pdf</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ109_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ109_Top15.xlsx</v>
       </c>
       <c r="K13" t="s">
         <v>187</v>
@@ -2511,11 +2513,11 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ112_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ112_Top15.pdf</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ112_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ112_Top15.xlsx</v>
       </c>
       <c r="K14" t="s">
         <v>187</v>
@@ -2543,11 +2545,11 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1CP_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1CP_Top15.pdf</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1CP_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1CP_Top15.xlsx</v>
       </c>
       <c r="K15" t="s">
         <v>187</v>
@@ -2575,11 +2577,11 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ154_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ154_Top15.pdf</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ154_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ154_Top15.xlsx</v>
       </c>
       <c r="K16" t="s">
         <v>187</v>
@@ -2607,11 +2609,11 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1KD_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1KD_Top15.pdf</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1KD_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1KD_Top15.xlsx</v>
       </c>
       <c r="K17" t="s">
         <v>187</v>
@@ -2639,11 +2641,11 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" ref="G18:G81" si="2">$K18&amp;"\"&amp;L18</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1CF_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1CF_Top15.pdf</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1CF_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1CF_Top15.xlsx</v>
       </c>
       <c r="K18" t="s">
         <v>187</v>
@@ -2671,11 +2673,11 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1EM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1EM_Top15.pdf</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" ref="H19:H82" si="3">$K19&amp;"\"&amp;M19</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1EM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1EM_Top15.xlsx</v>
       </c>
       <c r="K19" t="s">
         <v>187</v>
@@ -2702,11 +2704,11 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1DP_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1DP_Top15.pdf</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1DP_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1DP_Top15.xlsx</v>
       </c>
       <c r="K20" t="s">
         <v>187</v>
@@ -2733,11 +2735,11 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1DA_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1DA_Top15.pdf</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1DA_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1DA_Top15.xlsx</v>
       </c>
       <c r="K21" t="s">
         <v>187</v>
@@ -2764,11 +2766,11 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1LM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1LM_Top15.pdf</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1LM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1LM_Top15.xlsx</v>
       </c>
       <c r="K22" t="s">
         <v>187</v>
@@ -2795,11 +2797,11 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1EE_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1EE_Top15.pdf</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1EE_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1EE_Top15.xlsx</v>
       </c>
       <c r="K23" t="s">
         <v>187</v>
@@ -2826,11 +2828,11 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1E2_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1E2_Top15.pdf</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1E2_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1E2_Top15.xlsx</v>
       </c>
       <c r="K24" t="s">
         <v>187</v>
@@ -2857,11 +2859,11 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1EK_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1EK_Top15.pdf</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1EK_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1EK_Top15.xlsx</v>
       </c>
       <c r="K25" t="s">
         <v>187</v>
@@ -2888,11 +2890,11 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1FB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1FB_Top15.pdf</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1FB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1FB_Top15.xlsx</v>
       </c>
       <c r="K26" t="s">
         <v>187</v>
@@ -2919,11 +2921,11 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1FP_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1FP_Top15.pdf</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1FP_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1FP_Top15.xlsx</v>
       </c>
       <c r="K27" t="s">
         <v>187</v>
@@ -2950,11 +2952,11 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1FT_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1FT_Top15.pdf</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1FT_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1FT_Top15.xlsx</v>
       </c>
       <c r="K28" t="s">
         <v>187</v>
@@ -2981,11 +2983,11 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1FS_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1FS_Top15.pdf</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1FS_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1FS_Top15.xlsx</v>
       </c>
       <c r="K29" t="s">
         <v>187</v>
@@ -3012,11 +3014,11 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1FR_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1FR_Top15.pdf</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1FR_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1FR_Top15.xlsx</v>
       </c>
       <c r="K30" t="s">
         <v>187</v>
@@ -3043,11 +3045,11 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1GO_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1GO_Top15.pdf</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1GO_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1GO_Top15.xlsx</v>
       </c>
       <c r="K31" t="s">
         <v>187</v>
@@ -3074,11 +3076,11 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1KL_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1KL_Top15.pdf</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1KL_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1KL_Top15.xlsx</v>
       </c>
       <c r="K32" t="s">
         <v>187</v>
@@ -3105,11 +3107,11 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1KK_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1KK_Top15.pdf</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1KK_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1KK_Top15.xlsx</v>
       </c>
       <c r="K33" t="s">
         <v>187</v>
@@ -3136,11 +3138,11 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1DN_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1DN_Top15.pdf</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1DN_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1DN_Top15.xlsx</v>
       </c>
       <c r="K34" t="s">
         <v>187</v>
@@ -3167,11 +3169,11 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1EO_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1EO_Top15.pdf</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1EO_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1EO_Top15.xlsx</v>
       </c>
       <c r="K35" t="s">
         <v>187</v>
@@ -3198,11 +3200,11 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1CB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1CB_Top15.pdf</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1CB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1CB_Top15.xlsx</v>
       </c>
       <c r="K36" t="s">
         <v>187</v>
@@ -3229,11 +3231,11 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1B8_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1B8_Top15.pdf</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1B8_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1B8_Top15.xlsx</v>
       </c>
       <c r="K37" t="s">
         <v>187</v>
@@ -3260,11 +3262,11 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1C4_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1C4_Top15.pdf</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1C4_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1C4_Top15.xlsx</v>
       </c>
       <c r="K38" t="s">
         <v>187</v>
@@ -3291,11 +3293,11 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1D8_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1D8_Top15.pdf</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1D8_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1D8_Top15.xlsx</v>
       </c>
       <c r="K39" t="s">
         <v>187</v>
@@ -3322,11 +3324,11 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1SW_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1SW_Top15.pdf</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1SW_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1SW_Top15.xlsx</v>
       </c>
       <c r="K40" t="s">
         <v>187</v>
@@ -3353,11 +3355,11 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1AP_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1AP_Top15.pdf</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1AP_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1AP_Top15.xlsx</v>
       </c>
       <c r="K41" t="s">
         <v>187</v>
@@ -3384,11 +3386,11 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ2CB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ2CB_Top15.pdf</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ2CB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ2CB_Top15.xlsx</v>
       </c>
       <c r="K42" t="s">
         <v>187</v>
@@ -3415,11 +3417,11 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1CG_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1CG_Top15.pdf</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1CG_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1CG_Top15.xlsx</v>
       </c>
       <c r="K43" t="s">
         <v>187</v>
@@ -3446,11 +3448,11 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1PV_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1PV_Top15.pdf</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1PV_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1PV_Top15.xlsx</v>
       </c>
       <c r="K44" t="s">
         <v>187</v>
@@ -3477,11 +3479,11 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ3CB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ3CB_Top15.pdf</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ3CB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ3CB_Top15.xlsx</v>
       </c>
       <c r="K45" t="s">
         <v>187</v>
@@ -3508,11 +3510,11 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ5CS_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ5CS_Top15.pdf</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ5CS_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ5CS_Top15.xlsx</v>
       </c>
       <c r="K46" t="s">
         <v>187</v>
@@ -3539,11 +3541,11 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ8JA_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ8JA_Top15.pdf</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ8JA_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ8JA_Top15.xlsx</v>
       </c>
       <c r="K47" t="s">
         <v>187</v>
@@ -3570,11 +3572,11 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ7JM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ7JM_Top15.pdf</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ7JM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ7JM_Top15.xlsx</v>
       </c>
       <c r="K48" t="s">
         <v>187</v>
@@ -3601,11 +3603,11 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ7DO_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ7DO_Top15.pdf</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ7DO_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ7DO_Top15.xlsx</v>
       </c>
       <c r="K49" t="s">
         <v>187</v>
@@ -3632,11 +3634,11 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ5TA_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ5TA_Top15.pdf</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ5TA_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ5TA_Top15.xlsx</v>
       </c>
       <c r="K50" t="s">
         <v>187</v>
@@ -3663,11 +3665,11 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ2LB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ2LB_Top15.pdf</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ2LB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ2LB_Top15.xlsx</v>
       </c>
       <c r="K51" t="s">
         <v>187</v>
@@ -3694,11 +3696,11 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ2GB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ2GB_Top15.pdf</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ2GB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ2GB_Top15.xlsx</v>
       </c>
       <c r="K52" t="s">
         <v>187</v>
@@ -3725,11 +3727,11 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ2LH_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ2LH_Top15.pdf</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ2LH_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ2LH_Top15.xlsx</v>
       </c>
       <c r="K53" t="s">
         <v>187</v>
@@ -3756,11 +3758,11 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ2NM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ2NM_Top15.pdf</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ2NM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ2NM_Top15.xlsx</v>
       </c>
       <c r="K54" t="s">
         <v>187</v>
@@ -3787,11 +3789,11 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ2SB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ2SB_Top15.pdf</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ2SB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ2SB_Top15.xlsx</v>
       </c>
       <c r="K55" t="s">
         <v>187</v>
@@ -3818,11 +3820,11 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ2BG_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ2BG_Top15.pdf</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ2BG_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ2BG_Top15.xlsx</v>
       </c>
       <c r="K56" t="s">
         <v>187</v>
@@ -3849,11 +3851,11 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1SA_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1SA_Top15.pdf</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1SA_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1SA_Top15.xlsx</v>
       </c>
       <c r="K57" t="s">
         <v>187</v>
@@ -3880,11 +3882,11 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1FA_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1FA_Top15.pdf</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1FA_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1FA_Top15.xlsx</v>
       </c>
       <c r="K58" t="s">
         <v>187</v>
@@ -3911,11 +3913,11 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ115_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ115_Top15.pdf</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ115_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ115_Top15.xlsx</v>
       </c>
       <c r="K59" t="s">
         <v>187</v>
@@ -3942,11 +3944,11 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ120_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ120_Top15.pdf</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ120_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ120_Top15.xlsx</v>
       </c>
       <c r="K60" t="s">
         <v>187</v>
@@ -3973,11 +3975,11 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ118_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ118_Top15.pdf</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ118_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ118_Top15.xlsx</v>
       </c>
       <c r="K61" t="s">
         <v>187</v>
@@ -4004,11 +4006,11 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ119_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ119_Top15.pdf</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ119_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ119_Top15.xlsx</v>
       </c>
       <c r="K62" t="s">
         <v>187</v>
@@ -4035,11 +4037,11 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ138_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ138_Top15.pdf</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ138_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ138_Top15.xlsx</v>
       </c>
       <c r="K63" t="s">
         <v>187</v>
@@ -4066,11 +4068,11 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ142_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ142_Top15.pdf</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ142_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ142_Top15.xlsx</v>
       </c>
       <c r="K64" t="s">
         <v>187</v>
@@ -4097,11 +4099,11 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ134_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ134_Top15.pdf</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ134_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ134_Top15.xlsx</v>
       </c>
       <c r="K65" t="s">
         <v>187</v>
@@ -4128,11 +4130,11 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ123_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ123_Top15.pdf</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ123_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ123_Top15.xlsx</v>
       </c>
       <c r="K66" t="s">
         <v>187</v>
@@ -4159,11 +4161,11 @@
       </c>
       <c r="G67" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ136_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ136_Top15.pdf</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ136_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ136_Top15.xlsx</v>
       </c>
       <c r="K67" t="s">
         <v>187</v>
@@ -4190,11 +4192,11 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ165_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ165_Top15.pdf</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ165_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ165_Top15.xlsx</v>
       </c>
       <c r="K68" t="s">
         <v>187</v>
@@ -4221,11 +4223,11 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1FF_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1FF_Top15.pdf</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1FF_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1FF_Top15.xlsx</v>
       </c>
       <c r="K69" t="s">
         <v>187</v>
@@ -4252,11 +4254,11 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ167_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ167_Top15.pdf</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ167_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ167_Top15.xlsx</v>
       </c>
       <c r="K70" t="s">
         <v>187</v>
@@ -4283,11 +4285,11 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ175_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ175_Top15.pdf</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ175_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ175_Top15.xlsx</v>
       </c>
       <c r="K71" t="s">
         <v>187</v>
@@ -4314,11 +4316,11 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ177_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ177_Top15.pdf</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ177_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ177_Top15.xlsx</v>
       </c>
       <c r="K72" t="s">
         <v>187</v>
@@ -4345,11 +4347,11 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ143_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ143_Top15.pdf</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ143_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ143_Top15.xlsx</v>
       </c>
       <c r="K73" t="s">
         <v>187</v>
@@ -4376,11 +4378,11 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ159_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ159_Top15.pdf</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ159_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ159_Top15.xlsx</v>
       </c>
       <c r="K74" t="s">
         <v>187</v>
@@ -4407,11 +4409,11 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ162_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ162_Top15.pdf</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ162_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ162_Top15.xlsx</v>
       </c>
       <c r="K75" t="s">
         <v>187</v>
@@ -4438,11 +4440,11 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ113_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ113_Top15.pdf</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ113_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ113_Top15.xlsx</v>
       </c>
       <c r="K76" t="s">
         <v>187</v>
@@ -4469,11 +4471,11 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ133_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ133_Top15.pdf</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ133_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ133_Top15.xlsx</v>
       </c>
       <c r="K77" t="s">
         <v>187</v>
@@ -4500,11 +4502,11 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ137_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ137_Top15.pdf</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ137_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ137_Top15.xlsx</v>
       </c>
       <c r="K78" t="s">
         <v>187</v>
@@ -4531,11 +4533,11 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ237_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ237_Top15.pdf</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ237_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ237_Top15.xlsx</v>
       </c>
       <c r="K79" t="s">
         <v>187</v>
@@ -4562,11 +4564,11 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1G4_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1G4_Top15.pdf</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1G4_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1G4_Top15.xlsx</v>
       </c>
       <c r="K80" t="s">
         <v>187</v>
@@ -4593,11 +4595,11 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZBW1_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZBW1_Top15.pdf</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZBW1_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZBW1_Top15.xlsx</v>
       </c>
       <c r="K81" t="s">
         <v>187</v>
@@ -4624,11 +4626,11 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" ref="G82:G145" si="4">$K82&amp;"\"&amp;L82</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ9TS_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ9TS_Top15.pdf</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ9TS_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ9TS_Top15.xlsx</v>
       </c>
       <c r="K82" t="s">
         <v>187</v>
@@ -4655,11 +4657,11 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1HM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1HM_Top15.pdf</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" ref="H83:H146" si="5">$K83&amp;"\"&amp;M83</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1HM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1HM_Top15.xlsx</v>
       </c>
       <c r="K83" t="s">
         <v>187</v>
@@ -4686,11 +4688,11 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2HM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2HM_Top15.pdf</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2HM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2HM_Top15.xlsx</v>
       </c>
       <c r="K84" t="s">
         <v>187</v>
@@ -4717,11 +4719,11 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1HM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1HM_Top15.pdf</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1HM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1HM_Top15.xlsx</v>
       </c>
       <c r="K85" t="s">
         <v>187</v>
@@ -4748,11 +4750,11 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2HM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2HM_Top15.pdf</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2HM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2HM_Top15.xlsx</v>
       </c>
       <c r="K86" t="s">
         <v>187</v>
@@ -4779,11 +4781,11 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2RP_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2RP_Top15.pdf</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2RP_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2RP_Top15.xlsx</v>
       </c>
       <c r="K87" t="s">
         <v>187</v>
@@ -4810,11 +4812,11 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1TT_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1TT_Top15.pdf</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1TT_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1TT_Top15.xlsx</v>
       </c>
       <c r="K88" t="s">
         <v>187</v>
@@ -4841,11 +4843,11 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1AM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1AM_Top15.pdf</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1AM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1AM_Top15.xlsx</v>
       </c>
       <c r="K89" t="s">
         <v>187</v>
@@ -4872,11 +4874,11 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1JW_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1JW_Top15.pdf</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1JW_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1JW_Top15.xlsx</v>
       </c>
       <c r="K90" t="s">
         <v>187</v>
@@ -4903,11 +4905,11 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1MH_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1MH_Top15.pdf</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1MH_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1MH_Top15.xlsx</v>
       </c>
       <c r="K91" t="s">
         <v>187</v>
@@ -4934,11 +4936,11 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1M2_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1M2_Top15.pdf</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1M2_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1M2_Top15.xlsx</v>
       </c>
       <c r="K92" t="s">
         <v>187</v>
@@ -4965,11 +4967,11 @@
       </c>
       <c r="G93" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1TM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1TM_Top15.pdf</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1TM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1TM_Top15.xlsx</v>
       </c>
       <c r="K93" t="s">
         <v>187</v>
@@ -4996,11 +4998,11 @@
       </c>
       <c r="G94" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1T2_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1T2_Top15.pdf</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1T2_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1T2_Top15.xlsx</v>
       </c>
       <c r="K94" t="s">
         <v>187</v>
@@ -5027,11 +5029,11 @@
       </c>
       <c r="G95" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2AM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2AM_Top15.pdf</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2AM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2AM_Top15.xlsx</v>
       </c>
       <c r="K95" t="s">
         <v>187</v>
@@ -5058,11 +5060,11 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ2CR_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ2CR_Top15.pdf</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ2CR_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ2CR_Top15.xlsx</v>
       </c>
       <c r="K96" t="s">
         <v>187</v>
@@ -5089,11 +5091,11 @@
       </c>
       <c r="G97" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1SC_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1SC_Top15.pdf</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1SC_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1SC_Top15.xlsx</v>
       </c>
       <c r="K97" t="s">
         <v>187</v>
@@ -5120,11 +5122,11 @@
       </c>
       <c r="G98" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1PB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1PB_Top15.pdf</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1PB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1PB_Top15.xlsx</v>
       </c>
       <c r="K98" t="s">
         <v>187</v>
@@ -5151,11 +5153,11 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1JN_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1JN_Top15.pdf</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1JN_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1JN_Top15.xlsx</v>
       </c>
       <c r="K99" t="s">
         <v>187</v>
@@ -5182,11 +5184,11 @@
       </c>
       <c r="G100" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1J2_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1J2_Top15.pdf</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1J2_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1J2_Top15.xlsx</v>
       </c>
       <c r="K100" t="s">
         <v>187</v>
@@ -5213,11 +5215,11 @@
       </c>
       <c r="G101" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1MK_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1MK_Top15.pdf</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1MK_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1MK_Top15.xlsx</v>
       </c>
       <c r="K101" t="s">
         <v>187</v>
@@ -5244,11 +5246,11 @@
       </c>
       <c r="G102" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1CA_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1CA_Top15.pdf</v>
       </c>
       <c r="H102" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1CA_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1CA_Top15.xlsx</v>
       </c>
       <c r="K102" t="s">
         <v>187</v>
@@ -5275,11 +5277,11 @@
       </c>
       <c r="G103" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2TM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2TM_Top15.pdf</v>
       </c>
       <c r="H103" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2TM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2TM_Top15.xlsx</v>
       </c>
       <c r="K103" t="s">
         <v>187</v>
@@ -5306,11 +5308,11 @@
       </c>
       <c r="G104" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2T1_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2T1_Top15.pdf</v>
       </c>
       <c r="H104" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2T1_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2T1_Top15.xlsx</v>
       </c>
       <c r="K104" t="s">
         <v>187</v>
@@ -5337,11 +5339,11 @@
       </c>
       <c r="G105" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2T2_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2T2_Top15.pdf</v>
       </c>
       <c r="H105" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2T2_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2T2_Top15.xlsx</v>
       </c>
       <c r="K105" t="s">
         <v>187</v>
@@ -5368,11 +5370,11 @@
       </c>
       <c r="G106" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1JA_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1JA_Top15.pdf</v>
       </c>
       <c r="H106" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1JA_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1JA_Top15.xlsx</v>
       </c>
       <c r="K106" t="s">
         <v>187</v>
@@ -5399,11 +5401,11 @@
       </c>
       <c r="G107" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1BC_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1BC_Top15.pdf</v>
       </c>
       <c r="H107" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1BC_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1BC_Top15.xlsx</v>
       </c>
       <c r="K107" t="s">
         <v>187</v>
@@ -5430,11 +5432,11 @@
       </c>
       <c r="G108" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1JL_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1JL_Top15.pdf</v>
       </c>
       <c r="H108" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1JL_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1JL_Top15.xlsx</v>
       </c>
       <c r="K108" t="s">
         <v>187</v>
@@ -5461,11 +5463,11 @@
       </c>
       <c r="G109" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1AL_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1AL_Top15.pdf</v>
       </c>
       <c r="H109" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1AL_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1AL_Top15.xlsx</v>
       </c>
       <c r="K109" t="s">
         <v>187</v>
@@ -5492,11 +5494,11 @@
       </c>
       <c r="G110" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1MW_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1MW_Top15.pdf</v>
       </c>
       <c r="H110" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1MW_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1MW_Top15.xlsx</v>
       </c>
       <c r="K110" t="s">
         <v>187</v>
@@ -5523,11 +5525,11 @@
       </c>
       <c r="G111" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1MS_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1MS_Top15.pdf</v>
       </c>
       <c r="H111" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1MS_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1MS_Top15.xlsx</v>
       </c>
       <c r="K111" t="s">
         <v>187</v>
@@ -5554,11 +5556,11 @@
       </c>
       <c r="G112" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1DF_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1DF_Top15.pdf</v>
       </c>
       <c r="H112" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1DF_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1DF_Top15.xlsx</v>
       </c>
       <c r="K112" t="s">
         <v>187</v>
@@ -5585,11 +5587,11 @@
       </c>
       <c r="G113" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1AJ_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1AJ_Top15.pdf</v>
       </c>
       <c r="H113" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1AJ_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1AJ_Top15.xlsx</v>
       </c>
       <c r="K113" t="s">
         <v>187</v>
@@ -5616,11 +5618,11 @@
       </c>
       <c r="G114" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1JI_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1JI_Top15.pdf</v>
       </c>
       <c r="H114" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1JI_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1JI_Top15.xlsx</v>
       </c>
       <c r="K114" t="s">
         <v>187</v>
@@ -5647,11 +5649,11 @@
       </c>
       <c r="G115" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZJI2_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZJI2_Top15.pdf</v>
       </c>
       <c r="H115" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZJI2_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZJI2_Top15.xlsx</v>
       </c>
       <c r="K115" t="s">
         <v>187</v>
@@ -5678,11 +5680,11 @@
       </c>
       <c r="G116" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1CM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1CM_Top15.pdf</v>
       </c>
       <c r="H116" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1CM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1CM_Top15.xlsx</v>
       </c>
       <c r="K116" t="s">
         <v>187</v>
@@ -5709,11 +5711,11 @@
       </c>
       <c r="G117" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2MS_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2MS_Top15.pdf</v>
       </c>
       <c r="H117" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2MS_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2MS_Top15.xlsx</v>
       </c>
       <c r="K117" t="s">
         <v>187</v>
@@ -5740,11 +5742,11 @@
       </c>
       <c r="G118" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2JN_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2JN_Top15.pdf</v>
       </c>
       <c r="H118" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2JN_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2JN_Top15.xlsx</v>
       </c>
       <c r="K118" t="s">
         <v>187</v>
@@ -5771,11 +5773,11 @@
       </c>
       <c r="G119" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1GF_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1GF_Top15.pdf</v>
       </c>
       <c r="H119" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1GF_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1GF_Top15.xlsx</v>
       </c>
       <c r="K119" t="s">
         <v>187</v>
@@ -5802,11 +5804,11 @@
       </c>
       <c r="G120" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1G2_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1G2_Top15.pdf</v>
       </c>
       <c r="H120" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1G2_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1G2_Top15.xlsx</v>
       </c>
       <c r="K120" t="s">
         <v>187</v>
@@ -5833,11 +5835,11 @@
       </c>
       <c r="G121" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1BP_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1BP_Top15.pdf</v>
       </c>
       <c r="H121" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1BP_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1BP_Top15.xlsx</v>
       </c>
       <c r="K121" t="s">
         <v>187</v>
@@ -5864,11 +5866,11 @@
       </c>
       <c r="G122" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1JF_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1JF_Top15.pdf</v>
       </c>
       <c r="H122" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1JF_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1JF_Top15.xlsx</v>
       </c>
       <c r="K122" t="s">
         <v>187</v>
@@ -5895,11 +5897,11 @@
       </c>
       <c r="G123" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1CI_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1CI_Top15.pdf</v>
       </c>
       <c r="H123" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1CI_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1CI_Top15.xlsx</v>
       </c>
       <c r="K123" t="s">
         <v>187</v>
@@ -5926,11 +5928,11 @@
       </c>
       <c r="G124" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1KM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1KM_Top15.pdf</v>
       </c>
       <c r="H124" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1KM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1KM_Top15.xlsx</v>
       </c>
       <c r="K124" t="s">
         <v>187</v>
@@ -5957,11 +5959,11 @@
       </c>
       <c r="G125" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1OV_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1OV_Top15.pdf</v>
       </c>
       <c r="H125" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1OV_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1OV_Top15.xlsx</v>
       </c>
       <c r="K125" t="s">
         <v>187</v>
@@ -5988,11 +5990,11 @@
       </c>
       <c r="G126" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1JB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1JB_Top15.pdf</v>
       </c>
       <c r="H126" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1JB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1JB_Top15.xlsx</v>
       </c>
       <c r="K126" t="s">
         <v>187</v>
@@ -6019,11 +6021,11 @@
       </c>
       <c r="G127" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1BG_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1BG_Top15.pdf</v>
       </c>
       <c r="H127" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1BG_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1BG_Top15.xlsx</v>
       </c>
       <c r="K127" t="s">
         <v>187</v>
@@ -6050,11 +6052,11 @@
       </c>
       <c r="G128" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1TM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1TM_Top15.pdf</v>
       </c>
       <c r="H128" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1TM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1TM_Top15.xlsx</v>
       </c>
       <c r="K128" t="s">
         <v>187</v>
@@ -6081,11 +6083,11 @@
       </c>
       <c r="G129" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ177_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ177_Top15.pdf</v>
       </c>
       <c r="H129" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ177_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ177_Top15.xlsx</v>
       </c>
       <c r="K129" t="s">
         <v>187</v>
@@ -6112,11 +6114,11 @@
       </c>
       <c r="G130" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1BM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1BM_Top15.pdf</v>
       </c>
       <c r="H130" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1BM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1BM_Top15.xlsx</v>
       </c>
       <c r="K130" t="s">
         <v>187</v>
@@ -6143,11 +6145,11 @@
       </c>
       <c r="G131" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1MD_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1MD_Top15.pdf</v>
       </c>
       <c r="H131" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1MD_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1MD_Top15.xlsx</v>
       </c>
       <c r="K131" t="s">
         <v>187</v>
@@ -6174,11 +6176,11 @@
       </c>
       <c r="G132" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1RR_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1RR_Top15.pdf</v>
       </c>
       <c r="H132" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1RR_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1RR_Top15.xlsx</v>
       </c>
       <c r="K132" t="s">
         <v>187</v>
@@ -6205,11 +6207,11 @@
       </c>
       <c r="G133" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1JB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1JB_Top15.pdf</v>
       </c>
       <c r="H133" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1JB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1JB_Top15.xlsx</v>
       </c>
       <c r="K133" t="s">
         <v>187</v>
@@ -6236,11 +6238,11 @@
       </c>
       <c r="G134" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1AD_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1AD_Top15.pdf</v>
       </c>
       <c r="H134" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1AD_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1AD_Top15.xlsx</v>
       </c>
       <c r="K134" t="s">
         <v>187</v>
@@ -6267,11 +6269,11 @@
       </c>
       <c r="G135" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1ML_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1ML_Top15.pdf</v>
       </c>
       <c r="H135" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1ML_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1ML_Top15.xlsx</v>
       </c>
       <c r="K135" t="s">
         <v>187</v>
@@ -6298,11 +6300,11 @@
       </c>
       <c r="G136" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1FA_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1FA_Top15.pdf</v>
       </c>
       <c r="H136" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1FA_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1FA_Top15.xlsx</v>
       </c>
       <c r="K136" t="s">
         <v>187</v>
@@ -6329,11 +6331,11 @@
       </c>
       <c r="G137" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ2SA_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ2SA_Top15.pdf</v>
       </c>
       <c r="H137" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ2SA_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ2SA_Top15.xlsx</v>
       </c>
       <c r="K137" t="s">
         <v>187</v>
@@ -6360,11 +6362,11 @@
       </c>
       <c r="G138" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1SL_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1SL_Top15.pdf</v>
       </c>
       <c r="H138" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1SL_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1SL_Top15.xlsx</v>
       </c>
       <c r="K138" t="s">
         <v>187</v>
@@ -6391,11 +6393,11 @@
       </c>
       <c r="G139" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1CM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1CM_Top15.pdf</v>
       </c>
       <c r="H139" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1CM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1CM_Top15.xlsx</v>
       </c>
       <c r="K139" t="s">
         <v>187</v>
@@ -6422,11 +6424,11 @@
       </c>
       <c r="G140" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ3JB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ3JB_Top15.pdf</v>
       </c>
       <c r="H140" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ3JB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ3JB_Top15.xlsx</v>
       </c>
       <c r="K140" t="s">
         <v>187</v>
@@ -6453,11 +6455,11 @@
       </c>
       <c r="G141" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1WH_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1WH_Top15.pdf</v>
       </c>
       <c r="H141" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1WH_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1WH_Top15.xlsx</v>
       </c>
       <c r="K141" t="s">
         <v>187</v>
@@ -6484,11 +6486,11 @@
       </c>
       <c r="G142" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1YU_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1YU_Top15.pdf</v>
       </c>
       <c r="H142" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1YU_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1YU_Top15.xlsx</v>
       </c>
       <c r="K142" t="s">
         <v>187</v>
@@ -6515,11 +6517,11 @@
       </c>
       <c r="G143" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1WX_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1WX_Top15.pdf</v>
       </c>
       <c r="H143" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1WX_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1WX_Top15.xlsx</v>
       </c>
       <c r="K143" t="s">
         <v>187</v>
@@ -6546,11 +6548,11 @@
       </c>
       <c r="G144" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1XF_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1XF_Top15.pdf</v>
       </c>
       <c r="H144" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1XF_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1XF_Top15.xlsx</v>
       </c>
       <c r="K144" t="s">
         <v>187</v>
@@ -6577,11 +6579,11 @@
       </c>
       <c r="G145" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1XT_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1XT_Top15.pdf</v>
       </c>
       <c r="H145" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1XT_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1XT_Top15.xlsx</v>
       </c>
       <c r="K145" t="s">
         <v>187</v>
@@ -6608,11 +6610,11 @@
       </c>
       <c r="G146" t="str">
         <f t="shared" ref="G146:G188" si="6">$K146&amp;"\"&amp;L146</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1YP_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1YP_Top15.pdf</v>
       </c>
       <c r="H146" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_AZ1YP_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1YP_Top15.xlsx</v>
       </c>
       <c r="K146" t="s">
         <v>187</v>
@@ -6639,11 +6641,11 @@
       </c>
       <c r="G147" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1XH_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1XH_Top15.pdf</v>
       </c>
       <c r="H147" t="str">
         <f t="shared" ref="H147:H188" si="7">$K147&amp;"\"&amp;M147</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1XH_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1XH_Top15.xlsx</v>
       </c>
       <c r="K147" t="s">
         <v>187</v>
@@ -6670,11 +6672,11 @@
       </c>
       <c r="G148" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1X2_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1X2_Top15.pdf</v>
       </c>
       <c r="H148" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1X2_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1X2_Top15.xlsx</v>
       </c>
       <c r="K148" t="s">
         <v>187</v>
@@ -6701,11 +6703,11 @@
       </c>
       <c r="G149" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1TB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1TB_Top15.pdf</v>
       </c>
       <c r="H149" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1TB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1TB_Top15.xlsx</v>
       </c>
       <c r="K149" t="s">
         <v>187</v>
@@ -6732,11 +6734,11 @@
       </c>
       <c r="G150" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1TD_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1TD_Top15.pdf</v>
       </c>
       <c r="H150" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1TD_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1TD_Top15.xlsx</v>
       </c>
       <c r="K150" t="s">
         <v>187</v>
@@ -6763,11 +6765,11 @@
       </c>
       <c r="G151" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1B9_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1B9_Top15.pdf</v>
       </c>
       <c r="H151" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1B9_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1B9_Top15.xlsx</v>
       </c>
       <c r="K151" t="s">
         <v>187</v>
@@ -6794,11 +6796,11 @@
       </c>
       <c r="G152" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1TK_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1TK_Top15.pdf</v>
       </c>
       <c r="H152" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1TK_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1TK_Top15.xlsx</v>
       </c>
       <c r="K152" t="s">
         <v>187</v>
@@ -6825,11 +6827,11 @@
       </c>
       <c r="G153" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1YE_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1YE_Top15.pdf</v>
       </c>
       <c r="H153" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1YE_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1YE_Top15.xlsx</v>
       </c>
       <c r="K153" t="s">
         <v>187</v>
@@ -6856,11 +6858,11 @@
       </c>
       <c r="G154" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1TE_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1TE_Top15.pdf</v>
       </c>
       <c r="H154" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1TE_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1TE_Top15.xlsx</v>
       </c>
       <c r="K154" t="s">
         <v>187</v>
@@ -6887,11 +6889,11 @@
       </c>
       <c r="G155" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1TI_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1TI_Top15.pdf</v>
       </c>
       <c r="H155" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_QZ1TI_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1TI_Top15.xlsx</v>
       </c>
       <c r="K155" t="s">
         <v>187</v>
@@ -6918,11 +6920,11 @@
       </c>
       <c r="G156" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1YI_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1YI_Top15.pdf</v>
       </c>
       <c r="H156" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1YI_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1YI_Top15.xlsx</v>
       </c>
       <c r="K156" t="s">
         <v>187</v>
@@ -6949,11 +6951,11 @@
       </c>
       <c r="G157" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1YW_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1YW_Top15.pdf</v>
       </c>
       <c r="H157" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1YW_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1YW_Top15.xlsx</v>
       </c>
       <c r="K157" t="s">
         <v>187</v>
@@ -6980,11 +6982,11 @@
       </c>
       <c r="G158" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1UE_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1UE_Top15.pdf</v>
       </c>
       <c r="H158" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1UE_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1UE_Top15.xlsx</v>
       </c>
       <c r="K158" t="s">
         <v>187</v>
@@ -7011,11 +7013,11 @@
       </c>
       <c r="G159" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1MJ_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1MJ_Top15.pdf</v>
       </c>
       <c r="H159" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1MJ_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1MJ_Top15.xlsx</v>
       </c>
       <c r="K159" t="s">
         <v>187</v>
@@ -7042,11 +7044,11 @@
       </c>
       <c r="G160" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1VG_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1VG_Top15.pdf</v>
       </c>
       <c r="H160" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1VG_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1VG_Top15.xlsx</v>
       </c>
       <c r="K160" t="s">
         <v>187</v>
@@ -7073,11 +7075,11 @@
       </c>
       <c r="G161" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1VJ_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1VJ_Top15.pdf</v>
       </c>
       <c r="H161" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1VJ_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1VJ_Top15.xlsx</v>
       </c>
       <c r="K161" t="s">
         <v>187</v>
@@ -7104,11 +7106,11 @@
       </c>
       <c r="G162" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1MI_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1MI_Top15.pdf</v>
       </c>
       <c r="H162" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1MI_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1MI_Top15.xlsx</v>
       </c>
       <c r="K162" t="s">
         <v>187</v>
@@ -7135,11 +7137,11 @@
       </c>
       <c r="G163" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1XD_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1XD_Top15.pdf</v>
       </c>
       <c r="H163" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1XD_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1XD_Top15.xlsx</v>
       </c>
       <c r="K163" t="s">
         <v>187</v>
@@ -7166,11 +7168,11 @@
       </c>
       <c r="G164" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1XB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1XB_Top15.pdf</v>
       </c>
       <c r="H164" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1XB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1XB_Top15.xlsx</v>
       </c>
       <c r="K164" t="s">
         <v>187</v>
@@ -7197,11 +7199,11 @@
       </c>
       <c r="G165" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1WT_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1WT_Top15.pdf</v>
       </c>
       <c r="H165" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1WT_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1WT_Top15.xlsx</v>
       </c>
       <c r="K165" t="s">
         <v>187</v>
@@ -7228,11 +7230,11 @@
       </c>
       <c r="G166" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1XA_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1XA_Top15.pdf</v>
       </c>
       <c r="H166" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1XA_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1XA_Top15.xlsx</v>
       </c>
       <c r="K166" t="s">
         <v>187</v>
@@ -7259,11 +7261,11 @@
       </c>
       <c r="G167" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1RB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1RB_Top15.pdf</v>
       </c>
       <c r="H167" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1RB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1RB_Top15.xlsx</v>
       </c>
       <c r="K167" t="s">
         <v>187</v>
@@ -7290,11 +7292,11 @@
       </c>
       <c r="G168" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2KF_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2KF_Top15.pdf</v>
       </c>
       <c r="H168" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ2KF_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2KF_Top15.xlsx</v>
       </c>
       <c r="K168" t="s">
         <v>187</v>
@@ -7321,11 +7323,11 @@
       </c>
       <c r="G169" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ148_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ148_Top15.pdf</v>
       </c>
       <c r="H169" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ148_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ148_Top15.xlsx</v>
       </c>
       <c r="K169" t="s">
         <v>187</v>
@@ -7352,11 +7354,11 @@
       </c>
       <c r="G170" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ8GM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ8GM_Top15.pdf</v>
       </c>
       <c r="H170" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ8GM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ8GM_Top15.xlsx</v>
       </c>
       <c r="K170" t="s">
         <v>187</v>
@@ -7383,11 +7385,11 @@
       </c>
       <c r="G171" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1BH_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1BH_Top15.pdf</v>
       </c>
       <c r="H171" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1BH_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1BH_Top15.xlsx</v>
       </c>
       <c r="K171" t="s">
         <v>187</v>
@@ -7414,11 +7416,11 @@
       </c>
       <c r="G172" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ114_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ114_Top15.pdf</v>
       </c>
       <c r="H172" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ114_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ114_Top15.xlsx</v>
       </c>
       <c r="K172" t="s">
         <v>187</v>
@@ -7445,11 +7447,11 @@
       </c>
       <c r="G173" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1A6_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1A6_Top15.pdf</v>
       </c>
       <c r="H173" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ1A6_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1A6_Top15.xlsx</v>
       </c>
       <c r="K173" t="s">
         <v>187</v>
@@ -7476,11 +7478,11 @@
       </c>
       <c r="G174" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ139_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ139_Top15.pdf</v>
       </c>
       <c r="H174" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_WZ139_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ139_Top15.xlsx</v>
       </c>
       <c r="K174" t="s">
         <v>187</v>
@@ -7507,11 +7509,11 @@
       </c>
       <c r="G175" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1VL_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1VL_Top15.pdf</v>
       </c>
       <c r="H175" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1VL_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1VL_Top15.xlsx</v>
       </c>
       <c r="K175" t="s">
         <v>187</v>
@@ -7538,11 +7540,11 @@
       </c>
       <c r="G176" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1VK_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1VK_Top15.pdf</v>
       </c>
       <c r="H176" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1VK_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1VK_Top15.xlsx</v>
       </c>
       <c r="K176" t="s">
         <v>187</v>
@@ -7569,11 +7571,11 @@
       </c>
       <c r="G177" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1LR_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1LR_Top15.pdf</v>
       </c>
       <c r="H177" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1LR_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1LR_Top15.xlsx</v>
       </c>
       <c r="K177" t="s">
         <v>187</v>
@@ -7600,11 +7602,11 @@
       </c>
       <c r="G178" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1UV_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1UV_Top15.pdf</v>
       </c>
       <c r="H178" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1UV_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1UV_Top15.xlsx</v>
       </c>
       <c r="K178" t="s">
         <v>187</v>
@@ -7631,11 +7633,11 @@
       </c>
       <c r="G179" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1WV_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1WV_Top15.pdf</v>
       </c>
       <c r="H179" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1WV_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1WV_Top15.xlsx</v>
       </c>
       <c r="K179" t="s">
         <v>187</v>
@@ -7662,11 +7664,11 @@
       </c>
       <c r="G180" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1UO_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1UO_Top15.pdf</v>
       </c>
       <c r="H180" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1UO_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1UO_Top15.xlsx</v>
       </c>
       <c r="K180" t="s">
         <v>187</v>
@@ -7693,11 +7695,11 @@
       </c>
       <c r="G181" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1XC_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1XC_Top15.pdf</v>
       </c>
       <c r="H181" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1XC_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1XC_Top15.xlsx</v>
       </c>
       <c r="K181" t="s">
         <v>187</v>
@@ -7724,11 +7726,11 @@
       </c>
       <c r="G182" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1YN_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1YN_Top15.pdf</v>
       </c>
       <c r="H182" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1YN_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1YN_Top15.xlsx</v>
       </c>
       <c r="K182" t="s">
         <v>187</v>
@@ -7755,11 +7757,11 @@
       </c>
       <c r="G183" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1UI_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1UI_Top15.pdf</v>
       </c>
       <c r="H183" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1UI_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1UI_Top15.xlsx</v>
       </c>
       <c r="K183" t="s">
         <v>187</v>
@@ -7786,11 +7788,11 @@
       </c>
       <c r="G184" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1UU_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1UU_Top15.pdf</v>
       </c>
       <c r="H184" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1UU_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1UU_Top15.xlsx</v>
       </c>
       <c r="K184" t="s">
         <v>187</v>
@@ -7817,11 +7819,11 @@
       </c>
       <c r="G185" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1UW_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1UW_Top15.pdf</v>
       </c>
       <c r="H185" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1UW_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1UW_Top15.xlsx</v>
       </c>
       <c r="K185" t="s">
         <v>187</v>
@@ -7848,11 +7850,11 @@
       </c>
       <c r="G186" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1VC_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1VC_Top15.pdf</v>
       </c>
       <c r="H186" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1VC_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1VC_Top15.xlsx</v>
       </c>
       <c r="K186" t="s">
         <v>187</v>
@@ -7879,11 +7881,11 @@
       </c>
       <c r="G187" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1UX_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1UX_Top15.pdf</v>
       </c>
       <c r="H187" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1UX_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1UX_Top15.xlsx</v>
       </c>
       <c r="K187" t="s">
         <v>187</v>
@@ -7910,11 +7912,11 @@
       </c>
       <c r="G188" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1UZ_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1UZ_Top15.pdf</v>
       </c>
       <c r="H188" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201710_CZ1UZ_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1UZ_Top15.xlsx</v>
       </c>
       <c r="K188" t="s">
         <v>187</v>
@@ -7932,6 +7934,20 @@
       </c>
       <c r="D189" t="s">
         <v>189</v>
+      </c>
+      <c r="E189">
+        <v>1</v>
+      </c>
+      <c r="F189">
+        <v>2</v>
+      </c>
+      <c r="G189" t="str">
+        <f t="shared" ref="G189" si="8">$K189&amp;"\"&amp;L189</f>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ8JP_Top15.pdf</v>
+      </c>
+      <c r="H189" t="str">
+        <f t="shared" ref="H189" si="9">$K189&amp;"\"&amp;M189</f>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ8JP_Top15.xlsx</v>
       </c>
       <c r="K189" t="s">
         <v>187</v>

--- a/BR_Mailer/J051_TOP15_FSC/J051_Mailing List - excel.xlsx
+++ b/BR_Mailer/J051_TOP15_FSC/J051_Mailing List - excel.xlsx
@@ -1,25 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Business Reporting\zDev\BR_Scripts\BRPoSh\BR_Mailer\J051_TOP15_FSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12588"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Trans Page" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="552">
   <si>
     <t>msg</t>
   </si>
@@ -129,9 +129,6 @@
     <t>Maryse.Turgeon@henryschein.ca</t>
   </si>
   <si>
-    <t>Alain.Maranda@henryschein.ca</t>
-  </si>
-  <si>
     <t>Jacques.Goulet@henryschein.ca</t>
   </si>
   <si>
@@ -351,9 +348,6 @@
     <t>Maged.Soliman@henryschein.ca</t>
   </si>
   <si>
-    <t>Don.Fleming@henryschein.ca</t>
-  </si>
-  <si>
     <t>Adam.Jones@henryschein.ca</t>
   </si>
   <si>
@@ -390,9 +384,6 @@
     <t>Melanie.Desjardins@henryschein.ca</t>
   </si>
   <si>
-    <t>Micki.Rombouts@henryschein.ca</t>
-  </si>
-  <si>
     <t>Janice.Bruce@henryschein.ca</t>
   </si>
   <si>
@@ -588,1123 +579,1108 @@
     <t>Jenna.Plenert@henryschein.ca</t>
   </si>
   <si>
-    <t>FSC Top 15 Summary for November 2017</t>
-  </si>
-  <si>
-    <t>201711_CZ1SD_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1SD_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ125_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ125_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ124_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ124_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ132_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ132_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ128_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ128_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ144_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ144_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ165_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ165_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ178_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ178_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ183_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ183_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ107_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ107_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ109_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ109_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_AZ112_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ112_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1CP_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1CP_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ154_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ154_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1KD_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1KD_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1CF_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1CF_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1EM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1EM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1DP_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1DP_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1DA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1DA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1LM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1LM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1EE_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1EE_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1E2_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1E2_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_AZ1EK_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1EK_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_AZ1FB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1FB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1FP_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1FP_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1FT_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1FT_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1FS_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1FS_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1FR_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1FR_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1GO_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1GO_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_AZ1KL_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1KL_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1KK_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1KK_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1DN_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1DN_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1EO_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1EO_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1CB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1CB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1B8_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1B8_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1C4_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1C4_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1D8_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1D8_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1SW_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1SW_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1AP_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1AP_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ2CB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ2CB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1CG_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1CG_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_AZ1PV_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1PV_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ3CB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ3CB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ5CS_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ5CS_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ8JA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ8JA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ7JM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ7JM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ7DO_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ7DO_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ5TA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ5TA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ2LB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ2LB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ2GB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ2GB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ2LH_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ2LH_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ2NM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ2NM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ2SB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ2SB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ2BG_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ2BG_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1SA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1SA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1FA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1FA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ115_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ115_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ120_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ120_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ118_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ118_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ119_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ119_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ138_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ138_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ142_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ142_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ134_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ134_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ123_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ123_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ136_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ136_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ165_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ165_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1FF_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1FF_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ167_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ167_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ175_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ175_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ177_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ177_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ143_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ143_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ159_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ159_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ162_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ162_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ113_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ113_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ133_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ133_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ137_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ137_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ237_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ237_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1G4_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1G4_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZBW1_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZBW1_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ9TS_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ9TS_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1HM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1HM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ2HM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ2HM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ2RP_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ2RP_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1TT_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1TT_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1AM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1AM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1JW_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1JW_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1MH_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1MH_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1M2_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1M2_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1TM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1TM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1T2_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1T2_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ2AM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ2AM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ2CR_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ2CR_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1SC_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1SC_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1PB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1PB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1JN_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1JN_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1J2_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1J2_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1MK_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1MK_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1CA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1CA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ2TM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ2TM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ2T1_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ2T1_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ2T2_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ2T2_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1JA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1JA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1BC_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1BC_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1JL_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1JL_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1AL_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1AL_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1MW_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1MW_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1MS_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1MS_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1DF_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1DF_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1AJ_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1AJ_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1JI_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1JI_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZJI2_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZJI2_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1CM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1CM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ2MS_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ2MS_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ2JN_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ2JN_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1GF_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1GF_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1G2_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1G2_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1BP_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1BP_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1JF_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1JF_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_AZ1CI_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1CI_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1KM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1KM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1OV_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1OV_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1JB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1JB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1BG_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1BG_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1TM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1TM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ177_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ177_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1BM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1BM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1MD_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1MD_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1RR_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1RR_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_AZ1JB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1JB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1AD_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1AD_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1ML_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1ML_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1FA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1FA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ2SA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ2SA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1SL_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1SL_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_AZ1CM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1CM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ3JB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ3JB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_AZ1WH_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1WH_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_AZ1YU_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1YU_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_AZ1WX_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1WX_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_AZ1XF_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1XF_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_AZ1XT_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1XT_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_AZ1YP_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_AZ1YP_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1XH_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1XH_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1X2_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1X2_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1TB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1TB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1TD_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1TD_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1B9_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1B9_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1TK_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1TK_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1YE_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1YE_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1TE_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1TE_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_QZ1TI_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_QZ1TI_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1YI_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1YI_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1YW_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1YW_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1UE_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1UE_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1MJ_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1MJ_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1VG_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1VG_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1VJ_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1VJ_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1MI_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1MI_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1XD_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1XD_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1XB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1XB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1WT_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1WT_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1XA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1XA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1RB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1RB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ2KF_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ2KF_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ148_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ148_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ8GM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ8GM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1BH_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1BH_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ114_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ114_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ1A6_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ1A6_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ139_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ139_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1VL_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1VL_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1VK_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1VK_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1LR_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1LR_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1UV_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1UV_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1WV_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1WV_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1UO_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1UO_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1XC_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1XC_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1YN_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1YN_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1UI_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1UI_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1UU_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1UU_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1UW_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1UW_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1VC_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1VC_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1UX_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1UX_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_CZ1UZ_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_CZ1UZ_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201711_WZ8JP_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201711_WZ8JP_Top15.xlsx</t>
+    <t>Donnalee.Gilbert@henryschein.ca</t>
+  </si>
+  <si>
+    <t>FSC Top 15 Summary for January 2018</t>
+  </si>
+  <si>
+    <t>201801_CZ1SD_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1SD_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ125_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ125_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ124_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ124_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_QZ132_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_QZ132_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ128_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ128_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ144_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ144_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ165_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ165_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_QZ178_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_QZ178_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ183_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ183_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ107_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ107_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ109_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ109_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_AZ112_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_AZ112_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1CP_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1CP_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ154_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ154_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1KD_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1KD_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_QZ1CF_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_QZ1CF_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1EM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1EM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_QZ1DP_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_QZ1DP_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1DA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1DA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_QZ1LM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_QZ1LM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1EE_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1EE_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1E2_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1E2_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_AZ1EK_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_AZ1EK_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_AZ1FB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_AZ1FB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1FP_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1FP_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_QZ1FT_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_QZ1FT_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_QZ1FR_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_QZ1FR_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_QZ1GO_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_QZ1GO_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_AZ1KL_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_AZ1KL_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_QZ1KK_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_QZ1KK_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1DN_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1DN_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_QZ1EO_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_QZ1EO_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1CB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1CB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1B8_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1B8_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1C4_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1C4_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_QZ1D8_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_QZ1D8_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1SW_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1SW_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_QZ1AP_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_QZ1AP_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ2CB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ2CB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1CG_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1CG_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_AZ1PV_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_AZ1PV_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ3CB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ3CB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ5CS_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ5CS_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ8JA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ8JA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_QZ7JM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_QZ7JM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_QZ7DO_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_QZ7DO_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ5TA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ5TA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ2LB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ2LB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ2GB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ2GB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ2LH_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ2LH_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ2NM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ2NM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_QZ2SB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_QZ2SB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ2BG_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ2BG_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1SA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1SA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ1FA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ1FA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ115_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ115_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ120_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ120_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ118_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ118_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ119_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ119_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ138_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ138_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ142_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ142_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ134_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ134_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ123_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ123_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ136_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ136_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ165_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ165_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ1FF_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ1FF_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ167_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ167_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ175_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ175_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ177_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ177_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ143_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ143_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ159_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ159_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ162_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ162_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ113_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ113_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ133_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ133_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ137_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ137_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ237_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ237_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ1G4_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ1G4_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZBW1_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZBW1_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ9TS_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ9TS_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ1HM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ1HM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ2HM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ2HM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ2RP_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ2RP_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ1TT_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ1TT_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ1AM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ1AM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ1JW_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ1JW_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ1MH_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ1MH_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ1M2_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ1M2_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ1TM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ1TM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ1T2_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ1T2_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ2AM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ2AM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ2CR_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ2CR_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ1SC_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ1SC_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ1PB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ1PB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ1JN_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ1JN_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ1J2_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ1J2_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ1MK_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ1MK_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ1CA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ1CA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ2TM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ2TM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ2T1_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ2T1_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ2T2_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ2T2_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ1JA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ1JA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ1BC_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ1BC_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ1JL_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ1JL_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ1AL_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ1AL_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ1MW_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ1MW_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ1MS_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ1MS_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ1AJ_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ1AJ_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ1JI_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ1JI_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZJI2_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZJI2_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ1CM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ1CM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ2MS_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ2MS_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ2JN_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ2JN_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1GF_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1GF_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1G2_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1G2_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_QZ1BP_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_QZ1BP_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1JF_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1JF_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_AZ1CI_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_AZ1CI_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1KM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1KM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1OV_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1OV_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_QZ1JB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_QZ1JB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_QZ1BG_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_QZ1BG_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1TM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1TM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_QZ177_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_QZ177_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_QZ1BM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_QZ1BM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_QZ1MD_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_QZ1MD_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_AZ1JB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_AZ1JB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1AD_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1AD_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_QZ1ML_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_QZ1ML_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1FA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1FA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ2SA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ2SA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_QZ1SL_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_QZ1SL_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_AZ1CM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_AZ1CM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_QZ3JB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_QZ3JB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_AZ1WH_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_AZ1WH_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_AZ1YU_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_AZ1YU_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_AZ1WX_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_AZ1WX_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_AZ1XF_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_AZ1XF_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_AZ1XT_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_AZ1XT_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_AZ1YP_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_AZ1YP_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_QZ1XH_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_QZ1XH_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_QZ1X2_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_QZ1X2_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_QZ1TB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_QZ1TB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_QZ1TD_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_QZ1TD_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_QZ1TK_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_QZ1TK_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_QZ1YE_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_QZ1YE_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_QZ1TE_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_QZ1TE_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_QZ1TI_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_QZ1TI_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1YI_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1YI_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1YW_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1YW_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1UE_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1UE_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1MJ_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1MJ_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1VG_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1VG_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1VJ_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1VJ_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1MI_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1MI_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1XD_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1XD_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1XB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1XB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1WT_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1WT_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1XA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1XA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ1RB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ1RB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ2KF_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ2KF_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ148_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ148_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ8GM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ8GM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ1BH_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ1BH_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ114_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ114_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ1A6_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ1A6_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ139_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ139_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1VL_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1VL_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1VK_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1VK_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1LR_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1LR_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1UV_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1UV_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1WV_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1WV_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1UO_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1UO_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1XC_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1XC_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1YN_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1YN_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1UI_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1UI_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1UU_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1UU_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1UW_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1UW_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1VC_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1VC_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1UX_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1UX_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1UZ_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1UZ_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_WZ8JP_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_WZ8JP_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201801_CZ1DG_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201801_CZ1DG_Top15.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2048,38 +2024,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N189"/>
+  <dimension ref="A1:N186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="A189" sqref="A189:XFD189"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" customWidth="1"/>
-    <col min="4" max="4" width="46.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="3.33203125" customWidth="1"/>
-    <col min="7" max="7" width="78.6640625" customWidth="1"/>
-    <col min="8" max="8" width="79.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.33203125" customWidth="1"/>
-    <col min="11" max="11" width="66.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="39.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="3.28515625" customWidth="1"/>
+    <col min="7" max="7" width="114.7109375" customWidth="1"/>
+    <col min="8" max="8" width="79.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="37.5703125" customWidth="1"/>
+    <col min="11" max="11" width="66.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="39.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
@@ -2103,21 +2077,20 @@
         <v>7</v>
       </c>
       <c r="L1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="M1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="str">
-        <f>D3</f>
-        <v>FSC Top 15 Summary for November 2017</v>
+      <c r="D2" t="s">
+        <v>187</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2127,31 +2100,29 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1SD_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1SD_Top15.pdf</v>
       </c>
       <c r="H2" t="str">
         <f>$K2&amp;"\"&amp;M2</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1SD_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1SD_Top15.xlsx</v>
       </c>
       <c r="K2" t="s">
-        <v>187</v>
-      </c>
-      <c r="L2" t="str">
-        <f>L3</f>
-        <v>201711_CZ1SD_Top15.pdf</v>
-      </c>
-      <c r="M2" t="str">
-        <f>M3</f>
-        <v>201711_CZ1SD_Top15.xlsx</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="L2" t="s">
+        <v>188</v>
+      </c>
+      <c r="M2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2161,29 +2132,29 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:H18" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1SD_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1SD_Top15.pdf</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1SD_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1SD_Top15.xlsx</v>
       </c>
       <c r="K3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="M3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2193,29 +2164,29 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G17" si="1">$K4&amp;"\"&amp;L4</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ125_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ125_Top15.pdf</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ125_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ125_Top15.xlsx</v>
       </c>
       <c r="K4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="M4" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2225,29 +2196,29 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ124_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ124_Top15.pdf</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ124_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ124_Top15.xlsx</v>
       </c>
       <c r="K5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="M5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2257,29 +2228,29 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ132_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ132_Top15.pdf</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ132_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ132_Top15.xlsx</v>
       </c>
       <c r="K6" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M6" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2289,29 +2260,29 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ128_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ128_Top15.pdf</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ128_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ128_Top15.xlsx</v>
       </c>
       <c r="K7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="M7" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2321,29 +2292,29 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ144_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ144_Top15.pdf</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ144_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ144_Top15.xlsx</v>
       </c>
       <c r="K8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="M8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2353,29 +2324,29 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ165_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ165_Top15.pdf</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ165_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ165_Top15.xlsx</v>
       </c>
       <c r="K9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2385,29 +2356,29 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ178_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ178_Top15.pdf</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ178_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ178_Top15.xlsx</v>
       </c>
       <c r="K10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L10" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
         <v>19</v>
       </c>
       <c r="D11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2417,29 +2388,29 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ183_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ183_Top15.pdf</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ183_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ183_Top15.xlsx</v>
       </c>
       <c r="K11" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L11" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M11" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2449,29 +2420,29 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ107_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ107_Top15.pdf</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ107_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ107_Top15.xlsx</v>
       </c>
       <c r="K12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M12" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
         <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2481,29 +2452,29 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ109_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ109_Top15.pdf</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ109_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ109_Top15.xlsx</v>
       </c>
       <c r="K13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="M13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2513,29 +2484,29 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ112_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_AZ112_Top15.pdf</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ112_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_AZ112_Top15.xlsx</v>
       </c>
       <c r="K14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M14" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
         <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2545,29 +2516,29 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1CP_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1CP_Top15.pdf</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1CP_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1CP_Top15.xlsx</v>
       </c>
       <c r="K15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" t="s">
         <v>24</v>
       </c>
       <c r="D16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2577,29 +2548,29 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ154_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ154_Top15.pdf</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ154_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ154_Top15.xlsx</v>
       </c>
       <c r="K16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M16" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" t="s">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2609,29 +2580,29 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1KD_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1KD_Top15.pdf</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1KD_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1KD_Top15.xlsx</v>
       </c>
       <c r="K17" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="M17" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" t="s">
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2641,29 +2612,29 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" ref="G18:G81" si="2">$K18&amp;"\"&amp;L18</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1CF_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1CF_Top15.pdf</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1CF_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1CF_Top15.xlsx</v>
       </c>
       <c r="K18" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="M18" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" t="s">
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2673,28 +2644,28 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1EM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1EM_Top15.pdf</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" ref="H19:H82" si="3">$K19&amp;"\"&amp;M19</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1EM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1EM_Top15.xlsx</v>
       </c>
       <c r="K19" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L19" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M19" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2704,28 +2675,28 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1DP_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1DP_Top15.pdf</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1DP_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1DP_Top15.xlsx</v>
       </c>
       <c r="K20" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L20" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="M20" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2735,28 +2706,28 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1DA_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1DA_Top15.pdf</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1DA_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1DA_Top15.xlsx</v>
       </c>
       <c r="K21" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="M21" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2766,28 +2737,28 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1LM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1LM_Top15.pdf</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1LM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1LM_Top15.xlsx</v>
       </c>
       <c r="K22" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L22" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M22" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2797,28 +2768,28 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1EE_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1EE_Top15.pdf</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1EE_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1EE_Top15.xlsx</v>
       </c>
       <c r="K23" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L23" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="M23" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2828,28 +2799,28 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1E2_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1E2_Top15.pdf</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1E2_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1E2_Top15.xlsx</v>
       </c>
       <c r="K24" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L24" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="M24" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>32</v>
       </c>
       <c r="D25" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2859,28 +2830,28 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1EK_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_AZ1EK_Top15.pdf</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1EK_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_AZ1EK_Top15.xlsx</v>
       </c>
       <c r="K25" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L25" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M25" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>33</v>
       </c>
       <c r="D26" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2890,28 +2861,28 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1FB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_AZ1FB_Top15.pdf</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1FB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_AZ1FB_Top15.xlsx</v>
       </c>
       <c r="K26" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="M26" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -2921,28 +2892,28 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1FP_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1FP_Top15.pdf</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1FP_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1FP_Top15.xlsx</v>
       </c>
       <c r="K27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L27" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="M27" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>35</v>
       </c>
       <c r="D28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -2952,28 +2923,28 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1FT_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1FT_Top15.pdf</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1FT_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1FT_Top15.xlsx</v>
       </c>
       <c r="K28" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L28" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="M28" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>36</v>
       </c>
       <c r="D29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -2983,28 +2954,28 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1FS_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1FR_Top15.pdf</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1FS_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1FR_Top15.xlsx</v>
       </c>
       <c r="K29" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L29" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="M29" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>37</v>
       </c>
       <c r="D30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -3014,28 +2985,28 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1FR_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1GO_Top15.pdf</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1FR_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1GO_Top15.xlsx</v>
       </c>
       <c r="K30" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L30" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="M30" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>38</v>
       </c>
       <c r="D31" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -3045,28 +3016,28 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1GO_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_AZ1KL_Top15.pdf</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1GO_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_AZ1KL_Top15.xlsx</v>
       </c>
       <c r="K31" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L31" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M31" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -3076,28 +3047,28 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1KL_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1KK_Top15.pdf</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1KL_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1KK_Top15.xlsx</v>
       </c>
       <c r="K32" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L32" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="M32" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -3107,28 +3078,28 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1KK_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1DN_Top15.pdf</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1KK_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1DN_Top15.xlsx</v>
       </c>
       <c r="K33" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L33" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="M33" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3138,28 +3109,28 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1DN_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1EO_Top15.pdf</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1DN_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1EO_Top15.xlsx</v>
       </c>
       <c r="K34" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L34" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M34" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3169,28 +3140,28 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1EO_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1CB_Top15.pdf</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1EO_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1CB_Top15.xlsx</v>
       </c>
       <c r="K35" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L35" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M35" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3200,28 +3171,28 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1CB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1B8_Top15.pdf</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1CB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1B8_Top15.xlsx</v>
       </c>
       <c r="K36" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L36" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="M36" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3231,28 +3202,28 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1B8_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1C4_Top15.pdf</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1B8_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1C4_Top15.xlsx</v>
       </c>
       <c r="K37" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L37" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M37" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>45</v>
       </c>
       <c r="D38" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -3262,28 +3233,28 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1C4_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1D8_Top15.pdf</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1C4_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1D8_Top15.xlsx</v>
       </c>
       <c r="K38" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L38" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="M38" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3293,28 +3264,28 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1D8_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1SW_Top15.pdf</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1D8_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1SW_Top15.xlsx</v>
       </c>
       <c r="K39" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L39" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="M39" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>47</v>
       </c>
       <c r="D40" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3324,28 +3295,28 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1SW_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1AP_Top15.pdf</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1SW_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1AP_Top15.xlsx</v>
       </c>
       <c r="K40" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L40" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="M40" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>48</v>
       </c>
       <c r="D41" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3355,28 +3326,28 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1AP_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ2CB_Top15.pdf</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1AP_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ2CB_Top15.xlsx</v>
       </c>
       <c r="K41" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L41" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M41" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3386,28 +3357,28 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ2CB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1CG_Top15.pdf</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ2CB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1CG_Top15.xlsx</v>
       </c>
       <c r="K42" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L42" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="M42" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>50</v>
       </c>
       <c r="D43" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3417,28 +3388,28 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1CG_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_AZ1PV_Top15.pdf</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1CG_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_AZ1PV_Top15.xlsx</v>
       </c>
       <c r="K43" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L43" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="M43" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>51</v>
       </c>
       <c r="D44" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3448,28 +3419,28 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1PV_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ3CB_Top15.pdf</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1PV_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ3CB_Top15.xlsx</v>
       </c>
       <c r="K44" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L44" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M44" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>52</v>
       </c>
       <c r="D45" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -3479,28 +3450,28 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ3CB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ5CS_Top15.pdf</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ3CB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ5CS_Top15.xlsx</v>
       </c>
       <c r="K45" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L45" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="M45" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>53</v>
       </c>
       <c r="D46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -3510,28 +3481,28 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ5CS_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ8JA_Top15.pdf</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ5CS_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ8JA_Top15.xlsx</v>
       </c>
       <c r="K46" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L46" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M46" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>54</v>
       </c>
       <c r="D47" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3541,28 +3512,28 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ8JA_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ7JM_Top15.pdf</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ8JA_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ7JM_Top15.xlsx</v>
       </c>
       <c r="K47" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L47" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="M47" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>55</v>
       </c>
       <c r="D48" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3572,28 +3543,28 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ7JM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ7DO_Top15.pdf</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ7JM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ7DO_Top15.xlsx</v>
       </c>
       <c r="K48" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L48" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="M48" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>56</v>
       </c>
       <c r="D49" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3603,28 +3574,28 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ7DO_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ5TA_Top15.pdf</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ7DO_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ5TA_Top15.xlsx</v>
       </c>
       <c r="K49" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L49" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M49" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.3">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>57</v>
       </c>
       <c r="D50" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3634,28 +3605,28 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ5TA_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ2LB_Top15.pdf</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ5TA_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ2LB_Top15.xlsx</v>
       </c>
       <c r="K50" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L50" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="M50" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.3">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>58</v>
       </c>
       <c r="D51" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3665,28 +3636,28 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ2LB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ2GB_Top15.pdf</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ2LB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ2GB_Top15.xlsx</v>
       </c>
       <c r="K51" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L51" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M51" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>59</v>
       </c>
       <c r="D52" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3696,28 +3667,28 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ2GB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ2LH_Top15.pdf</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ2GB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ2LH_Top15.xlsx</v>
       </c>
       <c r="K52" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L52" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M52" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.3">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>60</v>
       </c>
       <c r="D53" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3727,28 +3698,28 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ2LH_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ2NM_Top15.pdf</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ2LH_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ2NM_Top15.xlsx</v>
       </c>
       <c r="K53" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L53" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M53" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>61</v>
       </c>
       <c r="D54" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3758,28 +3729,28 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ2NM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ2SB_Top15.pdf</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ2NM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ2SB_Top15.xlsx</v>
       </c>
       <c r="K54" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L54" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="M54" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.3">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>62</v>
       </c>
       <c r="D55" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3789,28 +3760,28 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ2SB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ2BG_Top15.pdf</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ2SB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ2BG_Top15.xlsx</v>
       </c>
       <c r="K55" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L55" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="M55" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.3">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>63</v>
       </c>
       <c r="D56" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -3820,28 +3791,28 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ2BG_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1SA_Top15.pdf</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ2BG_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1SA_Top15.xlsx</v>
       </c>
       <c r="K56" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L56" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="M56" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.3">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>64</v>
       </c>
       <c r="D57" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3851,28 +3822,28 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1SA_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1FA_Top15.pdf</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1SA_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1FA_Top15.xlsx</v>
       </c>
       <c r="K57" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L57" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="M57" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.3">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>65</v>
       </c>
       <c r="D58" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -3882,28 +3853,28 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1FA_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ115_Top15.pdf</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1FA_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ115_Top15.xlsx</v>
       </c>
       <c r="K58" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L58" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M58" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.3">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>66</v>
       </c>
       <c r="D59" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -3913,28 +3884,28 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ115_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ120_Top15.pdf</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ115_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ120_Top15.xlsx</v>
       </c>
       <c r="K59" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L59" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="M59" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>67</v>
       </c>
       <c r="D60" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -3944,28 +3915,28 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ120_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ118_Top15.pdf</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ120_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ118_Top15.xlsx</v>
       </c>
       <c r="K60" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L60" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="M60" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>68</v>
       </c>
       <c r="D61" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -3975,28 +3946,28 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ118_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ119_Top15.pdf</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ118_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ119_Top15.xlsx</v>
       </c>
       <c r="K61" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L61" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="M61" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>69</v>
       </c>
       <c r="D62" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4006,28 +3977,28 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ119_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ138_Top15.pdf</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ119_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ138_Top15.xlsx</v>
       </c>
       <c r="K62" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L62" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="M62" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>70</v>
       </c>
       <c r="D63" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4037,28 +4008,28 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ138_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ142_Top15.pdf</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ138_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ142_Top15.xlsx</v>
       </c>
       <c r="K63" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L63" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="M63" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
         <v>71</v>
       </c>
       <c r="D64" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -4068,28 +4039,28 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ142_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ134_Top15.pdf</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ142_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ134_Top15.xlsx</v>
       </c>
       <c r="K64" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L64" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="M64" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>72</v>
       </c>
       <c r="D65" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -4099,28 +4070,28 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ134_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ123_Top15.pdf</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ134_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ123_Top15.xlsx</v>
       </c>
       <c r="K65" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L65" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="M65" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>73</v>
       </c>
       <c r="D66" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4130,28 +4101,28 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ123_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ136_Top15.pdf</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ123_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ136_Top15.xlsx</v>
       </c>
       <c r="K66" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L66" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="M66" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>74</v>
       </c>
       <c r="D67" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -4161,28 +4132,28 @@
       </c>
       <c r="G67" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ136_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ165_Top15.pdf</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ136_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ165_Top15.xlsx</v>
       </c>
       <c r="K67" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L67" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M67" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>75</v>
       </c>
       <c r="D68" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4192,28 +4163,28 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ165_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1FF_Top15.pdf</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ165_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1FF_Top15.xlsx</v>
       </c>
       <c r="K68" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L68" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M68" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>76</v>
       </c>
       <c r="D69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4223,28 +4194,28 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1FF_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ167_Top15.pdf</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1FF_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ167_Top15.xlsx</v>
       </c>
       <c r="K69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L69" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M69" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>77</v>
       </c>
       <c r="D70" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -4254,28 +4225,28 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ167_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ175_Top15.pdf</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ167_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ175_Top15.xlsx</v>
       </c>
       <c r="K70" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L70" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="M70" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>78</v>
       </c>
       <c r="D71" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -4285,28 +4256,28 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ175_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ177_Top15.pdf</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ175_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ177_Top15.xlsx</v>
       </c>
       <c r="K71" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L71" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="M71" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>79</v>
       </c>
       <c r="D72" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -4316,28 +4287,28 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ177_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ143_Top15.pdf</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ177_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ143_Top15.xlsx</v>
       </c>
       <c r="K72" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L72" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="M72" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>80</v>
       </c>
       <c r="D73" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -4347,28 +4318,28 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ143_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ159_Top15.pdf</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ143_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ159_Top15.xlsx</v>
       </c>
       <c r="K73" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L73" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="M73" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>81</v>
       </c>
       <c r="D74" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -4378,28 +4349,28 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ159_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ162_Top15.pdf</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ159_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ162_Top15.xlsx</v>
       </c>
       <c r="K74" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L74" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="M74" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>82</v>
       </c>
       <c r="D75" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -4409,28 +4380,28 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ162_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ113_Top15.pdf</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ162_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ113_Top15.xlsx</v>
       </c>
       <c r="K75" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L75" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M75" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>83</v>
       </c>
       <c r="D76" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -4440,28 +4411,28 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ113_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ133_Top15.pdf</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ113_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ133_Top15.xlsx</v>
       </c>
       <c r="K76" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L76" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="M76" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>84</v>
       </c>
       <c r="D77" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -4471,28 +4442,28 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ133_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ137_Top15.pdf</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ133_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ137_Top15.xlsx</v>
       </c>
       <c r="K77" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L77" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M77" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D78" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -4502,28 +4473,28 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ137_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ237_Top15.pdf</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ137_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ237_Top15.xlsx</v>
       </c>
       <c r="K78" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L78" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="M78" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>85</v>
       </c>
       <c r="D79" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -4533,28 +4504,28 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ237_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1G4_Top15.pdf</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ237_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1G4_Top15.xlsx</v>
       </c>
       <c r="K79" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L79" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="M79" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>86</v>
       </c>
       <c r="D80" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -4564,28 +4535,28 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1G4_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZBW1_Top15.pdf</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1G4_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZBW1_Top15.xlsx</v>
       </c>
       <c r="K80" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L80" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M80" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
         <v>87</v>
       </c>
       <c r="D81" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -4595,28 +4566,28 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZBW1_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ9TS_Top15.pdf</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZBW1_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ9TS_Top15.xlsx</v>
       </c>
       <c r="K81" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L81" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="M81" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
         <v>88</v>
       </c>
       <c r="D82" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -4626,28 +4597,28 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" ref="G82:G145" si="4">$K82&amp;"\"&amp;L82</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ9TS_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1HM_Top15.pdf</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ9TS_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1HM_Top15.xlsx</v>
       </c>
       <c r="K82" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L82" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="M82" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D83" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -4657,28 +4628,28 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1HM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ2HM_Top15.pdf</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" ref="H83:H146" si="5">$K83&amp;"\"&amp;M83</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1HM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ2HM_Top15.xlsx</v>
       </c>
       <c r="K83" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L83" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M83" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
         <v>89</v>
       </c>
       <c r="D84" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -4688,28 +4659,28 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2HM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1HM_Top15.pdf</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2HM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1HM_Top15.xlsx</v>
       </c>
       <c r="K84" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L84" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="M84" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D85" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -4719,28 +4690,28 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1HM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ2HM_Top15.pdf</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1HM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ2HM_Top15.xlsx</v>
       </c>
       <c r="K85" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L85" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="M85" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.3">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
         <v>90</v>
       </c>
       <c r="D86" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -4750,28 +4721,28 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2HM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ2RP_Top15.pdf</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2HM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ2RP_Top15.xlsx</v>
       </c>
       <c r="K86" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L86" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="M86" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.3">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
         <v>91</v>
       </c>
       <c r="D87" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -4781,28 +4752,28 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2RP_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1TT_Top15.pdf</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2RP_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1TT_Top15.xlsx</v>
       </c>
       <c r="K87" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L87" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="M87" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>92</v>
       </c>
       <c r="D88" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -4812,28 +4783,28 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1TT_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1AM_Top15.pdf</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1TT_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1AM_Top15.xlsx</v>
       </c>
       <c r="K88" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L88" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M88" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
         <v>93</v>
       </c>
       <c r="D89" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -4843,28 +4814,28 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1AM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1JW_Top15.pdf</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1AM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1JW_Top15.xlsx</v>
       </c>
       <c r="K89" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L89" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="M89" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
         <v>94</v>
       </c>
       <c r="D90" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -4874,28 +4845,28 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1JW_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1MH_Top15.pdf</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1JW_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1MH_Top15.xlsx</v>
       </c>
       <c r="K90" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L90" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="M90" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D91" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -4905,28 +4876,28 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1MH_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1M2_Top15.pdf</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1MH_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1M2_Top15.xlsx</v>
       </c>
       <c r="K91" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L91" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="M91" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
         <v>95</v>
       </c>
       <c r="D92" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -4936,28 +4907,28 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1M2_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1TM_Top15.pdf</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1M2_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1TM_Top15.xlsx</v>
       </c>
       <c r="K92" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L92" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M92" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D93" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -4967,28 +4938,28 @@
       </c>
       <c r="G93" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1TM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1T2_Top15.pdf</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1TM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1T2_Top15.xlsx</v>
       </c>
       <c r="K93" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L93" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="M93" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
         <v>96</v>
       </c>
       <c r="D94" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -4998,28 +4969,28 @@
       </c>
       <c r="G94" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1T2_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ2AM_Top15.pdf</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1T2_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ2AM_Top15.xlsx</v>
       </c>
       <c r="K94" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L94" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="M94" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
         <v>97</v>
       </c>
       <c r="D95" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -5029,28 +5000,28 @@
       </c>
       <c r="G95" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2AM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ2CR_Top15.pdf</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2AM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ2CR_Top15.xlsx</v>
       </c>
       <c r="K95" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L95" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="M95" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.3">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
         <v>98</v>
       </c>
       <c r="D96" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -5060,28 +5031,28 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ2CR_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1SC_Top15.pdf</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ2CR_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1SC_Top15.xlsx</v>
       </c>
       <c r="K96" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L96" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M96" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
         <v>99</v>
       </c>
       <c r="D97" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -5091,28 +5062,28 @@
       </c>
       <c r="G97" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1SC_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1PB_Top15.pdf</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1SC_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1PB_Top15.xlsx</v>
       </c>
       <c r="K97" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L97" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M97" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
         <v>100</v>
       </c>
       <c r="D98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -5122,28 +5093,28 @@
       </c>
       <c r="G98" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1PB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1JN_Top15.pdf</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1PB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1JN_Top15.xlsx</v>
       </c>
       <c r="K98" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L98" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="M98" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D99" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -5153,28 +5124,28 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1JN_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1J2_Top15.pdf</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1JN_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1J2_Top15.xlsx</v>
       </c>
       <c r="K99" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L99" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="M99" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
         <v>101</v>
       </c>
       <c r="D100" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -5184,28 +5155,28 @@
       </c>
       <c r="G100" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1J2_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1MK_Top15.pdf</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1J2_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1MK_Top15.xlsx</v>
       </c>
       <c r="K100" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L100" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="M100" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>102</v>
+        <v>180</v>
       </c>
       <c r="D101" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -5215,28 +5186,28 @@
       </c>
       <c r="G101" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1MK_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1CA_Top15.pdf</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1MK_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1CA_Top15.xlsx</v>
       </c>
       <c r="K101" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L101" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="M101" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>183</v>
+        <v>102</v>
       </c>
       <c r="D102" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -5246,28 +5217,28 @@
       </c>
       <c r="G102" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1CA_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ2TM_Top15.pdf</v>
       </c>
       <c r="H102" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1CA_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ2TM_Top15.xlsx</v>
       </c>
       <c r="K102" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L102" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="M102" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="103" spans="2:13" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="103" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D103" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -5277,28 +5248,28 @@
       </c>
       <c r="G103" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2TM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ2T1_Top15.pdf</v>
       </c>
       <c r="H103" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2TM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ2T1_Top15.xlsx</v>
       </c>
       <c r="K103" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L103" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="M103" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="104" spans="2:13" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="104" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D104" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -5308,28 +5279,28 @@
       </c>
       <c r="G104" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2T1_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ2T2_Top15.pdf</v>
       </c>
       <c r="H104" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2T1_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ2T2_Top15.xlsx</v>
       </c>
       <c r="K104" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L104" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="M104" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="105" spans="2:13" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="105" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>103</v>
       </c>
       <c r="D105" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -5339,28 +5310,28 @@
       </c>
       <c r="G105" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2T2_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1JA_Top15.pdf</v>
       </c>
       <c r="H105" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2T2_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1JA_Top15.xlsx</v>
       </c>
       <c r="K105" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L105" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="M105" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="106" spans="2:13" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="106" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>104</v>
       </c>
       <c r="D106" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -5370,28 +5341,28 @@
       </c>
       <c r="G106" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1JA_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1BC_Top15.pdf</v>
       </c>
       <c r="H106" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1JA_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1BC_Top15.xlsx</v>
       </c>
       <c r="K106" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L106" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="M106" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="107" spans="2:13" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="107" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>105</v>
       </c>
       <c r="D107" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -5401,28 +5372,28 @@
       </c>
       <c r="G107" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1BC_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1JL_Top15.pdf</v>
       </c>
       <c r="H107" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1BC_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1JL_Top15.xlsx</v>
       </c>
       <c r="K107" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L107" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M107" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="108" spans="2:13" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="108" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
         <v>106</v>
       </c>
       <c r="D108" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -5432,28 +5403,28 @@
       </c>
       <c r="G108" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1JL_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1AL_Top15.pdf</v>
       </c>
       <c r="H108" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1JL_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1AL_Top15.xlsx</v>
       </c>
       <c r="K108" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L108" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="M108" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="109" spans="2:13" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="109" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
         <v>107</v>
       </c>
       <c r="D109" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -5463,28 +5434,28 @@
       </c>
       <c r="G109" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1AL_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1MW_Top15.pdf</v>
       </c>
       <c r="H109" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1AL_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1MW_Top15.xlsx</v>
       </c>
       <c r="K109" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L109" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="M109" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="110" spans="2:13" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="110" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
         <v>108</v>
       </c>
       <c r="D110" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -5494,28 +5465,28 @@
       </c>
       <c r="G110" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1MW_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1MS_Top15.pdf</v>
       </c>
       <c r="H110" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1MW_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1MS_Top15.xlsx</v>
       </c>
       <c r="K110" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L110" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="M110" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="111" spans="2:13" x14ac:dyDescent="0.3">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="111" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
         <v>109</v>
       </c>
       <c r="D111" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -5525,28 +5496,28 @@
       </c>
       <c r="G111" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1MS_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1AJ_Top15.pdf</v>
       </c>
       <c r="H111" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1MS_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1AJ_Top15.xlsx</v>
       </c>
       <c r="K111" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L111" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="M111" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="112" spans="2:13" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="112" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="D112" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -5556,28 +5527,28 @@
       </c>
       <c r="G112" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1DF_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1JI_Top15.pdf</v>
       </c>
       <c r="H112" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1DF_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1JI_Top15.xlsx</v>
       </c>
       <c r="K112" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L112" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="M112" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="113" spans="2:13" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="D113" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -5587,28 +5558,28 @@
       </c>
       <c r="G113" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1AJ_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZJI2_Top15.pdf</v>
       </c>
       <c r="H113" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1AJ_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZJI2_Top15.xlsx</v>
       </c>
       <c r="K113" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L113" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="M113" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="114" spans="2:13" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="D114" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -5618,28 +5589,28 @@
       </c>
       <c r="G114" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1JI_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1CM_Top15.pdf</v>
       </c>
       <c r="H114" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1JI_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1CM_Top15.xlsx</v>
       </c>
       <c r="K114" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L114" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="M114" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="115" spans="2:13" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="115" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D115" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -5649,28 +5620,28 @@
       </c>
       <c r="G115" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZJI2_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ2MS_Top15.pdf</v>
       </c>
       <c r="H115" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZJI2_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ2MS_Top15.xlsx</v>
       </c>
       <c r="K115" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L115" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M115" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="116" spans="2:13" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="116" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D116" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -5680,28 +5651,28 @@
       </c>
       <c r="G116" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1CM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ2JN_Top15.pdf</v>
       </c>
       <c r="H116" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1CM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ2JN_Top15.xlsx</v>
       </c>
       <c r="K116" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L116" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="M116" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="117" spans="2:13" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="117" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>179</v>
+        <v>110</v>
       </c>
       <c r="D117" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -5711,28 +5682,28 @@
       </c>
       <c r="G117" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2MS_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1GF_Top15.pdf</v>
       </c>
       <c r="H117" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2MS_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1GF_Top15.xlsx</v>
       </c>
       <c r="K117" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L117" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="M117" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="118" spans="2:13" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="118" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="D118" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -5742,28 +5713,28 @@
       </c>
       <c r="G118" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2JN_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1G2_Top15.pdf</v>
       </c>
       <c r="H118" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2JN_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1G2_Top15.xlsx</v>
       </c>
       <c r="K118" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L118" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M118" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D119" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -5773,28 +5744,28 @@
       </c>
       <c r="G119" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1GF_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1BP_Top15.pdf</v>
       </c>
       <c r="H119" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1GF_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1BP_Top15.xlsx</v>
       </c>
       <c r="K119" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L119" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="M119" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="120" spans="2:13" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="120" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
         <v>112</v>
       </c>
       <c r="D120" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -5804,28 +5775,28 @@
       </c>
       <c r="G120" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1G2_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1JF_Top15.pdf</v>
       </c>
       <c r="H120" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1G2_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1JF_Top15.xlsx</v>
       </c>
       <c r="K120" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L120" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M120" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="121" spans="2:13" x14ac:dyDescent="0.3">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="121" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
         <v>113</v>
       </c>
       <c r="D121" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -5835,28 +5806,28 @@
       </c>
       <c r="G121" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1BP_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_AZ1CI_Top15.pdf</v>
       </c>
       <c r="H121" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1BP_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_AZ1CI_Top15.xlsx</v>
       </c>
       <c r="K121" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L121" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M121" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.3">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
         <v>114</v>
       </c>
       <c r="D122" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -5866,28 +5837,28 @@
       </c>
       <c r="G122" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1JF_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1KM_Top15.pdf</v>
       </c>
       <c r="H122" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1JF_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1KM_Top15.xlsx</v>
       </c>
       <c r="K122" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L122" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="M122" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="123" spans="2:13" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="123" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
         <v>115</v>
       </c>
       <c r="D123" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -5897,28 +5868,28 @@
       </c>
       <c r="G123" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1CI_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1OV_Top15.pdf</v>
       </c>
       <c r="H123" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1CI_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1OV_Top15.xlsx</v>
       </c>
       <c r="K123" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L123" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="M123" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="124" spans="2:13" x14ac:dyDescent="0.3">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="124" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
         <v>116</v>
       </c>
       <c r="D124" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -5928,28 +5899,28 @@
       </c>
       <c r="G124" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1KM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1JB_Top15.pdf</v>
       </c>
       <c r="H124" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1KM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1JB_Top15.xlsx</v>
       </c>
       <c r="K124" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L124" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="M124" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="125" spans="2:13" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="125" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
         <v>117</v>
       </c>
       <c r="D125" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -5959,28 +5930,28 @@
       </c>
       <c r="G125" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1OV_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1BG_Top15.pdf</v>
       </c>
       <c r="H125" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1OV_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1BG_Top15.xlsx</v>
       </c>
       <c r="K125" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L125" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="M125" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="126" spans="2:13" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="126" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
         <v>118</v>
       </c>
       <c r="D126" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -5990,28 +5961,28 @@
       </c>
       <c r="G126" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1JB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1TM_Top15.pdf</v>
       </c>
       <c r="H126" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1JB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1TM_Top15.xlsx</v>
       </c>
       <c r="K126" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L126" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="M126" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="127" spans="2:13" x14ac:dyDescent="0.3">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="127" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>119</v>
+        <v>17</v>
       </c>
       <c r="D127" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -6021,28 +5992,28 @@
       </c>
       <c r="G127" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1BG_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ177_Top15.pdf</v>
       </c>
       <c r="H127" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1BG_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ177_Top15.xlsx</v>
       </c>
       <c r="K127" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L127" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="M127" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="128" spans="2:13" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="128" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D128" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -6052,28 +6023,28 @@
       </c>
       <c r="G128" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1TM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1BM_Top15.pdf</v>
       </c>
       <c r="H128" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1TM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1BM_Top15.xlsx</v>
       </c>
       <c r="K128" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L128" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="M128" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="129" spans="2:13" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="129" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="D129" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -6083,28 +6054,28 @@
       </c>
       <c r="G129" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ177_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1MD_Top15.pdf</v>
       </c>
       <c r="H129" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ177_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1MD_Top15.xlsx</v>
       </c>
       <c r="K129" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L129" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="M129" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="130" spans="2:13" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="130" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
         <v>121</v>
       </c>
       <c r="D130" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -6114,28 +6085,28 @@
       </c>
       <c r="G130" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1BM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_AZ1JB_Top15.pdf</v>
       </c>
       <c r="H130" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1BM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_AZ1JB_Top15.xlsx</v>
       </c>
       <c r="K130" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L130" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="M130" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="131" spans="2:13" x14ac:dyDescent="0.3">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="131" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>122</v>
       </c>
       <c r="D131" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -6145,28 +6116,28 @@
       </c>
       <c r="G131" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1MD_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1AD_Top15.pdf</v>
       </c>
       <c r="H131" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1MD_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1AD_Top15.xlsx</v>
       </c>
       <c r="K131" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L131" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="M131" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="132" spans="2:13" x14ac:dyDescent="0.3">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="132" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="D132" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -6176,28 +6147,28 @@
       </c>
       <c r="G132" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1RR_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1ML_Top15.pdf</v>
       </c>
       <c r="H132" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1RR_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1ML_Top15.xlsx</v>
       </c>
       <c r="K132" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L132" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="M132" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="133" spans="2:13" x14ac:dyDescent="0.3">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="133" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D133" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -6207,28 +6178,28 @@
       </c>
       <c r="G133" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1JB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1FA_Top15.pdf</v>
       </c>
       <c r="H133" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1JB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1FA_Top15.xlsx</v>
       </c>
       <c r="K133" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L133" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="M133" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="134" spans="2:13" x14ac:dyDescent="0.3">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="134" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D134" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -6238,28 +6209,28 @@
       </c>
       <c r="G134" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1AD_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ2SA_Top15.pdf</v>
       </c>
       <c r="H134" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1AD_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ2SA_Top15.xlsx</v>
       </c>
       <c r="K134" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L134" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="M134" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="135" spans="2:13" x14ac:dyDescent="0.3">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="135" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="D135" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -6269,28 +6240,28 @@
       </c>
       <c r="G135" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1ML_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1SL_Top15.pdf</v>
       </c>
       <c r="H135" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1ML_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1SL_Top15.xlsx</v>
       </c>
       <c r="K135" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L135" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="M135" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="136" spans="2:13" x14ac:dyDescent="0.3">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="136" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
         <v>126</v>
       </c>
       <c r="D136" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -6300,28 +6271,28 @@
       </c>
       <c r="G136" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1FA_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_AZ1CM_Top15.pdf</v>
       </c>
       <c r="H136" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1FA_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_AZ1CM_Top15.xlsx</v>
       </c>
       <c r="K136" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L136" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="M136" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="137" spans="2:13" x14ac:dyDescent="0.3">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="137" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>127</v>
+        <v>175</v>
       </c>
       <c r="D137" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -6331,28 +6302,28 @@
       </c>
       <c r="G137" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ2SA_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ3JB_Top15.pdf</v>
       </c>
       <c r="H137" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ2SA_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ3JB_Top15.xlsx</v>
       </c>
       <c r="K137" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L137" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="M137" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="138" spans="2:13" x14ac:dyDescent="0.3">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="138" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D138" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -6362,28 +6333,28 @@
       </c>
       <c r="G138" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1SL_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_AZ1WH_Top15.pdf</v>
       </c>
       <c r="H138" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1SL_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_AZ1WH_Top15.xlsx</v>
       </c>
       <c r="K138" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L138" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="M138" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="139" spans="2:13" x14ac:dyDescent="0.3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="139" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D139" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -6393,28 +6364,28 @@
       </c>
       <c r="G139" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1CM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_AZ1YU_Top15.pdf</v>
       </c>
       <c r="H139" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1CM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_AZ1YU_Top15.xlsx</v>
       </c>
       <c r="K139" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L139" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="M139" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="140" spans="2:13" x14ac:dyDescent="0.3">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="140" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>178</v>
+        <v>129</v>
       </c>
       <c r="D140" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -6424,28 +6395,28 @@
       </c>
       <c r="G140" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ3JB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_AZ1WX_Top15.pdf</v>
       </c>
       <c r="H140" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ3JB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_AZ1WX_Top15.xlsx</v>
       </c>
       <c r="K140" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L140" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="M140" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="141" spans="2:13" x14ac:dyDescent="0.3">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="141" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
         <v>130</v>
       </c>
       <c r="D141" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -6455,28 +6426,28 @@
       </c>
       <c r="G141" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1WH_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_AZ1XF_Top15.pdf</v>
       </c>
       <c r="H141" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1WH_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_AZ1XF_Top15.xlsx</v>
       </c>
       <c r="K141" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L141" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="M141" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="142" spans="2:13" x14ac:dyDescent="0.3">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="142" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
         <v>131</v>
       </c>
       <c r="D142" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -6486,28 +6457,28 @@
       </c>
       <c r="G142" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1YU_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_AZ1XT_Top15.pdf</v>
       </c>
       <c r="H142" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1YU_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_AZ1XT_Top15.xlsx</v>
       </c>
       <c r="K142" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L142" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="M142" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="143" spans="2:13" x14ac:dyDescent="0.3">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="143" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
         <v>132</v>
       </c>
       <c r="D143" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -6517,28 +6488,28 @@
       </c>
       <c r="G143" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1WX_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_AZ1YP_Top15.pdf</v>
       </c>
       <c r="H143" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1WX_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_AZ1YP_Top15.xlsx</v>
       </c>
       <c r="K143" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L143" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M143" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="144" spans="2:13" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="144" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
         <v>133</v>
       </c>
       <c r="D144" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -6548,28 +6519,28 @@
       </c>
       <c r="G144" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1XF_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1XH_Top15.pdf</v>
       </c>
       <c r="H144" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1XF_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1XH_Top15.xlsx</v>
       </c>
       <c r="K144" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L144" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="M144" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="145" spans="2:13" x14ac:dyDescent="0.3">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="145" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D145" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -6579,28 +6550,28 @@
       </c>
       <c r="G145" t="str">
         <f t="shared" si="4"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1XT_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1X2_Top15.pdf</v>
       </c>
       <c r="H145" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1XT_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1X2_Top15.xlsx</v>
       </c>
       <c r="K145" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L145" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="M145" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="146" spans="2:13" x14ac:dyDescent="0.3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="146" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D146" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -6609,29 +6580,29 @@
         <v>2</v>
       </c>
       <c r="G146" t="str">
-        <f t="shared" ref="G146:G188" si="6">$K146&amp;"\"&amp;L146</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1YP_Top15.pdf</v>
+        <f t="shared" ref="G146:G186" si="6">$K146&amp;"\"&amp;L146</f>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1TB_Top15.pdf</v>
       </c>
       <c r="H146" t="str">
         <f t="shared" si="5"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_AZ1YP_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1TB_Top15.xlsx</v>
       </c>
       <c r="K146" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L146" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="M146" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="147" spans="2:13" x14ac:dyDescent="0.3">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="147" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D147" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -6641,28 +6612,28 @@
       </c>
       <c r="G147" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1XH_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1TD_Top15.pdf</v>
       </c>
       <c r="H147" t="str">
-        <f t="shared" ref="H147:H188" si="7">$K147&amp;"\"&amp;M147</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1XH_Top15.xlsx</v>
+        <f t="shared" ref="H147:H186" si="7">$K147&amp;"\"&amp;M147</f>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1TD_Top15.xlsx</v>
       </c>
       <c r="K147" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L147" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="M147" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="148" spans="2:13" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="148" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
         <v>136</v>
       </c>
       <c r="D148" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -6672,28 +6643,28 @@
       </c>
       <c r="G148" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1X2_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1TK_Top15.pdf</v>
       </c>
       <c r="H148" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1X2_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1TK_Top15.xlsx</v>
       </c>
       <c r="K148" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L148" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="M148" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="149" spans="2:13" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="149" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>137</v>
       </c>
       <c r="D149" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -6703,28 +6674,28 @@
       </c>
       <c r="G149" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1TB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1YE_Top15.pdf</v>
       </c>
       <c r="H149" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1TB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1YE_Top15.xlsx</v>
       </c>
       <c r="K149" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L149" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="M149" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="150" spans="2:13" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="150" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>138</v>
       </c>
       <c r="D150" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -6734,28 +6705,28 @@
       </c>
       <c r="G150" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1TD_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1TE_Top15.pdf</v>
       </c>
       <c r="H150" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1TD_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1TE_Top15.xlsx</v>
       </c>
       <c r="K150" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L150" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="M150" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="151" spans="2:13" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="151" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D151" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -6765,28 +6736,28 @@
       </c>
       <c r="G151" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1B9_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1TI_Top15.pdf</v>
       </c>
       <c r="H151" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1B9_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_QZ1TI_Top15.xlsx</v>
       </c>
       <c r="K151" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L151" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="M151" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="152" spans="2:13" x14ac:dyDescent="0.3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="152" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D152" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -6796,28 +6767,28 @@
       </c>
       <c r="G152" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1TK_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1YI_Top15.pdf</v>
       </c>
       <c r="H152" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1TK_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1YI_Top15.xlsx</v>
       </c>
       <c r="K152" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L152" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="M152" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="153" spans="2:13" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="153" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D153" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -6827,28 +6798,28 @@
       </c>
       <c r="G153" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1YE_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1YW_Top15.pdf</v>
       </c>
       <c r="H153" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1YE_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1YW_Top15.xlsx</v>
       </c>
       <c r="K153" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L153" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="M153" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="154" spans="2:13" x14ac:dyDescent="0.3">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="154" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B154" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D154" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -6858,28 +6829,28 @@
       </c>
       <c r="G154" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1TE_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1UE_Top15.pdf</v>
       </c>
       <c r="H154" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1TE_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1UE_Top15.xlsx</v>
       </c>
       <c r="K154" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L154" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="M154" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="155" spans="2:13" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="155" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B155" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D155" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -6889,28 +6860,28 @@
       </c>
       <c r="G155" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1TI_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1MJ_Top15.pdf</v>
       </c>
       <c r="H155" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_QZ1TI_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1MJ_Top15.xlsx</v>
       </c>
       <c r="K155" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L155" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="M155" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="156" spans="2:13" x14ac:dyDescent="0.3">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="156" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D156" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -6920,28 +6891,28 @@
       </c>
       <c r="G156" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1YI_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1VG_Top15.pdf</v>
       </c>
       <c r="H156" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1YI_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1VG_Top15.xlsx</v>
       </c>
       <c r="K156" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L156" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="M156" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="157" spans="2:13" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="157" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D157" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -6951,28 +6922,28 @@
       </c>
       <c r="G157" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1YW_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1VJ_Top15.pdf</v>
       </c>
       <c r="H157" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1YW_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1VJ_Top15.xlsx</v>
       </c>
       <c r="K157" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L157" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="M157" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="158" spans="2:13" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="158" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D158" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -6982,28 +6953,28 @@
       </c>
       <c r="G158" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1UE_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1MI_Top15.pdf</v>
       </c>
       <c r="H158" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1UE_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1MI_Top15.xlsx</v>
       </c>
       <c r="K158" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L158" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="M158" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="159" spans="2:13" x14ac:dyDescent="0.3">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="159" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D159" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -7013,28 +6984,28 @@
       </c>
       <c r="G159" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1MJ_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1XD_Top15.pdf</v>
       </c>
       <c r="H159" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1MJ_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1XD_Top15.xlsx</v>
       </c>
       <c r="K159" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L159" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="M159" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="160" spans="2:13" x14ac:dyDescent="0.3">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="160" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D160" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -7044,28 +7015,28 @@
       </c>
       <c r="G160" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1VG_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1XB_Top15.pdf</v>
       </c>
       <c r="H160" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1VG_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1XB_Top15.xlsx</v>
       </c>
       <c r="K160" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L160" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="M160" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="161" spans="2:13" x14ac:dyDescent="0.3">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="161" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D161" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -7075,28 +7046,28 @@
       </c>
       <c r="G161" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1VJ_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1WT_Top15.pdf</v>
       </c>
       <c r="H161" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1VJ_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1WT_Top15.xlsx</v>
       </c>
       <c r="K161" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L161" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="M161" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="162" spans="2:13" x14ac:dyDescent="0.3">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="162" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D162" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -7106,28 +7077,28 @@
       </c>
       <c r="G162" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1MI_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1XA_Top15.pdf</v>
       </c>
       <c r="H162" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1MI_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1XA_Top15.xlsx</v>
       </c>
       <c r="K162" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L162" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M162" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="163" spans="2:13" x14ac:dyDescent="0.3">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="163" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D163" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -7137,28 +7108,28 @@
       </c>
       <c r="G163" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1XD_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1RB_Top15.pdf</v>
       </c>
       <c r="H163" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1XD_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1RB_Top15.xlsx</v>
       </c>
       <c r="K163" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L163" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="M163" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="164" spans="2:13" x14ac:dyDescent="0.3">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="164" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D164" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -7168,28 +7139,28 @@
       </c>
       <c r="G164" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1XB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ2KF_Top15.pdf</v>
       </c>
       <c r="H164" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1XB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ2KF_Top15.xlsx</v>
       </c>
       <c r="K164" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L164" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="M164" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="165" spans="2:13" x14ac:dyDescent="0.3">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="165" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D165" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -7199,28 +7170,28 @@
       </c>
       <c r="G165" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1WT_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ148_Top15.pdf</v>
       </c>
       <c r="H165" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1WT_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ148_Top15.xlsx</v>
       </c>
       <c r="K165" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L165" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="M165" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="166" spans="2:13" x14ac:dyDescent="0.3">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="166" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D166" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -7230,28 +7201,28 @@
       </c>
       <c r="G166" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1XA_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ8GM_Top15.pdf</v>
       </c>
       <c r="H166" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1XA_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ8GM_Top15.xlsx</v>
       </c>
       <c r="K166" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L166" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="M166" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="167" spans="2:13" x14ac:dyDescent="0.3">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="167" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D167" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -7261,28 +7232,28 @@
       </c>
       <c r="G167" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1RB_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1BH_Top15.pdf</v>
       </c>
       <c r="H167" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1RB_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1BH_Top15.xlsx</v>
       </c>
       <c r="K167" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L167" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="M167" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="168" spans="2:13" x14ac:dyDescent="0.3">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="168" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D168" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -7292,28 +7263,28 @@
       </c>
       <c r="G168" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2KF_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ114_Top15.pdf</v>
       </c>
       <c r="H168" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ2KF_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ114_Top15.xlsx</v>
       </c>
       <c r="K168" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L168" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="M168" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="169" spans="2:13" x14ac:dyDescent="0.3">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="169" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D169" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -7323,28 +7294,28 @@
       </c>
       <c r="G169" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ148_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1A6_Top15.pdf</v>
       </c>
       <c r="H169" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ148_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ1A6_Top15.xlsx</v>
       </c>
       <c r="K169" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L169" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="M169" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="170" spans="2:13" x14ac:dyDescent="0.3">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="170" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D170" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -7354,28 +7325,28 @@
       </c>
       <c r="G170" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ8GM_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ139_Top15.pdf</v>
       </c>
       <c r="H170" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ8GM_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ139_Top15.xlsx</v>
       </c>
       <c r="K170" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L170" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="M170" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="171" spans="2:13" x14ac:dyDescent="0.3">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="171" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D171" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -7385,28 +7356,28 @@
       </c>
       <c r="G171" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1BH_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1VL_Top15.pdf</v>
       </c>
       <c r="H171" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1BH_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1VL_Top15.xlsx</v>
       </c>
       <c r="K171" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L171" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="M171" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="172" spans="2:13" x14ac:dyDescent="0.3">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="172" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D172" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -7416,28 +7387,28 @@
       </c>
       <c r="G172" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ114_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1VK_Top15.pdf</v>
       </c>
       <c r="H172" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ114_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1VK_Top15.xlsx</v>
       </c>
       <c r="K172" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L172" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="M172" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="173" spans="2:13" x14ac:dyDescent="0.3">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="173" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D173" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E173">
         <v>1</v>
@@ -7447,28 +7418,28 @@
       </c>
       <c r="G173" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1A6_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1LR_Top15.pdf</v>
       </c>
       <c r="H173" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ1A6_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1LR_Top15.xlsx</v>
       </c>
       <c r="K173" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L173" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="M173" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="174" spans="2:13" x14ac:dyDescent="0.3">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="174" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B174" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D174" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E174">
         <v>1</v>
@@ -7478,28 +7449,28 @@
       </c>
       <c r="G174" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ139_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1UV_Top15.pdf</v>
       </c>
       <c r="H174" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ139_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1UV_Top15.xlsx</v>
       </c>
       <c r="K174" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L174" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="M174" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="175" spans="2:13" x14ac:dyDescent="0.3">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="175" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B175" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D175" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -7509,28 +7480,28 @@
       </c>
       <c r="G175" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1VL_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1WV_Top15.pdf</v>
       </c>
       <c r="H175" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1VL_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1WV_Top15.xlsx</v>
       </c>
       <c r="K175" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L175" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="M175" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="176" spans="2:13" x14ac:dyDescent="0.3">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="176" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B176" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D176" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -7540,28 +7511,28 @@
       </c>
       <c r="G176" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1VK_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1UO_Top15.pdf</v>
       </c>
       <c r="H176" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1VK_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1UO_Top15.xlsx</v>
       </c>
       <c r="K176" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L176" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="M176" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="177" spans="2:13" x14ac:dyDescent="0.3">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="177" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D177" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -7571,28 +7542,28 @@
       </c>
       <c r="G177" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1LR_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1XC_Top15.pdf</v>
       </c>
       <c r="H177" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1LR_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1XC_Top15.xlsx</v>
       </c>
       <c r="K177" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L177" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="M177" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="178" spans="2:13" x14ac:dyDescent="0.3">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="178" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D178" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -7602,28 +7573,28 @@
       </c>
       <c r="G178" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1UV_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1YN_Top15.pdf</v>
       </c>
       <c r="H178" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1UV_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1YN_Top15.xlsx</v>
       </c>
       <c r="K178" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L178" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="M178" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="179" spans="2:13" x14ac:dyDescent="0.3">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="179" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D179" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -7633,28 +7604,28 @@
       </c>
       <c r="G179" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1WV_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1UI_Top15.pdf</v>
       </c>
       <c r="H179" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1WV_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1UI_Top15.xlsx</v>
       </c>
       <c r="K179" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L179" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="M179" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="180" spans="2:13" x14ac:dyDescent="0.3">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="180" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D180" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E180">
         <v>1</v>
@@ -7664,28 +7635,28 @@
       </c>
       <c r="G180" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1UO_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1UU_Top15.pdf</v>
       </c>
       <c r="H180" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1UO_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1UU_Top15.xlsx</v>
       </c>
       <c r="K180" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L180" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="M180" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="181" spans="2:13" x14ac:dyDescent="0.3">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="181" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D181" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -7695,28 +7666,28 @@
       </c>
       <c r="G181" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1XC_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1UW_Top15.pdf</v>
       </c>
       <c r="H181" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1XC_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1UW_Top15.xlsx</v>
       </c>
       <c r="K181" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L181" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="M181" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="182" spans="2:13" x14ac:dyDescent="0.3">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="182" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D182" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -7726,28 +7697,28 @@
       </c>
       <c r="G182" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1YN_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1VC_Top15.pdf</v>
       </c>
       <c r="H182" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1YN_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1VC_Top15.xlsx</v>
       </c>
       <c r="K182" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L182" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M182" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="183" spans="2:13" x14ac:dyDescent="0.3">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="183" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D183" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -7757,28 +7728,28 @@
       </c>
       <c r="G183" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1UI_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1UX_Top15.pdf</v>
       </c>
       <c r="H183" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1UI_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1UX_Top15.xlsx</v>
       </c>
       <c r="K183" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L183" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="M183" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="184" spans="2:13" x14ac:dyDescent="0.3">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="184" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D184" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E184">
         <v>1</v>
@@ -7788,28 +7759,28 @@
       </c>
       <c r="G184" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1UU_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1UZ_Top15.pdf</v>
       </c>
       <c r="H184" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1UU_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1UZ_Top15.xlsx</v>
       </c>
       <c r="K184" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L184" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="M184" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="185" spans="2:13" x14ac:dyDescent="0.3">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="185" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="D185" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E185">
         <v>1</v>
@@ -7819,28 +7790,28 @@
       </c>
       <c r="G185" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1UW_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ8JP_Top15.pdf</v>
       </c>
       <c r="H185" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1UW_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_WZ8JP_Top15.xlsx</v>
       </c>
       <c r="K185" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L185" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="M185" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="186" spans="2:13" x14ac:dyDescent="0.3">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="186" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D186" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -7850,113 +7821,20 @@
       </c>
       <c r="G186" t="str">
         <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1VC_Top15.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1DG_Top15.pdf</v>
       </c>
       <c r="H186" t="str">
         <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1VC_Top15.xlsx</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201801_CZ1DG_Top15.xlsx</v>
       </c>
       <c r="K186" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L186" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="M186" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="187" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B187" t="s">
-        <v>174</v>
-      </c>
-      <c r="D187" t="s">
-        <v>189</v>
-      </c>
-      <c r="E187">
-        <v>1</v>
-      </c>
-      <c r="F187">
-        <v>2</v>
-      </c>
-      <c r="G187" t="str">
-        <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1UX_Top15.pdf</v>
-      </c>
-      <c r="H187" t="str">
-        <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1UX_Top15.xlsx</v>
-      </c>
-      <c r="K187" t="s">
-        <v>187</v>
-      </c>
-      <c r="L187" t="s">
-        <v>554</v>
-      </c>
-      <c r="M187" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="188" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B188" t="s">
-        <v>175</v>
-      </c>
-      <c r="D188" t="s">
-        <v>189</v>
-      </c>
-      <c r="E188">
-        <v>1</v>
-      </c>
-      <c r="F188">
-        <v>2</v>
-      </c>
-      <c r="G188" t="str">
-        <f t="shared" si="6"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1UZ_Top15.pdf</v>
-      </c>
-      <c r="H188" t="str">
-        <f t="shared" si="7"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_CZ1UZ_Top15.xlsx</v>
-      </c>
-      <c r="K188" t="s">
-        <v>187</v>
-      </c>
-      <c r="L188" t="s">
-        <v>556</v>
-      </c>
-      <c r="M188" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="189" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B189" t="s">
-        <v>188</v>
-      </c>
-      <c r="D189" t="s">
-        <v>189</v>
-      </c>
-      <c r="E189">
-        <v>1</v>
-      </c>
-      <c r="F189">
-        <v>2</v>
-      </c>
-      <c r="G189" t="str">
-        <f t="shared" ref="G189" si="8">$K189&amp;"\"&amp;L189</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ8JP_Top15.pdf</v>
-      </c>
-      <c r="H189" t="str">
-        <f t="shared" ref="H189" si="9">$K189&amp;"\"&amp;M189</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_FSC_Top_15\201711_WZ8JP_Top15.xlsx</v>
-      </c>
-      <c r="K189" t="s">
-        <v>187</v>
-      </c>
-      <c r="L189" t="s">
-        <v>558</v>
-      </c>
-      <c r="M189" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>

--- a/BR_Mailer/J051_TOP15_FSC/J051_Mailing List - excel.xlsx
+++ b/BR_Mailer/J051_TOP15_FSC/J051_Mailing List - excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\BR\zDev\BR_Scripts\BRPoSh\BR_Mailer\J051_TOP15_FSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{DD83E9C6-1E40-47B8-B991-B707C14CEA5A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7A439637-2344-4BFB-8F73-1E563D24FC76}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -596,1105 +596,1105 @@
     <t>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15</t>
   </si>
   <si>
-    <t>FSC Top 15 Summary for August 2018</t>
-  </si>
-  <si>
-    <t>201808_CZ1SD_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1SD_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ125_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ125_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ124_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ124_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_QZ132_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_QZ132_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ128_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ128_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ144_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ144_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ165_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ165_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_QZ178_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_QZ178_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ183_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ183_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ107_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ107_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ109_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ109_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_AZ112_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_AZ112_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ154_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ154_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1KD_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1KD_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_QZ1CF_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_QZ1CF_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1EM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1EM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_QZ1DP_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_QZ1DP_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1DA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1DA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_QZ1LM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_QZ1LM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1EE_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1EE_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1E2_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1E2_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_AZ1EK_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_AZ1EK_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_AZ1FB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_AZ1FB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1FP_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1FP_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_QZ1FT_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_QZ1FT_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_QZ1FR_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_QZ1FR_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_QZ1GO_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_QZ1GO_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_AZ1KL_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_AZ1KL_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_QZ1KK_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_QZ1KK_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1DN_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1DN_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_QZ1EO_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_QZ1EO_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1CB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1CB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ1JV_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ1JV_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1B8_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1B8_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1C4_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1C4_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_QZ1D8_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_QZ1D8_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1SW_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1SW_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_QZ1AP_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_QZ1AP_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ2CB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ2CB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1CG_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1CG_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_AZ1PV_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_AZ1PV_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ3CB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ3CB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ5CS_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ5CS_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ8JA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ8JA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_QZ7JM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_QZ7JM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_QZ7DO_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_QZ7DO_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ5TA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ5TA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ2LB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ2LB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ2GB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ2GB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ2LH_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ2LH_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ2NM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ2NM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_QZ2SB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_QZ2SB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ2BG_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ2BG_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1SA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1SA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ1FA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ1FA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ115_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ115_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ120_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ120_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ118_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ118_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ119_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ119_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ138_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ138_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ142_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ142_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ134_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ134_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ123_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ123_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ136_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ136_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ165_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ165_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ1FF_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ1FF_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ167_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ167_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ175_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ175_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ177_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ177_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ143_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ143_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ159_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ159_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ162_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ162_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ113_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ113_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ133_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ133_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ137_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ137_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ1G4_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ1G4_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZBW1_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZBW1_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ9TS_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ9TS_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ1HM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ1HM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ2HM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ2HM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ2RP_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ2RP_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ1TT_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ1TT_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ1AM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ1AM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ1JW_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ1JW_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ1MH_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ1MH_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ1M2_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ1M2_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ1TM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ1TM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ1T2_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ1T2_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ2CR_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ2CR_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ1SC_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ1SC_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ1PB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ1PB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ1JN_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ1JN_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ1J2_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ1J2_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ1MK_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ1MK_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ1CA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ1CA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ2TM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ2TM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ2T2_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ2T2_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ1BC_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ1BC_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ1JL_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ1JL_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ1AL_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ1AL_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ1MW_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ1MW_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ1MS_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ1MS_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ1DF_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ1DF_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ1AJ_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ1AJ_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ1JI_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ1JI_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZJI2_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZJI2_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ1CM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ1CM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ2MS_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ2MS_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ2JN_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ2JN_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1RD_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1RD_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1GF_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1GF_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1G2_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1G2_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_QZ1BP_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_QZ1BP_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1JF_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1JF_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_AZ1CI_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_AZ1CI_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1KM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1KM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1OV_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1OV_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_QZ1JB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_QZ1JB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_QZ1BG_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_QZ1BG_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1TM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1TM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_QZ177_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_QZ177_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1JS_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1JS_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_QZ1BM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_QZ1BM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_QZ1MD_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_QZ1MD_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_AZ1JB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_AZ1JB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1AD_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1AD_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_QZ1ML_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_QZ1ML_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1FA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1FA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ2SA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ2SA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_QZ1SL_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_QZ1SL_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_AZ1CM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_AZ1CM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_QZ3JB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_QZ3JB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_AZ1WH_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_AZ1WH_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_AZ1YU_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_AZ1YU_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_AZ1WX_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_AZ1WX_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_AZ1XF_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_AZ1XF_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_AZ1XT_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_AZ1XT_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_AZ1YP_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_AZ1YP_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_QZ1XH_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_QZ1XH_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_QZ1X2_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_QZ1X2_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_QZ1TB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_QZ1TB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_QZ1TK_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_QZ1TK_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_QZ1YE_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_QZ1YE_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_QZ1TE_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_QZ1TE_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_QZ1TI_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_QZ1TI_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1YI_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1YI_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1YW_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1YW_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1UE_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1UE_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1MJ_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1MJ_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1VG_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1VG_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1VJ_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1VJ_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1MI_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1MI_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1XD_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1XD_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1XB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1XB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1WT_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1WT_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1XA_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1XA_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ1RB_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ1RB_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ2KF_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ2KF_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ148_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ148_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ8GM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ8GM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ1BH_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ1BH_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ114_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ114_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ1A6_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ1A6_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ139_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ139_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1VL_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1VL_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1VK_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1VK_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1LR_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1LR_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1UV_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1UV_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1WV_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1WV_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1UO_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1UO_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1XC_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1XC_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1YN_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1YN_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1UI_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1UI_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1UU_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1UU_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1UW_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1UW_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1VC_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1VC_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1UX_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1UX_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1UZ_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1UZ_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_WZ9JP_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_WZ9JP_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1DG_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1DG_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ1LE_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ1LE_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_QZ1OM_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_QZ1OM_Top15.xlsx</t>
-  </si>
-  <si>
-    <t>201808_CZ2JS_Top15.pdf</t>
-  </si>
-  <si>
-    <t>201808_CZ2JS_Top15.xlsx</t>
+    <t>FSC Top 15 Summary for September 2018</t>
+  </si>
+  <si>
+    <t>201809_CZ1SD_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1SD_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ125_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ125_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ124_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ124_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_QZ132_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_QZ132_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ128_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ128_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ144_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ144_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ165_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ165_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_QZ178_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_QZ178_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ183_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ183_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ107_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ107_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ109_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ109_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_AZ112_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_AZ112_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ154_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ154_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1KD_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1KD_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_QZ1CF_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_QZ1CF_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1EM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1EM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_QZ1DP_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_QZ1DP_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1DA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1DA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_QZ1LM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_QZ1LM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1EE_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1EE_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1E2_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1E2_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_AZ1EK_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_AZ1EK_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_AZ1FB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_AZ1FB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1FP_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1FP_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_QZ1FT_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_QZ1FT_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_QZ1FR_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_QZ1FR_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_QZ1GO_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_QZ1GO_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_AZ1KL_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_AZ1KL_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_QZ1KK_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_QZ1KK_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1DN_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1DN_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_QZ1EO_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_QZ1EO_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1CB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1CB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ1JV_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ1JV_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1B8_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1B8_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1C4_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1C4_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_QZ1D8_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_QZ1D8_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1SW_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1SW_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_QZ1AP_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_QZ1AP_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ2CB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ2CB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1CG_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1CG_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_AZ1PV_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_AZ1PV_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ3CB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ3CB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ5CS_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ5CS_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ8JA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ8JA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_QZ7JM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_QZ7JM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_QZ7DO_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_QZ7DO_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ5TA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ5TA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ2LB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ2LB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ2GB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ2GB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ2LH_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ2LH_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ2NM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ2NM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_QZ2SB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_QZ2SB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ2BG_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ2BG_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1SA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1SA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ1FA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ1FA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ115_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ115_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ120_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ120_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ118_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ118_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ119_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ119_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ138_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ138_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ142_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ142_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ134_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ134_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ123_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ123_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ136_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ136_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ165_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ165_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ1FF_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ1FF_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ167_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ167_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ175_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ175_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ177_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ177_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ143_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ143_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ159_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ159_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ162_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ162_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ113_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ113_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ133_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ133_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ137_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ137_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ1G4_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ1G4_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZBW1_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZBW1_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ9TS_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ9TS_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ1HM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ1HM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ2HM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ2HM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ2RP_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ2RP_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ1TT_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ1TT_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ1AM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ1AM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ1JW_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ1JW_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ1MH_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ1MH_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ1M2_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ1M2_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ1TM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ1TM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ1T2_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ1T2_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ2CR_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ2CR_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ1SC_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ1SC_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ1PB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ1PB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ1JN_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ1JN_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ1J2_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ1J2_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ1MK_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ1MK_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ1CA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ1CA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ2TM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ2TM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ2T2_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ2T2_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ1BC_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ1BC_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ1JL_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ1JL_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ1AL_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ1AL_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ1MW_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ1MW_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ1MS_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ1MS_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ1DF_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ1DF_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ1AJ_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ1AJ_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ1JI_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ1JI_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZJI2_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZJI2_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ1CM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ1CM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ2MS_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ2MS_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ2JN_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ2JN_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1RD_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1RD_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1GF_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1GF_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1G2_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1G2_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_QZ1BP_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_QZ1BP_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1JF_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1JF_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_AZ1CI_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_AZ1CI_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1KM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1KM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1OV_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1OV_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_QZ1JB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_QZ1JB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_QZ1BG_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_QZ1BG_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1TM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1TM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_QZ177_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_QZ177_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1JS_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1JS_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_QZ1BM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_QZ1BM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_QZ1MD_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_QZ1MD_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_AZ1JB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_AZ1JB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1AD_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1AD_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_QZ1ML_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_QZ1ML_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1FA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1FA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ2SA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ2SA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_QZ1SL_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_QZ1SL_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_AZ1CM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_AZ1CM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_QZ3JB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_QZ3JB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_AZ1WH_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_AZ1WH_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_AZ1YU_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_AZ1YU_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_AZ1WX_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_AZ1WX_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_AZ1XF_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_AZ1XF_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_AZ1XT_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_AZ1XT_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_AZ1YP_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_AZ1YP_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_QZ1XH_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_QZ1XH_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_QZ1X2_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_QZ1X2_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_QZ1TB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_QZ1TB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_QZ1TK_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_QZ1TK_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_QZ1YE_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_QZ1YE_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_QZ1TE_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_QZ1TE_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_QZ1TI_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_QZ1TI_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1YI_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1YI_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1YW_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1YW_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1UE_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1UE_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1MJ_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1MJ_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1VG_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1VG_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1VJ_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1VJ_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1MI_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1MI_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1XD_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1XD_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1XB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1XB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1WT_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1WT_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1XA_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1XA_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ1RB_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ1RB_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ2KF_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ2KF_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ148_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ148_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ8GM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ8GM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ1BH_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ1BH_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ114_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ114_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ1A6_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ1A6_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ139_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ139_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1VL_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1VL_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1VK_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1VK_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1LR_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1LR_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1UV_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1UV_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1WV_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1WV_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1UO_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1UO_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1XC_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1XC_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1YN_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1YN_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1UI_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1UI_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1UU_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1UU_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1UW_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1UW_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1VC_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1VC_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1UX_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1UX_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1UZ_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1UZ_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_WZ9JP_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_WZ9JP_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1DG_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1DG_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ1LE_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ1LE_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_QZ1OM_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_QZ1OM_Top15.xlsx</t>
+  </si>
+  <si>
+    <t>201809_CZ2JS_Top15.pdf</t>
+  </si>
+  <si>
+    <t>201809_CZ2JS_Top15.xlsx</t>
   </si>
 </sst>
 </file>
@@ -2046,9 +2046,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:N187"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2114,7 +2112,7 @@
       </c>
       <c r="D2" t="str">
         <f>Sheet1!C2</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -2124,22 +2122,22 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1SD_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1SD_Top15.pdf</v>
       </c>
       <c r="H2" t="str">
         <f>$K2&amp;"\"&amp;M2</f>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1SD_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1SD_Top15.xlsx</v>
       </c>
       <c r="K2" t="s">
         <v>190</v>
       </c>
       <c r="L2" t="str">
         <f>Sheet1!E2</f>
-        <v>201808_CZ1SD_Top15.pdf</v>
+        <v>201809_CZ1SD_Top15.pdf</v>
       </c>
       <c r="M2" t="str">
         <f>Sheet1!F2</f>
-        <v>201808_CZ1SD_Top15.xlsx</v>
+        <v>201809_CZ1SD_Top15.xlsx</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -2150,7 +2148,7 @@
       </c>
       <c r="D3" t="str">
         <f>Sheet1!C3</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -2160,22 +2158,22 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:H18" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1SD_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1SD_Top15.pdf</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1SD_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1SD_Top15.xlsx</v>
       </c>
       <c r="K3" t="s">
         <v>190</v>
       </c>
       <c r="L3" t="str">
         <f>Sheet1!E3</f>
-        <v>201808_CZ1SD_Top15.pdf</v>
+        <v>201809_CZ1SD_Top15.pdf</v>
       </c>
       <c r="M3" t="str">
         <f>Sheet1!F3</f>
-        <v>201808_CZ1SD_Top15.xlsx</v>
+        <v>201809_CZ1SD_Top15.xlsx</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -2186,7 +2184,7 @@
       </c>
       <c r="D4" t="str">
         <f>Sheet1!C4</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -2196,22 +2194,22 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" ref="G4:G17" si="1">$K4&amp;"\"&amp;L4</f>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ125_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ125_Top15.pdf</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ125_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ125_Top15.xlsx</v>
       </c>
       <c r="K4" t="s">
         <v>190</v>
       </c>
       <c r="L4" t="str">
         <f>Sheet1!E4</f>
-        <v>201808_CZ125_Top15.pdf</v>
+        <v>201809_CZ125_Top15.pdf</v>
       </c>
       <c r="M4" t="str">
         <f>Sheet1!F4</f>
-        <v>201808_CZ125_Top15.xlsx</v>
+        <v>201809_CZ125_Top15.xlsx</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -2222,7 +2220,7 @@
       </c>
       <c r="D5" t="str">
         <f>Sheet1!C5</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -2232,22 +2230,22 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ124_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ124_Top15.pdf</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ124_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ124_Top15.xlsx</v>
       </c>
       <c r="K5" t="s">
         <v>190</v>
       </c>
       <c r="L5" t="str">
         <f>Sheet1!E5</f>
-        <v>201808_CZ124_Top15.pdf</v>
+        <v>201809_CZ124_Top15.pdf</v>
       </c>
       <c r="M5" t="str">
         <f>Sheet1!F5</f>
-        <v>201808_CZ124_Top15.xlsx</v>
+        <v>201809_CZ124_Top15.xlsx</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -2258,7 +2256,7 @@
       </c>
       <c r="D6" t="str">
         <f>Sheet1!C6</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -2268,22 +2266,22 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ132_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ132_Top15.pdf</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ132_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ132_Top15.xlsx</v>
       </c>
       <c r="K6" t="s">
         <v>190</v>
       </c>
       <c r="L6" t="str">
         <f>Sheet1!E6</f>
-        <v>201808_QZ132_Top15.pdf</v>
+        <v>201809_QZ132_Top15.pdf</v>
       </c>
       <c r="M6" t="str">
         <f>Sheet1!F6</f>
-        <v>201808_QZ132_Top15.xlsx</v>
+        <v>201809_QZ132_Top15.xlsx</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -2294,7 +2292,7 @@
       </c>
       <c r="D7" t="str">
         <f>Sheet1!C7</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -2304,22 +2302,22 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ128_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ128_Top15.pdf</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ128_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ128_Top15.xlsx</v>
       </c>
       <c r="K7" t="s">
         <v>190</v>
       </c>
       <c r="L7" t="str">
         <f>Sheet1!E7</f>
-        <v>201808_CZ128_Top15.pdf</v>
+        <v>201809_CZ128_Top15.pdf</v>
       </c>
       <c r="M7" t="str">
         <f>Sheet1!F7</f>
-        <v>201808_CZ128_Top15.xlsx</v>
+        <v>201809_CZ128_Top15.xlsx</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -2330,7 +2328,7 @@
       </c>
       <c r="D8" t="str">
         <f>Sheet1!C8</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -2340,22 +2338,22 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ144_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ144_Top15.pdf</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ144_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ144_Top15.xlsx</v>
       </c>
       <c r="K8" t="s">
         <v>190</v>
       </c>
       <c r="L8" t="str">
         <f>Sheet1!E8</f>
-        <v>201808_CZ144_Top15.pdf</v>
+        <v>201809_CZ144_Top15.pdf</v>
       </c>
       <c r="M8" t="str">
         <f>Sheet1!F8</f>
-        <v>201808_CZ144_Top15.xlsx</v>
+        <v>201809_CZ144_Top15.xlsx</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -2366,7 +2364,7 @@
       </c>
       <c r="D9" t="str">
         <f>Sheet1!C9</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2376,22 +2374,22 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ165_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ165_Top15.pdf</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ165_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ165_Top15.xlsx</v>
       </c>
       <c r="K9" t="s">
         <v>190</v>
       </c>
       <c r="L9" t="str">
         <f>Sheet1!E9</f>
-        <v>201808_CZ165_Top15.pdf</v>
+        <v>201809_CZ165_Top15.pdf</v>
       </c>
       <c r="M9" t="str">
         <f>Sheet1!F9</f>
-        <v>201808_CZ165_Top15.xlsx</v>
+        <v>201809_CZ165_Top15.xlsx</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -2402,7 +2400,7 @@
       </c>
       <c r="D10" t="str">
         <f>Sheet1!C10</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2412,22 +2410,22 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ178_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ178_Top15.pdf</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ178_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ178_Top15.xlsx</v>
       </c>
       <c r="K10" t="s">
         <v>190</v>
       </c>
       <c r="L10" t="str">
         <f>Sheet1!E10</f>
-        <v>201808_QZ178_Top15.pdf</v>
+        <v>201809_QZ178_Top15.pdf</v>
       </c>
       <c r="M10" t="str">
         <f>Sheet1!F10</f>
-        <v>201808_QZ178_Top15.xlsx</v>
+        <v>201809_QZ178_Top15.xlsx</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -2438,7 +2436,7 @@
       </c>
       <c r="D11" t="str">
         <f>Sheet1!C11</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2448,22 +2446,22 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ183_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ183_Top15.pdf</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ183_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ183_Top15.xlsx</v>
       </c>
       <c r="K11" t="s">
         <v>190</v>
       </c>
       <c r="L11" t="str">
         <f>Sheet1!E11</f>
-        <v>201808_CZ183_Top15.pdf</v>
+        <v>201809_CZ183_Top15.pdf</v>
       </c>
       <c r="M11" t="str">
         <f>Sheet1!F11</f>
-        <v>201808_CZ183_Top15.xlsx</v>
+        <v>201809_CZ183_Top15.xlsx</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -2474,7 +2472,7 @@
       </c>
       <c r="D12" t="str">
         <f>Sheet1!C12</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -2484,22 +2482,22 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ107_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ107_Top15.pdf</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ107_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ107_Top15.xlsx</v>
       </c>
       <c r="K12" t="s">
         <v>190</v>
       </c>
       <c r="L12" t="str">
         <f>Sheet1!E12</f>
-        <v>201808_CZ107_Top15.pdf</v>
+        <v>201809_CZ107_Top15.pdf</v>
       </c>
       <c r="M12" t="str">
         <f>Sheet1!F12</f>
-        <v>201808_CZ107_Top15.xlsx</v>
+        <v>201809_CZ107_Top15.xlsx</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -2510,7 +2508,7 @@
       </c>
       <c r="D13" t="str">
         <f>Sheet1!C13</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -2520,22 +2518,22 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ109_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ109_Top15.pdf</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ109_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ109_Top15.xlsx</v>
       </c>
       <c r="K13" t="s">
         <v>190</v>
       </c>
       <c r="L13" t="str">
         <f>Sheet1!E13</f>
-        <v>201808_CZ109_Top15.pdf</v>
+        <v>201809_CZ109_Top15.pdf</v>
       </c>
       <c r="M13" t="str">
         <f>Sheet1!F13</f>
-        <v>201808_CZ109_Top15.xlsx</v>
+        <v>201809_CZ109_Top15.xlsx</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -2546,7 +2544,7 @@
       </c>
       <c r="D14" t="str">
         <f>Sheet1!C14</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -2556,22 +2554,22 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_AZ112_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_AZ112_Top15.pdf</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_AZ112_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_AZ112_Top15.xlsx</v>
       </c>
       <c r="K14" t="s">
         <v>190</v>
       </c>
       <c r="L14" t="str">
         <f>Sheet1!E14</f>
-        <v>201808_AZ112_Top15.pdf</v>
+        <v>201809_AZ112_Top15.pdf</v>
       </c>
       <c r="M14" t="str">
         <f>Sheet1!F14</f>
-        <v>201808_AZ112_Top15.xlsx</v>
+        <v>201809_AZ112_Top15.xlsx</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -2582,7 +2580,7 @@
       </c>
       <c r="D15" t="str">
         <f>Sheet1!C15</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -2592,22 +2590,22 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ154_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ154_Top15.pdf</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ154_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ154_Top15.xlsx</v>
       </c>
       <c r="K15" t="s">
         <v>190</v>
       </c>
       <c r="L15" t="str">
         <f>Sheet1!E15</f>
-        <v>201808_CZ154_Top15.pdf</v>
+        <v>201809_CZ154_Top15.pdf</v>
       </c>
       <c r="M15" t="str">
         <f>Sheet1!F15</f>
-        <v>201808_CZ154_Top15.xlsx</v>
+        <v>201809_CZ154_Top15.xlsx</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -2618,7 +2616,7 @@
       </c>
       <c r="D16" t="str">
         <f>Sheet1!C16</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -2628,22 +2626,22 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1KD_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1KD_Top15.pdf</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1KD_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1KD_Top15.xlsx</v>
       </c>
       <c r="K16" t="s">
         <v>190</v>
       </c>
       <c r="L16" t="str">
         <f>Sheet1!E16</f>
-        <v>201808_CZ1KD_Top15.pdf</v>
+        <v>201809_CZ1KD_Top15.pdf</v>
       </c>
       <c r="M16" t="str">
         <f>Sheet1!F16</f>
-        <v>201808_CZ1KD_Top15.xlsx</v>
+        <v>201809_CZ1KD_Top15.xlsx</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -2654,7 +2652,7 @@
       </c>
       <c r="D17" t="str">
         <f>Sheet1!C17</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2664,22 +2662,22 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1CF_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1CF_Top15.pdf</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1CF_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1CF_Top15.xlsx</v>
       </c>
       <c r="K17" t="s">
         <v>190</v>
       </c>
       <c r="L17" t="str">
         <f>Sheet1!E17</f>
-        <v>201808_QZ1CF_Top15.pdf</v>
+        <v>201809_QZ1CF_Top15.pdf</v>
       </c>
       <c r="M17" t="str">
         <f>Sheet1!F17</f>
-        <v>201808_QZ1CF_Top15.xlsx</v>
+        <v>201809_QZ1CF_Top15.xlsx</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -2690,7 +2688,7 @@
       </c>
       <c r="D18" t="str">
         <f>Sheet1!C18</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2700,22 +2698,22 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" ref="G18:G81" si="2">$K18&amp;"\"&amp;L18</f>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1EM_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1EM_Top15.pdf</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1EM_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1EM_Top15.xlsx</v>
       </c>
       <c r="K18" t="s">
         <v>190</v>
       </c>
       <c r="L18" t="str">
         <f>Sheet1!E18</f>
-        <v>201808_CZ1EM_Top15.pdf</v>
+        <v>201809_CZ1EM_Top15.pdf</v>
       </c>
       <c r="M18" t="str">
         <f>Sheet1!F18</f>
-        <v>201808_CZ1EM_Top15.xlsx</v>
+        <v>201809_CZ1EM_Top15.xlsx</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
@@ -2726,7 +2724,7 @@
       </c>
       <c r="D19" t="str">
         <f>Sheet1!C19</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -2736,22 +2734,22 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1DP_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1DP_Top15.pdf</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" ref="H19:H82" si="3">$K19&amp;"\"&amp;M19</f>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1DP_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1DP_Top15.xlsx</v>
       </c>
       <c r="K19" t="s">
         <v>190</v>
       </c>
       <c r="L19" t="str">
         <f>Sheet1!E19</f>
-        <v>201808_QZ1DP_Top15.pdf</v>
+        <v>201809_QZ1DP_Top15.pdf</v>
       </c>
       <c r="M19" t="str">
         <f>Sheet1!F19</f>
-        <v>201808_QZ1DP_Top15.xlsx</v>
+        <v>201809_QZ1DP_Top15.xlsx</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -2761,7 +2759,7 @@
       </c>
       <c r="D20" t="str">
         <f>Sheet1!C20</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -2771,22 +2769,22 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1DA_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1DA_Top15.pdf</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1DA_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1DA_Top15.xlsx</v>
       </c>
       <c r="K20" t="s">
         <v>190</v>
       </c>
       <c r="L20" t="str">
         <f>Sheet1!E20</f>
-        <v>201808_CZ1DA_Top15.pdf</v>
+        <v>201809_CZ1DA_Top15.pdf</v>
       </c>
       <c r="M20" t="str">
         <f>Sheet1!F20</f>
-        <v>201808_CZ1DA_Top15.xlsx</v>
+        <v>201809_CZ1DA_Top15.xlsx</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2796,7 +2794,7 @@
       </c>
       <c r="D21" t="str">
         <f>Sheet1!C21</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -2806,22 +2804,22 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1LM_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1LM_Top15.pdf</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1LM_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1LM_Top15.xlsx</v>
       </c>
       <c r="K21" t="s">
         <v>190</v>
       </c>
       <c r="L21" t="str">
         <f>Sheet1!E21</f>
-        <v>201808_QZ1LM_Top15.pdf</v>
+        <v>201809_QZ1LM_Top15.pdf</v>
       </c>
       <c r="M21" t="str">
         <f>Sheet1!F21</f>
-        <v>201808_QZ1LM_Top15.xlsx</v>
+        <v>201809_QZ1LM_Top15.xlsx</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -2831,7 +2829,7 @@
       </c>
       <c r="D22" t="str">
         <f>Sheet1!C22</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -2841,22 +2839,22 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1EE_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1EE_Top15.pdf</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1EE_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1EE_Top15.xlsx</v>
       </c>
       <c r="K22" t="s">
         <v>190</v>
       </c>
       <c r="L22" t="str">
         <f>Sheet1!E22</f>
-        <v>201808_CZ1EE_Top15.pdf</v>
+        <v>201809_CZ1EE_Top15.pdf</v>
       </c>
       <c r="M22" t="str">
         <f>Sheet1!F22</f>
-        <v>201808_CZ1EE_Top15.xlsx</v>
+        <v>201809_CZ1EE_Top15.xlsx</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
@@ -2866,7 +2864,7 @@
       </c>
       <c r="D23" t="str">
         <f>Sheet1!C23</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -2876,22 +2874,22 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1E2_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1E2_Top15.pdf</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1E2_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1E2_Top15.xlsx</v>
       </c>
       <c r="K23" t="s">
         <v>190</v>
       </c>
       <c r="L23" t="str">
         <f>Sheet1!E23</f>
-        <v>201808_CZ1E2_Top15.pdf</v>
+        <v>201809_CZ1E2_Top15.pdf</v>
       </c>
       <c r="M23" t="str">
         <f>Sheet1!F23</f>
-        <v>201808_CZ1E2_Top15.xlsx</v>
+        <v>201809_CZ1E2_Top15.xlsx</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -2901,7 +2899,7 @@
       </c>
       <c r="D24" t="str">
         <f>Sheet1!C24</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -2911,22 +2909,22 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_AZ1EK_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_AZ1EK_Top15.pdf</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_AZ1EK_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_AZ1EK_Top15.xlsx</v>
       </c>
       <c r="K24" t="s">
         <v>190</v>
       </c>
       <c r="L24" t="str">
         <f>Sheet1!E24</f>
-        <v>201808_AZ1EK_Top15.pdf</v>
+        <v>201809_AZ1EK_Top15.pdf</v>
       </c>
       <c r="M24" t="str">
         <f>Sheet1!F24</f>
-        <v>201808_AZ1EK_Top15.xlsx</v>
+        <v>201809_AZ1EK_Top15.xlsx</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
@@ -2936,7 +2934,7 @@
       </c>
       <c r="D25" t="str">
         <f>Sheet1!C25</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -2946,22 +2944,22 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_AZ1FB_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_AZ1FB_Top15.pdf</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_AZ1FB_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_AZ1FB_Top15.xlsx</v>
       </c>
       <c r="K25" t="s">
         <v>190</v>
       </c>
       <c r="L25" t="str">
         <f>Sheet1!E25</f>
-        <v>201808_AZ1FB_Top15.pdf</v>
+        <v>201809_AZ1FB_Top15.pdf</v>
       </c>
       <c r="M25" t="str">
         <f>Sheet1!F25</f>
-        <v>201808_AZ1FB_Top15.xlsx</v>
+        <v>201809_AZ1FB_Top15.xlsx</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2971,7 +2969,7 @@
       </c>
       <c r="D26" t="str">
         <f>Sheet1!C26</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -2981,22 +2979,22 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1FP_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1FP_Top15.pdf</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1FP_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1FP_Top15.xlsx</v>
       </c>
       <c r="K26" t="s">
         <v>190</v>
       </c>
       <c r="L26" t="str">
         <f>Sheet1!E26</f>
-        <v>201808_CZ1FP_Top15.pdf</v>
+        <v>201809_CZ1FP_Top15.pdf</v>
       </c>
       <c r="M26" t="str">
         <f>Sheet1!F26</f>
-        <v>201808_CZ1FP_Top15.xlsx</v>
+        <v>201809_CZ1FP_Top15.xlsx</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
@@ -3006,7 +3004,7 @@
       </c>
       <c r="D27" t="str">
         <f>Sheet1!C27</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -3016,22 +3014,22 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1FT_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1FT_Top15.pdf</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1FT_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1FT_Top15.xlsx</v>
       </c>
       <c r="K27" t="s">
         <v>190</v>
       </c>
       <c r="L27" t="str">
         <f>Sheet1!E27</f>
-        <v>201808_QZ1FT_Top15.pdf</v>
+        <v>201809_QZ1FT_Top15.pdf</v>
       </c>
       <c r="M27" t="str">
         <f>Sheet1!F27</f>
-        <v>201808_QZ1FT_Top15.xlsx</v>
+        <v>201809_QZ1FT_Top15.xlsx</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -3041,7 +3039,7 @@
       </c>
       <c r="D28" t="str">
         <f>Sheet1!C28</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -3051,22 +3049,22 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1FR_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1FR_Top15.pdf</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1FR_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1FR_Top15.xlsx</v>
       </c>
       <c r="K28" t="s">
         <v>190</v>
       </c>
       <c r="L28" t="str">
         <f>Sheet1!E28</f>
-        <v>201808_QZ1FR_Top15.pdf</v>
+        <v>201809_QZ1FR_Top15.pdf</v>
       </c>
       <c r="M28" t="str">
         <f>Sheet1!F28</f>
-        <v>201808_QZ1FR_Top15.xlsx</v>
+        <v>201809_QZ1FR_Top15.xlsx</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -3076,7 +3074,7 @@
       </c>
       <c r="D29" t="str">
         <f>Sheet1!C29</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -3086,22 +3084,22 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1GO_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1GO_Top15.pdf</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1GO_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1GO_Top15.xlsx</v>
       </c>
       <c r="K29" t="s">
         <v>190</v>
       </c>
       <c r="L29" t="str">
         <f>Sheet1!E29</f>
-        <v>201808_QZ1GO_Top15.pdf</v>
+        <v>201809_QZ1GO_Top15.pdf</v>
       </c>
       <c r="M29" t="str">
         <f>Sheet1!F29</f>
-        <v>201808_QZ1GO_Top15.xlsx</v>
+        <v>201809_QZ1GO_Top15.xlsx</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
@@ -3111,7 +3109,7 @@
       </c>
       <c r="D30" t="str">
         <f>Sheet1!C30</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -3121,22 +3119,22 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_AZ1KL_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_AZ1KL_Top15.pdf</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_AZ1KL_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_AZ1KL_Top15.xlsx</v>
       </c>
       <c r="K30" t="s">
         <v>190</v>
       </c>
       <c r="L30" t="str">
         <f>Sheet1!E30</f>
-        <v>201808_AZ1KL_Top15.pdf</v>
+        <v>201809_AZ1KL_Top15.pdf</v>
       </c>
       <c r="M30" t="str">
         <f>Sheet1!F30</f>
-        <v>201808_AZ1KL_Top15.xlsx</v>
+        <v>201809_AZ1KL_Top15.xlsx</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -3146,7 +3144,7 @@
       </c>
       <c r="D31" t="str">
         <f>Sheet1!C31</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -3156,22 +3154,22 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1KK_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1KK_Top15.pdf</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1KK_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1KK_Top15.xlsx</v>
       </c>
       <c r="K31" t="s">
         <v>190</v>
       </c>
       <c r="L31" t="str">
         <f>Sheet1!E31</f>
-        <v>201808_QZ1KK_Top15.pdf</v>
+        <v>201809_QZ1KK_Top15.pdf</v>
       </c>
       <c r="M31" t="str">
         <f>Sheet1!F31</f>
-        <v>201808_QZ1KK_Top15.xlsx</v>
+        <v>201809_QZ1KK_Top15.xlsx</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -3181,7 +3179,7 @@
       </c>
       <c r="D32" t="str">
         <f>Sheet1!C32</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -3191,22 +3189,22 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1DN_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1DN_Top15.pdf</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1DN_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1DN_Top15.xlsx</v>
       </c>
       <c r="K32" t="s">
         <v>190</v>
       </c>
       <c r="L32" t="str">
         <f>Sheet1!E32</f>
-        <v>201808_CZ1DN_Top15.pdf</v>
+        <v>201809_CZ1DN_Top15.pdf</v>
       </c>
       <c r="M32" t="str">
         <f>Sheet1!F32</f>
-        <v>201808_CZ1DN_Top15.xlsx</v>
+        <v>201809_CZ1DN_Top15.xlsx</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
@@ -3216,7 +3214,7 @@
       </c>
       <c r="D33" t="str">
         <f>Sheet1!C33</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -3226,22 +3224,22 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1EO_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1EO_Top15.pdf</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1EO_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1EO_Top15.xlsx</v>
       </c>
       <c r="K33" t="s">
         <v>190</v>
       </c>
       <c r="L33" t="str">
         <f>Sheet1!E33</f>
-        <v>201808_QZ1EO_Top15.pdf</v>
+        <v>201809_QZ1EO_Top15.pdf</v>
       </c>
       <c r="M33" t="str">
         <f>Sheet1!F33</f>
-        <v>201808_QZ1EO_Top15.xlsx</v>
+        <v>201809_QZ1EO_Top15.xlsx</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
@@ -3251,7 +3249,7 @@
       </c>
       <c r="D34" t="str">
         <f>Sheet1!C34</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -3261,22 +3259,22 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1CB_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1CB_Top15.pdf</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1CB_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1CB_Top15.xlsx</v>
       </c>
       <c r="K34" t="s">
         <v>190</v>
       </c>
       <c r="L34" t="str">
         <f>Sheet1!E34</f>
-        <v>201808_CZ1CB_Top15.pdf</v>
+        <v>201809_CZ1CB_Top15.pdf</v>
       </c>
       <c r="M34" t="str">
         <f>Sheet1!F34</f>
-        <v>201808_CZ1CB_Top15.xlsx</v>
+        <v>201809_CZ1CB_Top15.xlsx</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
@@ -3286,7 +3284,7 @@
       </c>
       <c r="D35" t="str">
         <f>Sheet1!C35</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -3296,22 +3294,22 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1JV_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1JV_Top15.pdf</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1JV_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1JV_Top15.xlsx</v>
       </c>
       <c r="K35" t="s">
         <v>190</v>
       </c>
       <c r="L35" t="str">
         <f>Sheet1!E35</f>
-        <v>201808_WZ1JV_Top15.pdf</v>
+        <v>201809_WZ1JV_Top15.pdf</v>
       </c>
       <c r="M35" t="str">
         <f>Sheet1!F35</f>
-        <v>201808_WZ1JV_Top15.xlsx</v>
+        <v>201809_WZ1JV_Top15.xlsx</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
@@ -3321,7 +3319,7 @@
       </c>
       <c r="D36" t="str">
         <f>Sheet1!C36</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -3331,22 +3329,22 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1B8_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1B8_Top15.pdf</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1B8_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1B8_Top15.xlsx</v>
       </c>
       <c r="K36" t="s">
         <v>190</v>
       </c>
       <c r="L36" t="str">
         <f>Sheet1!E36</f>
-        <v>201808_CZ1B8_Top15.pdf</v>
+        <v>201809_CZ1B8_Top15.pdf</v>
       </c>
       <c r="M36" t="str">
         <f>Sheet1!F36</f>
-        <v>201808_CZ1B8_Top15.xlsx</v>
+        <v>201809_CZ1B8_Top15.xlsx</v>
       </c>
     </row>
     <row r="37" spans="2:13" x14ac:dyDescent="0.25">
@@ -3356,7 +3354,7 @@
       </c>
       <c r="D37" t="str">
         <f>Sheet1!C37</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -3366,22 +3364,22 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1C4_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1C4_Top15.pdf</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1C4_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1C4_Top15.xlsx</v>
       </c>
       <c r="K37" t="s">
         <v>190</v>
       </c>
       <c r="L37" t="str">
         <f>Sheet1!E37</f>
-        <v>201808_CZ1C4_Top15.pdf</v>
+        <v>201809_CZ1C4_Top15.pdf</v>
       </c>
       <c r="M37" t="str">
         <f>Sheet1!F37</f>
-        <v>201808_CZ1C4_Top15.xlsx</v>
+        <v>201809_CZ1C4_Top15.xlsx</v>
       </c>
     </row>
     <row r="38" spans="2:13" x14ac:dyDescent="0.25">
@@ -3391,7 +3389,7 @@
       </c>
       <c r="D38" t="str">
         <f>Sheet1!C38</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -3401,22 +3399,22 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1D8_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1D8_Top15.pdf</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1D8_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1D8_Top15.xlsx</v>
       </c>
       <c r="K38" t="s">
         <v>190</v>
       </c>
       <c r="L38" t="str">
         <f>Sheet1!E38</f>
-        <v>201808_QZ1D8_Top15.pdf</v>
+        <v>201809_QZ1D8_Top15.pdf</v>
       </c>
       <c r="M38" t="str">
         <f>Sheet1!F38</f>
-        <v>201808_QZ1D8_Top15.xlsx</v>
+        <v>201809_QZ1D8_Top15.xlsx</v>
       </c>
     </row>
     <row r="39" spans="2:13" x14ac:dyDescent="0.25">
@@ -3426,7 +3424,7 @@
       </c>
       <c r="D39" t="str">
         <f>Sheet1!C39</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -3436,22 +3434,22 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1SW_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1SW_Top15.pdf</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1SW_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1SW_Top15.xlsx</v>
       </c>
       <c r="K39" t="s">
         <v>190</v>
       </c>
       <c r="L39" t="str">
         <f>Sheet1!E39</f>
-        <v>201808_CZ1SW_Top15.pdf</v>
+        <v>201809_CZ1SW_Top15.pdf</v>
       </c>
       <c r="M39" t="str">
         <f>Sheet1!F39</f>
-        <v>201808_CZ1SW_Top15.xlsx</v>
+        <v>201809_CZ1SW_Top15.xlsx</v>
       </c>
     </row>
     <row r="40" spans="2:13" x14ac:dyDescent="0.25">
@@ -3461,7 +3459,7 @@
       </c>
       <c r="D40" t="str">
         <f>Sheet1!C40</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -3471,22 +3469,22 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1AP_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1AP_Top15.pdf</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1AP_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1AP_Top15.xlsx</v>
       </c>
       <c r="K40" t="s">
         <v>190</v>
       </c>
       <c r="L40" t="str">
         <f>Sheet1!E40</f>
-        <v>201808_QZ1AP_Top15.pdf</v>
+        <v>201809_QZ1AP_Top15.pdf</v>
       </c>
       <c r="M40" t="str">
         <f>Sheet1!F40</f>
-        <v>201808_QZ1AP_Top15.xlsx</v>
+        <v>201809_QZ1AP_Top15.xlsx</v>
       </c>
     </row>
     <row r="41" spans="2:13" x14ac:dyDescent="0.25">
@@ -3496,7 +3494,7 @@
       </c>
       <c r="D41" t="str">
         <f>Sheet1!C41</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -3506,22 +3504,22 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ2CB_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ2CB_Top15.pdf</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ2CB_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ2CB_Top15.xlsx</v>
       </c>
       <c r="K41" t="s">
         <v>190</v>
       </c>
       <c r="L41" t="str">
         <f>Sheet1!E41</f>
-        <v>201808_CZ2CB_Top15.pdf</v>
+        <v>201809_CZ2CB_Top15.pdf</v>
       </c>
       <c r="M41" t="str">
         <f>Sheet1!F41</f>
-        <v>201808_CZ2CB_Top15.xlsx</v>
+        <v>201809_CZ2CB_Top15.xlsx</v>
       </c>
     </row>
     <row r="42" spans="2:13" x14ac:dyDescent="0.25">
@@ -3531,7 +3529,7 @@
       </c>
       <c r="D42" t="str">
         <f>Sheet1!C42</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -3541,22 +3539,22 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1CG_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1CG_Top15.pdf</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1CG_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1CG_Top15.xlsx</v>
       </c>
       <c r="K42" t="s">
         <v>190</v>
       </c>
       <c r="L42" t="str">
         <f>Sheet1!E42</f>
-        <v>201808_CZ1CG_Top15.pdf</v>
+        <v>201809_CZ1CG_Top15.pdf</v>
       </c>
       <c r="M42" t="str">
         <f>Sheet1!F42</f>
-        <v>201808_CZ1CG_Top15.xlsx</v>
+        <v>201809_CZ1CG_Top15.xlsx</v>
       </c>
     </row>
     <row r="43" spans="2:13" x14ac:dyDescent="0.25">
@@ -3566,7 +3564,7 @@
       </c>
       <c r="D43" t="str">
         <f>Sheet1!C43</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -3576,22 +3574,22 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_AZ1PV_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_AZ1PV_Top15.pdf</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_AZ1PV_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_AZ1PV_Top15.xlsx</v>
       </c>
       <c r="K43" t="s">
         <v>190</v>
       </c>
       <c r="L43" t="str">
         <f>Sheet1!E43</f>
-        <v>201808_AZ1PV_Top15.pdf</v>
+        <v>201809_AZ1PV_Top15.pdf</v>
       </c>
       <c r="M43" t="str">
         <f>Sheet1!F43</f>
-        <v>201808_AZ1PV_Top15.xlsx</v>
+        <v>201809_AZ1PV_Top15.xlsx</v>
       </c>
     </row>
     <row r="44" spans="2:13" x14ac:dyDescent="0.25">
@@ -3601,7 +3599,7 @@
       </c>
       <c r="D44" t="str">
         <f>Sheet1!C44</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -3611,22 +3609,22 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ3CB_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ3CB_Top15.pdf</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ3CB_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ3CB_Top15.xlsx</v>
       </c>
       <c r="K44" t="s">
         <v>190</v>
       </c>
       <c r="L44" t="str">
         <f>Sheet1!E44</f>
-        <v>201808_CZ3CB_Top15.pdf</v>
+        <v>201809_CZ3CB_Top15.pdf</v>
       </c>
       <c r="M44" t="str">
         <f>Sheet1!F44</f>
-        <v>201808_CZ3CB_Top15.xlsx</v>
+        <v>201809_CZ3CB_Top15.xlsx</v>
       </c>
     </row>
     <row r="45" spans="2:13" x14ac:dyDescent="0.25">
@@ -3636,7 +3634,7 @@
       </c>
       <c r="D45" t="str">
         <f>Sheet1!C45</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -3646,22 +3644,22 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ5CS_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ5CS_Top15.pdf</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ5CS_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ5CS_Top15.xlsx</v>
       </c>
       <c r="K45" t="s">
         <v>190</v>
       </c>
       <c r="L45" t="str">
         <f>Sheet1!E45</f>
-        <v>201808_CZ5CS_Top15.pdf</v>
+        <v>201809_CZ5CS_Top15.pdf</v>
       </c>
       <c r="M45" t="str">
         <f>Sheet1!F45</f>
-        <v>201808_CZ5CS_Top15.xlsx</v>
+        <v>201809_CZ5CS_Top15.xlsx</v>
       </c>
     </row>
     <row r="46" spans="2:13" x14ac:dyDescent="0.25">
@@ -3671,7 +3669,7 @@
       </c>
       <c r="D46" t="str">
         <f>Sheet1!C46</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -3681,22 +3679,22 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ8JA_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ8JA_Top15.pdf</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ8JA_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ8JA_Top15.xlsx</v>
       </c>
       <c r="K46" t="s">
         <v>190</v>
       </c>
       <c r="L46" t="str">
         <f>Sheet1!E46</f>
-        <v>201808_CZ8JA_Top15.pdf</v>
+        <v>201809_CZ8JA_Top15.pdf</v>
       </c>
       <c r="M46" t="str">
         <f>Sheet1!F46</f>
-        <v>201808_CZ8JA_Top15.xlsx</v>
+        <v>201809_CZ8JA_Top15.xlsx</v>
       </c>
     </row>
     <row r="47" spans="2:13" x14ac:dyDescent="0.25">
@@ -3706,7 +3704,7 @@
       </c>
       <c r="D47" t="str">
         <f>Sheet1!C47</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -3716,22 +3714,22 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ7JM_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ7JM_Top15.pdf</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ7JM_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ7JM_Top15.xlsx</v>
       </c>
       <c r="K47" t="s">
         <v>190</v>
       </c>
       <c r="L47" t="str">
         <f>Sheet1!E47</f>
-        <v>201808_QZ7JM_Top15.pdf</v>
+        <v>201809_QZ7JM_Top15.pdf</v>
       </c>
       <c r="M47" t="str">
         <f>Sheet1!F47</f>
-        <v>201808_QZ7JM_Top15.xlsx</v>
+        <v>201809_QZ7JM_Top15.xlsx</v>
       </c>
     </row>
     <row r="48" spans="2:13" x14ac:dyDescent="0.25">
@@ -3741,7 +3739,7 @@
       </c>
       <c r="D48" t="str">
         <f>Sheet1!C48</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -3751,22 +3749,22 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ7DO_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ7DO_Top15.pdf</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ7DO_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ7DO_Top15.xlsx</v>
       </c>
       <c r="K48" t="s">
         <v>190</v>
       </c>
       <c r="L48" t="str">
         <f>Sheet1!E48</f>
-        <v>201808_QZ7DO_Top15.pdf</v>
+        <v>201809_QZ7DO_Top15.pdf</v>
       </c>
       <c r="M48" t="str">
         <f>Sheet1!F48</f>
-        <v>201808_QZ7DO_Top15.xlsx</v>
+        <v>201809_QZ7DO_Top15.xlsx</v>
       </c>
     </row>
     <row r="49" spans="2:13" x14ac:dyDescent="0.25">
@@ -3776,7 +3774,7 @@
       </c>
       <c r="D49" t="str">
         <f>Sheet1!C49</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -3786,22 +3784,22 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ5TA_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ5TA_Top15.pdf</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ5TA_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ5TA_Top15.xlsx</v>
       </c>
       <c r="K49" t="s">
         <v>190</v>
       </c>
       <c r="L49" t="str">
         <f>Sheet1!E49</f>
-        <v>201808_CZ5TA_Top15.pdf</v>
+        <v>201809_CZ5TA_Top15.pdf</v>
       </c>
       <c r="M49" t="str">
         <f>Sheet1!F49</f>
-        <v>201808_CZ5TA_Top15.xlsx</v>
+        <v>201809_CZ5TA_Top15.xlsx</v>
       </c>
     </row>
     <row r="50" spans="2:13" x14ac:dyDescent="0.25">
@@ -3811,7 +3809,7 @@
       </c>
       <c r="D50" t="str">
         <f>Sheet1!C50</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -3821,22 +3819,22 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ2LB_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ2LB_Top15.pdf</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ2LB_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ2LB_Top15.xlsx</v>
       </c>
       <c r="K50" t="s">
         <v>190</v>
       </c>
       <c r="L50" t="str">
         <f>Sheet1!E50</f>
-        <v>201808_CZ2LB_Top15.pdf</v>
+        <v>201809_CZ2LB_Top15.pdf</v>
       </c>
       <c r="M50" t="str">
         <f>Sheet1!F50</f>
-        <v>201808_CZ2LB_Top15.xlsx</v>
+        <v>201809_CZ2LB_Top15.xlsx</v>
       </c>
     </row>
     <row r="51" spans="2:13" x14ac:dyDescent="0.25">
@@ -3846,7 +3844,7 @@
       </c>
       <c r="D51" t="str">
         <f>Sheet1!C51</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -3856,22 +3854,22 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ2GB_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ2GB_Top15.pdf</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ2GB_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ2GB_Top15.xlsx</v>
       </c>
       <c r="K51" t="s">
         <v>190</v>
       </c>
       <c r="L51" t="str">
         <f>Sheet1!E51</f>
-        <v>201808_CZ2GB_Top15.pdf</v>
+        <v>201809_CZ2GB_Top15.pdf</v>
       </c>
       <c r="M51" t="str">
         <f>Sheet1!F51</f>
-        <v>201808_CZ2GB_Top15.xlsx</v>
+        <v>201809_CZ2GB_Top15.xlsx</v>
       </c>
     </row>
     <row r="52" spans="2:13" x14ac:dyDescent="0.25">
@@ -3881,7 +3879,7 @@
       </c>
       <c r="D52" t="str">
         <f>Sheet1!C52</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -3891,22 +3889,22 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ2LH_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ2LH_Top15.pdf</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ2LH_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ2LH_Top15.xlsx</v>
       </c>
       <c r="K52" t="s">
         <v>190</v>
       </c>
       <c r="L52" t="str">
         <f>Sheet1!E52</f>
-        <v>201808_CZ2LH_Top15.pdf</v>
+        <v>201809_CZ2LH_Top15.pdf</v>
       </c>
       <c r="M52" t="str">
         <f>Sheet1!F52</f>
-        <v>201808_CZ2LH_Top15.xlsx</v>
+        <v>201809_CZ2LH_Top15.xlsx</v>
       </c>
     </row>
     <row r="53" spans="2:13" x14ac:dyDescent="0.25">
@@ -3916,7 +3914,7 @@
       </c>
       <c r="D53" t="str">
         <f>Sheet1!C53</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -3926,22 +3924,22 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ2NM_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ2NM_Top15.pdf</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ2NM_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ2NM_Top15.xlsx</v>
       </c>
       <c r="K53" t="s">
         <v>190</v>
       </c>
       <c r="L53" t="str">
         <f>Sheet1!E53</f>
-        <v>201808_CZ2NM_Top15.pdf</v>
+        <v>201809_CZ2NM_Top15.pdf</v>
       </c>
       <c r="M53" t="str">
         <f>Sheet1!F53</f>
-        <v>201808_CZ2NM_Top15.xlsx</v>
+        <v>201809_CZ2NM_Top15.xlsx</v>
       </c>
     </row>
     <row r="54" spans="2:13" x14ac:dyDescent="0.25">
@@ -3951,7 +3949,7 @@
       </c>
       <c r="D54" t="str">
         <f>Sheet1!C54</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -3961,22 +3959,22 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ2SB_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ2SB_Top15.pdf</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ2SB_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ2SB_Top15.xlsx</v>
       </c>
       <c r="K54" t="s">
         <v>190</v>
       </c>
       <c r="L54" t="str">
         <f>Sheet1!E54</f>
-        <v>201808_QZ2SB_Top15.pdf</v>
+        <v>201809_QZ2SB_Top15.pdf</v>
       </c>
       <c r="M54" t="str">
         <f>Sheet1!F54</f>
-        <v>201808_QZ2SB_Top15.xlsx</v>
+        <v>201809_QZ2SB_Top15.xlsx</v>
       </c>
     </row>
     <row r="55" spans="2:13" x14ac:dyDescent="0.25">
@@ -3986,7 +3984,7 @@
       </c>
       <c r="D55" t="str">
         <f>Sheet1!C55</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -3996,22 +3994,22 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ2BG_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ2BG_Top15.pdf</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ2BG_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ2BG_Top15.xlsx</v>
       </c>
       <c r="K55" t="s">
         <v>190</v>
       </c>
       <c r="L55" t="str">
         <f>Sheet1!E55</f>
-        <v>201808_CZ2BG_Top15.pdf</v>
+        <v>201809_CZ2BG_Top15.pdf</v>
       </c>
       <c r="M55" t="str">
         <f>Sheet1!F55</f>
-        <v>201808_CZ2BG_Top15.xlsx</v>
+        <v>201809_CZ2BG_Top15.xlsx</v>
       </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
@@ -4021,7 +4019,7 @@
       </c>
       <c r="D56" t="str">
         <f>Sheet1!C56</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -4031,22 +4029,22 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1SA_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1SA_Top15.pdf</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1SA_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1SA_Top15.xlsx</v>
       </c>
       <c r="K56" t="s">
         <v>190</v>
       </c>
       <c r="L56" t="str">
         <f>Sheet1!E56</f>
-        <v>201808_CZ1SA_Top15.pdf</v>
+        <v>201809_CZ1SA_Top15.pdf</v>
       </c>
       <c r="M56" t="str">
         <f>Sheet1!F56</f>
-        <v>201808_CZ1SA_Top15.xlsx</v>
+        <v>201809_CZ1SA_Top15.xlsx</v>
       </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
@@ -4056,7 +4054,7 @@
       </c>
       <c r="D57" t="str">
         <f>Sheet1!C57</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -4066,22 +4064,22 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1FA_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1FA_Top15.pdf</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1FA_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1FA_Top15.xlsx</v>
       </c>
       <c r="K57" t="s">
         <v>190</v>
       </c>
       <c r="L57" t="str">
         <f>Sheet1!E57</f>
-        <v>201808_WZ1FA_Top15.pdf</v>
+        <v>201809_WZ1FA_Top15.pdf</v>
       </c>
       <c r="M57" t="str">
         <f>Sheet1!F57</f>
-        <v>201808_WZ1FA_Top15.xlsx</v>
+        <v>201809_WZ1FA_Top15.xlsx</v>
       </c>
     </row>
     <row r="58" spans="2:13" x14ac:dyDescent="0.25">
@@ -4091,7 +4089,7 @@
       </c>
       <c r="D58" t="str">
         <f>Sheet1!C58</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -4101,22 +4099,22 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ115_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ115_Top15.pdf</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ115_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ115_Top15.xlsx</v>
       </c>
       <c r="K58" t="s">
         <v>190</v>
       </c>
       <c r="L58" t="str">
         <f>Sheet1!E58</f>
-        <v>201808_WZ115_Top15.pdf</v>
+        <v>201809_WZ115_Top15.pdf</v>
       </c>
       <c r="M58" t="str">
         <f>Sheet1!F58</f>
-        <v>201808_WZ115_Top15.xlsx</v>
+        <v>201809_WZ115_Top15.xlsx</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
@@ -4126,7 +4124,7 @@
       </c>
       <c r="D59" t="str">
         <f>Sheet1!C59</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -4136,22 +4134,22 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ120_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ120_Top15.pdf</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ120_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ120_Top15.xlsx</v>
       </c>
       <c r="K59" t="s">
         <v>190</v>
       </c>
       <c r="L59" t="str">
         <f>Sheet1!E59</f>
-        <v>201808_WZ120_Top15.pdf</v>
+        <v>201809_WZ120_Top15.pdf</v>
       </c>
       <c r="M59" t="str">
         <f>Sheet1!F59</f>
-        <v>201808_WZ120_Top15.xlsx</v>
+        <v>201809_WZ120_Top15.xlsx</v>
       </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
@@ -4161,7 +4159,7 @@
       </c>
       <c r="D60" t="str">
         <f>Sheet1!C60</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -4171,22 +4169,22 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ118_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ118_Top15.pdf</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ118_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ118_Top15.xlsx</v>
       </c>
       <c r="K60" t="s">
         <v>190</v>
       </c>
       <c r="L60" t="str">
         <f>Sheet1!E60</f>
-        <v>201808_WZ118_Top15.pdf</v>
+        <v>201809_WZ118_Top15.pdf</v>
       </c>
       <c r="M60" t="str">
         <f>Sheet1!F60</f>
-        <v>201808_WZ118_Top15.xlsx</v>
+        <v>201809_WZ118_Top15.xlsx</v>
       </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
@@ -4196,7 +4194,7 @@
       </c>
       <c r="D61" t="str">
         <f>Sheet1!C61</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -4206,22 +4204,22 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ119_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ119_Top15.pdf</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ119_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ119_Top15.xlsx</v>
       </c>
       <c r="K61" t="s">
         <v>190</v>
       </c>
       <c r="L61" t="str">
         <f>Sheet1!E61</f>
-        <v>201808_WZ119_Top15.pdf</v>
+        <v>201809_WZ119_Top15.pdf</v>
       </c>
       <c r="M61" t="str">
         <f>Sheet1!F61</f>
-        <v>201808_WZ119_Top15.xlsx</v>
+        <v>201809_WZ119_Top15.xlsx</v>
       </c>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
@@ -4231,7 +4229,7 @@
       </c>
       <c r="D62" t="str">
         <f>Sheet1!C62</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -4241,22 +4239,22 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ138_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ138_Top15.pdf</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ138_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ138_Top15.xlsx</v>
       </c>
       <c r="K62" t="s">
         <v>190</v>
       </c>
       <c r="L62" t="str">
         <f>Sheet1!E62</f>
-        <v>201808_WZ138_Top15.pdf</v>
+        <v>201809_WZ138_Top15.pdf</v>
       </c>
       <c r="M62" t="str">
         <f>Sheet1!F62</f>
-        <v>201808_WZ138_Top15.xlsx</v>
+        <v>201809_WZ138_Top15.xlsx</v>
       </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
@@ -4266,7 +4264,7 @@
       </c>
       <c r="D63" t="str">
         <f>Sheet1!C63</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -4276,22 +4274,22 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ142_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ142_Top15.pdf</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ142_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ142_Top15.xlsx</v>
       </c>
       <c r="K63" t="s">
         <v>190</v>
       </c>
       <c r="L63" t="str">
         <f>Sheet1!E63</f>
-        <v>201808_WZ142_Top15.pdf</v>
+        <v>201809_WZ142_Top15.pdf</v>
       </c>
       <c r="M63" t="str">
         <f>Sheet1!F63</f>
-        <v>201808_WZ142_Top15.xlsx</v>
+        <v>201809_WZ142_Top15.xlsx</v>
       </c>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
@@ -4301,7 +4299,7 @@
       </c>
       <c r="D64" t="str">
         <f>Sheet1!C64</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -4311,22 +4309,22 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ134_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ134_Top15.pdf</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ134_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ134_Top15.xlsx</v>
       </c>
       <c r="K64" t="s">
         <v>190</v>
       </c>
       <c r="L64" t="str">
         <f>Sheet1!E64</f>
-        <v>201808_WZ134_Top15.pdf</v>
+        <v>201809_WZ134_Top15.pdf</v>
       </c>
       <c r="M64" t="str">
         <f>Sheet1!F64</f>
-        <v>201808_WZ134_Top15.xlsx</v>
+        <v>201809_WZ134_Top15.xlsx</v>
       </c>
     </row>
     <row r="65" spans="2:13" x14ac:dyDescent="0.25">
@@ -4336,7 +4334,7 @@
       </c>
       <c r="D65" t="str">
         <f>Sheet1!C65</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -4346,22 +4344,22 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ123_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ123_Top15.pdf</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ123_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ123_Top15.xlsx</v>
       </c>
       <c r="K65" t="s">
         <v>190</v>
       </c>
       <c r="L65" t="str">
         <f>Sheet1!E65</f>
-        <v>201808_WZ123_Top15.pdf</v>
+        <v>201809_WZ123_Top15.pdf</v>
       </c>
       <c r="M65" t="str">
         <f>Sheet1!F65</f>
-        <v>201808_WZ123_Top15.xlsx</v>
+        <v>201809_WZ123_Top15.xlsx</v>
       </c>
     </row>
     <row r="66" spans="2:13" x14ac:dyDescent="0.25">
@@ -4371,7 +4369,7 @@
       </c>
       <c r="D66" t="str">
         <f>Sheet1!C66</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -4381,22 +4379,22 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ136_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ136_Top15.pdf</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ136_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ136_Top15.xlsx</v>
       </c>
       <c r="K66" t="s">
         <v>190</v>
       </c>
       <c r="L66" t="str">
         <f>Sheet1!E66</f>
-        <v>201808_WZ136_Top15.pdf</v>
+        <v>201809_WZ136_Top15.pdf</v>
       </c>
       <c r="M66" t="str">
         <f>Sheet1!F66</f>
-        <v>201808_WZ136_Top15.xlsx</v>
+        <v>201809_WZ136_Top15.xlsx</v>
       </c>
     </row>
     <row r="67" spans="2:13" x14ac:dyDescent="0.25">
@@ -4406,7 +4404,7 @@
       </c>
       <c r="D67" t="str">
         <f>Sheet1!C67</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -4416,22 +4414,22 @@
       </c>
       <c r="G67" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ165_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ165_Top15.pdf</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ165_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ165_Top15.xlsx</v>
       </c>
       <c r="K67" t="s">
         <v>190</v>
       </c>
       <c r="L67" t="str">
         <f>Sheet1!E67</f>
-        <v>201808_WZ165_Top15.pdf</v>
+        <v>201809_WZ165_Top15.pdf</v>
       </c>
       <c r="M67" t="str">
         <f>Sheet1!F67</f>
-        <v>201808_WZ165_Top15.xlsx</v>
+        <v>201809_WZ165_Top15.xlsx</v>
       </c>
     </row>
     <row r="68" spans="2:13" x14ac:dyDescent="0.25">
@@ -4441,7 +4439,7 @@
       </c>
       <c r="D68" t="str">
         <f>Sheet1!C68</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -4451,22 +4449,22 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1FF_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1FF_Top15.pdf</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1FF_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1FF_Top15.xlsx</v>
       </c>
       <c r="K68" t="s">
         <v>190</v>
       </c>
       <c r="L68" t="str">
         <f>Sheet1!E68</f>
-        <v>201808_WZ1FF_Top15.pdf</v>
+        <v>201809_WZ1FF_Top15.pdf</v>
       </c>
       <c r="M68" t="str">
         <f>Sheet1!F68</f>
-        <v>201808_WZ1FF_Top15.xlsx</v>
+        <v>201809_WZ1FF_Top15.xlsx</v>
       </c>
     </row>
     <row r="69" spans="2:13" x14ac:dyDescent="0.25">
@@ -4476,7 +4474,7 @@
       </c>
       <c r="D69" t="str">
         <f>Sheet1!C69</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -4486,22 +4484,22 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ167_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ167_Top15.pdf</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ167_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ167_Top15.xlsx</v>
       </c>
       <c r="K69" t="s">
         <v>190</v>
       </c>
       <c r="L69" t="str">
         <f>Sheet1!E69</f>
-        <v>201808_WZ167_Top15.pdf</v>
+        <v>201809_WZ167_Top15.pdf</v>
       </c>
       <c r="M69" t="str">
         <f>Sheet1!F69</f>
-        <v>201808_WZ167_Top15.xlsx</v>
+        <v>201809_WZ167_Top15.xlsx</v>
       </c>
     </row>
     <row r="70" spans="2:13" x14ac:dyDescent="0.25">
@@ -4511,7 +4509,7 @@
       </c>
       <c r="D70" t="str">
         <f>Sheet1!C70</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -4521,22 +4519,22 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ175_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ175_Top15.pdf</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ175_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ175_Top15.xlsx</v>
       </c>
       <c r="K70" t="s">
         <v>190</v>
       </c>
       <c r="L70" t="str">
         <f>Sheet1!E70</f>
-        <v>201808_WZ175_Top15.pdf</v>
+        <v>201809_WZ175_Top15.pdf</v>
       </c>
       <c r="M70" t="str">
         <f>Sheet1!F70</f>
-        <v>201808_WZ175_Top15.xlsx</v>
+        <v>201809_WZ175_Top15.xlsx</v>
       </c>
     </row>
     <row r="71" spans="2:13" x14ac:dyDescent="0.25">
@@ -4546,7 +4544,7 @@
       </c>
       <c r="D71" t="str">
         <f>Sheet1!C71</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -4556,22 +4554,22 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ177_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ177_Top15.pdf</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ177_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ177_Top15.xlsx</v>
       </c>
       <c r="K71" t="s">
         <v>190</v>
       </c>
       <c r="L71" t="str">
         <f>Sheet1!E71</f>
-        <v>201808_WZ177_Top15.pdf</v>
+        <v>201809_WZ177_Top15.pdf</v>
       </c>
       <c r="M71" t="str">
         <f>Sheet1!F71</f>
-        <v>201808_WZ177_Top15.xlsx</v>
+        <v>201809_WZ177_Top15.xlsx</v>
       </c>
     </row>
     <row r="72" spans="2:13" x14ac:dyDescent="0.25">
@@ -4581,7 +4579,7 @@
       </c>
       <c r="D72" t="str">
         <f>Sheet1!C72</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -4591,22 +4589,22 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ143_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ143_Top15.pdf</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ143_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ143_Top15.xlsx</v>
       </c>
       <c r="K72" t="s">
         <v>190</v>
       </c>
       <c r="L72" t="str">
         <f>Sheet1!E72</f>
-        <v>201808_WZ143_Top15.pdf</v>
+        <v>201809_WZ143_Top15.pdf</v>
       </c>
       <c r="M72" t="str">
         <f>Sheet1!F72</f>
-        <v>201808_WZ143_Top15.xlsx</v>
+        <v>201809_WZ143_Top15.xlsx</v>
       </c>
     </row>
     <row r="73" spans="2:13" x14ac:dyDescent="0.25">
@@ -4616,7 +4614,7 @@
       </c>
       <c r="D73" t="str">
         <f>Sheet1!C73</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -4626,22 +4624,22 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ159_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ159_Top15.pdf</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ159_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ159_Top15.xlsx</v>
       </c>
       <c r="K73" t="s">
         <v>190</v>
       </c>
       <c r="L73" t="str">
         <f>Sheet1!E73</f>
-        <v>201808_WZ159_Top15.pdf</v>
+        <v>201809_WZ159_Top15.pdf</v>
       </c>
       <c r="M73" t="str">
         <f>Sheet1!F73</f>
-        <v>201808_WZ159_Top15.xlsx</v>
+        <v>201809_WZ159_Top15.xlsx</v>
       </c>
     </row>
     <row r="74" spans="2:13" x14ac:dyDescent="0.25">
@@ -4651,7 +4649,7 @@
       </c>
       <c r="D74" t="str">
         <f>Sheet1!C74</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -4661,22 +4659,22 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ162_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ162_Top15.pdf</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ162_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ162_Top15.xlsx</v>
       </c>
       <c r="K74" t="s">
         <v>190</v>
       </c>
       <c r="L74" t="str">
         <f>Sheet1!E74</f>
-        <v>201808_WZ162_Top15.pdf</v>
+        <v>201809_WZ162_Top15.pdf</v>
       </c>
       <c r="M74" t="str">
         <f>Sheet1!F74</f>
-        <v>201808_WZ162_Top15.xlsx</v>
+        <v>201809_WZ162_Top15.xlsx</v>
       </c>
     </row>
     <row r="75" spans="2:13" x14ac:dyDescent="0.25">
@@ -4686,7 +4684,7 @@
       </c>
       <c r="D75" t="str">
         <f>Sheet1!C75</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -4696,22 +4694,22 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ113_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ113_Top15.pdf</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ113_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ113_Top15.xlsx</v>
       </c>
       <c r="K75" t="s">
         <v>190</v>
       </c>
       <c r="L75" t="str">
         <f>Sheet1!E75</f>
-        <v>201808_WZ113_Top15.pdf</v>
+        <v>201809_WZ113_Top15.pdf</v>
       </c>
       <c r="M75" t="str">
         <f>Sheet1!F75</f>
-        <v>201808_WZ113_Top15.xlsx</v>
+        <v>201809_WZ113_Top15.xlsx</v>
       </c>
     </row>
     <row r="76" spans="2:13" x14ac:dyDescent="0.25">
@@ -4721,7 +4719,7 @@
       </c>
       <c r="D76" t="str">
         <f>Sheet1!C76</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -4731,22 +4729,22 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ133_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ133_Top15.pdf</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ133_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ133_Top15.xlsx</v>
       </c>
       <c r="K76" t="s">
         <v>190</v>
       </c>
       <c r="L76" t="str">
         <f>Sheet1!E76</f>
-        <v>201808_WZ133_Top15.pdf</v>
+        <v>201809_WZ133_Top15.pdf</v>
       </c>
       <c r="M76" t="str">
         <f>Sheet1!F76</f>
-        <v>201808_WZ133_Top15.xlsx</v>
+        <v>201809_WZ133_Top15.xlsx</v>
       </c>
     </row>
     <row r="77" spans="2:13" x14ac:dyDescent="0.25">
@@ -4756,7 +4754,7 @@
       </c>
       <c r="D77" t="str">
         <f>Sheet1!C77</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -4766,22 +4764,22 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ137_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ137_Top15.pdf</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ137_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ137_Top15.xlsx</v>
       </c>
       <c r="K77" t="s">
         <v>190</v>
       </c>
       <c r="L77" t="str">
         <f>Sheet1!E77</f>
-        <v>201808_WZ137_Top15.pdf</v>
+        <v>201809_WZ137_Top15.pdf</v>
       </c>
       <c r="M77" t="str">
         <f>Sheet1!F77</f>
-        <v>201808_WZ137_Top15.xlsx</v>
+        <v>201809_WZ137_Top15.xlsx</v>
       </c>
     </row>
     <row r="78" spans="2:13" x14ac:dyDescent="0.25">
@@ -4791,7 +4789,7 @@
       </c>
       <c r="D78" t="str">
         <f>Sheet1!C78</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -4801,22 +4799,22 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1G4_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1G4_Top15.pdf</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1G4_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1G4_Top15.xlsx</v>
       </c>
       <c r="K78" t="s">
         <v>190</v>
       </c>
       <c r="L78" t="str">
         <f>Sheet1!E78</f>
-        <v>201808_WZ1G4_Top15.pdf</v>
+        <v>201809_WZ1G4_Top15.pdf</v>
       </c>
       <c r="M78" t="str">
         <f>Sheet1!F78</f>
-        <v>201808_WZ1G4_Top15.xlsx</v>
+        <v>201809_WZ1G4_Top15.xlsx</v>
       </c>
     </row>
     <row r="79" spans="2:13" x14ac:dyDescent="0.25">
@@ -4826,7 +4824,7 @@
       </c>
       <c r="D79" t="str">
         <f>Sheet1!C79</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -4836,22 +4834,22 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZBW1_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZBW1_Top15.pdf</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZBW1_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZBW1_Top15.xlsx</v>
       </c>
       <c r="K79" t="s">
         <v>190</v>
       </c>
       <c r="L79" t="str">
         <f>Sheet1!E79</f>
-        <v>201808_WZBW1_Top15.pdf</v>
+        <v>201809_WZBW1_Top15.pdf</v>
       </c>
       <c r="M79" t="str">
         <f>Sheet1!F79</f>
-        <v>201808_WZBW1_Top15.xlsx</v>
+        <v>201809_WZBW1_Top15.xlsx</v>
       </c>
     </row>
     <row r="80" spans="2:13" x14ac:dyDescent="0.25">
@@ -4861,7 +4859,7 @@
       </c>
       <c r="D80" t="str">
         <f>Sheet1!C80</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -4871,22 +4869,22 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ9TS_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ9TS_Top15.pdf</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ9TS_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ9TS_Top15.xlsx</v>
       </c>
       <c r="K80" t="s">
         <v>190</v>
       </c>
       <c r="L80" t="str">
         <f>Sheet1!E80</f>
-        <v>201808_WZ9TS_Top15.pdf</v>
+        <v>201809_WZ9TS_Top15.pdf</v>
       </c>
       <c r="M80" t="str">
         <f>Sheet1!F80</f>
-        <v>201808_WZ9TS_Top15.xlsx</v>
+        <v>201809_WZ9TS_Top15.xlsx</v>
       </c>
     </row>
     <row r="81" spans="2:13" x14ac:dyDescent="0.25">
@@ -4896,7 +4894,7 @@
       </c>
       <c r="D81" t="str">
         <f>Sheet1!C81</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -4906,22 +4904,22 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" si="2"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1HM_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1HM_Top15.pdf</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1HM_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1HM_Top15.xlsx</v>
       </c>
       <c r="K81" t="s">
         <v>190</v>
       </c>
       <c r="L81" t="str">
         <f>Sheet1!E81</f>
-        <v>201808_WZ1HM_Top15.pdf</v>
+        <v>201809_WZ1HM_Top15.pdf</v>
       </c>
       <c r="M81" t="str">
         <f>Sheet1!F81</f>
-        <v>201808_WZ1HM_Top15.xlsx</v>
+        <v>201809_WZ1HM_Top15.xlsx</v>
       </c>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
@@ -4931,7 +4929,7 @@
       </c>
       <c r="D82" t="str">
         <f>Sheet1!C82</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -4941,22 +4939,22 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" ref="G82:G145" si="4">$K82&amp;"\"&amp;L82</f>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ2HM_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ2HM_Top15.pdf</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" si="3"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ2HM_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ2HM_Top15.xlsx</v>
       </c>
       <c r="K82" t="s">
         <v>190</v>
       </c>
       <c r="L82" t="str">
         <f>Sheet1!E82</f>
-        <v>201808_WZ2HM_Top15.pdf</v>
+        <v>201809_WZ2HM_Top15.pdf</v>
       </c>
       <c r="M82" t="str">
         <f>Sheet1!F82</f>
-        <v>201808_WZ2HM_Top15.xlsx</v>
+        <v>201809_WZ2HM_Top15.xlsx</v>
       </c>
     </row>
     <row r="83" spans="2:13" x14ac:dyDescent="0.25">
@@ -4966,7 +4964,7 @@
       </c>
       <c r="D83" t="str">
         <f>Sheet1!C83</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -4976,22 +4974,22 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1HM_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1HM_Top15.pdf</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" ref="H83:H146" si="5">$K83&amp;"\"&amp;M83</f>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1HM_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1HM_Top15.xlsx</v>
       </c>
       <c r="K83" t="s">
         <v>190</v>
       </c>
       <c r="L83" t="str">
         <f>Sheet1!E83</f>
-        <v>201808_WZ1HM_Top15.pdf</v>
+        <v>201809_WZ1HM_Top15.pdf</v>
       </c>
       <c r="M83" t="str">
         <f>Sheet1!F83</f>
-        <v>201808_WZ1HM_Top15.xlsx</v>
+        <v>201809_WZ1HM_Top15.xlsx</v>
       </c>
     </row>
     <row r="84" spans="2:13" x14ac:dyDescent="0.25">
@@ -5001,7 +4999,7 @@
       </c>
       <c r="D84" t="str">
         <f>Sheet1!C84</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -5011,22 +5009,22 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ2HM_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ2HM_Top15.pdf</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ2HM_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ2HM_Top15.xlsx</v>
       </c>
       <c r="K84" t="s">
         <v>190</v>
       </c>
       <c r="L84" t="str">
         <f>Sheet1!E84</f>
-        <v>201808_WZ2HM_Top15.pdf</v>
+        <v>201809_WZ2HM_Top15.pdf</v>
       </c>
       <c r="M84" t="str">
         <f>Sheet1!F84</f>
-        <v>201808_WZ2HM_Top15.xlsx</v>
+        <v>201809_WZ2HM_Top15.xlsx</v>
       </c>
     </row>
     <row r="85" spans="2:13" x14ac:dyDescent="0.25">
@@ -5036,7 +5034,7 @@
       </c>
       <c r="D85" t="str">
         <f>Sheet1!C85</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -5046,22 +5044,22 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ2RP_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ2RP_Top15.pdf</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ2RP_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ2RP_Top15.xlsx</v>
       </c>
       <c r="K85" t="s">
         <v>190</v>
       </c>
       <c r="L85" t="str">
         <f>Sheet1!E85</f>
-        <v>201808_WZ2RP_Top15.pdf</v>
+        <v>201809_WZ2RP_Top15.pdf</v>
       </c>
       <c r="M85" t="str">
         <f>Sheet1!F85</f>
-        <v>201808_WZ2RP_Top15.xlsx</v>
+        <v>201809_WZ2RP_Top15.xlsx</v>
       </c>
     </row>
     <row r="86" spans="2:13" x14ac:dyDescent="0.25">
@@ -5071,7 +5069,7 @@
       </c>
       <c r="D86" t="str">
         <f>Sheet1!C86</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -5081,22 +5079,22 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1TT_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1TT_Top15.pdf</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1TT_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1TT_Top15.xlsx</v>
       </c>
       <c r="K86" t="s">
         <v>190</v>
       </c>
       <c r="L86" t="str">
         <f>Sheet1!E86</f>
-        <v>201808_WZ1TT_Top15.pdf</v>
+        <v>201809_WZ1TT_Top15.pdf</v>
       </c>
       <c r="M86" t="str">
         <f>Sheet1!F86</f>
-        <v>201808_WZ1TT_Top15.xlsx</v>
+        <v>201809_WZ1TT_Top15.xlsx</v>
       </c>
     </row>
     <row r="87" spans="2:13" x14ac:dyDescent="0.25">
@@ -5106,7 +5104,7 @@
       </c>
       <c r="D87" t="str">
         <f>Sheet1!C87</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -5116,22 +5114,22 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1AM_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1AM_Top15.pdf</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1AM_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1AM_Top15.xlsx</v>
       </c>
       <c r="K87" t="s">
         <v>190</v>
       </c>
       <c r="L87" t="str">
         <f>Sheet1!E87</f>
-        <v>201808_WZ1AM_Top15.pdf</v>
+        <v>201809_WZ1AM_Top15.pdf</v>
       </c>
       <c r="M87" t="str">
         <f>Sheet1!F87</f>
-        <v>201808_WZ1AM_Top15.xlsx</v>
+        <v>201809_WZ1AM_Top15.xlsx</v>
       </c>
     </row>
     <row r="88" spans="2:13" x14ac:dyDescent="0.25">
@@ -5141,7 +5139,7 @@
       </c>
       <c r="D88" t="str">
         <f>Sheet1!C88</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -5151,22 +5149,22 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1JW_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1JW_Top15.pdf</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1JW_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1JW_Top15.xlsx</v>
       </c>
       <c r="K88" t="s">
         <v>190</v>
       </c>
       <c r="L88" t="str">
         <f>Sheet1!E88</f>
-        <v>201808_WZ1JW_Top15.pdf</v>
+        <v>201809_WZ1JW_Top15.pdf</v>
       </c>
       <c r="M88" t="str">
         <f>Sheet1!F88</f>
-        <v>201808_WZ1JW_Top15.xlsx</v>
+        <v>201809_WZ1JW_Top15.xlsx</v>
       </c>
     </row>
     <row r="89" spans="2:13" x14ac:dyDescent="0.25">
@@ -5176,7 +5174,7 @@
       </c>
       <c r="D89" t="str">
         <f>Sheet1!C89</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -5186,22 +5184,22 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1MH_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1MH_Top15.pdf</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1MH_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1MH_Top15.xlsx</v>
       </c>
       <c r="K89" t="s">
         <v>190</v>
       </c>
       <c r="L89" t="str">
         <f>Sheet1!E89</f>
-        <v>201808_WZ1MH_Top15.pdf</v>
+        <v>201809_WZ1MH_Top15.pdf</v>
       </c>
       <c r="M89" t="str">
         <f>Sheet1!F89</f>
-        <v>201808_WZ1MH_Top15.xlsx</v>
+        <v>201809_WZ1MH_Top15.xlsx</v>
       </c>
     </row>
     <row r="90" spans="2:13" x14ac:dyDescent="0.25">
@@ -5211,7 +5209,7 @@
       </c>
       <c r="D90" t="str">
         <f>Sheet1!C90</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -5221,22 +5219,22 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1M2_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1M2_Top15.pdf</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1M2_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1M2_Top15.xlsx</v>
       </c>
       <c r="K90" t="s">
         <v>190</v>
       </c>
       <c r="L90" t="str">
         <f>Sheet1!E90</f>
-        <v>201808_WZ1M2_Top15.pdf</v>
+        <v>201809_WZ1M2_Top15.pdf</v>
       </c>
       <c r="M90" t="str">
         <f>Sheet1!F90</f>
-        <v>201808_WZ1M2_Top15.xlsx</v>
+        <v>201809_WZ1M2_Top15.xlsx</v>
       </c>
     </row>
     <row r="91" spans="2:13" x14ac:dyDescent="0.25">
@@ -5246,7 +5244,7 @@
       </c>
       <c r="D91" t="str">
         <f>Sheet1!C91</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -5256,22 +5254,22 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1TM_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1TM_Top15.pdf</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1TM_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1TM_Top15.xlsx</v>
       </c>
       <c r="K91" t="s">
         <v>190</v>
       </c>
       <c r="L91" t="str">
         <f>Sheet1!E91</f>
-        <v>201808_WZ1TM_Top15.pdf</v>
+        <v>201809_WZ1TM_Top15.pdf</v>
       </c>
       <c r="M91" t="str">
         <f>Sheet1!F91</f>
-        <v>201808_WZ1TM_Top15.xlsx</v>
+        <v>201809_WZ1TM_Top15.xlsx</v>
       </c>
     </row>
     <row r="92" spans="2:13" x14ac:dyDescent="0.25">
@@ -5281,7 +5279,7 @@
       </c>
       <c r="D92" t="str">
         <f>Sheet1!C92</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -5291,22 +5289,22 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1T2_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1T2_Top15.pdf</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1T2_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1T2_Top15.xlsx</v>
       </c>
       <c r="K92" t="s">
         <v>190</v>
       </c>
       <c r="L92" t="str">
         <f>Sheet1!E92</f>
-        <v>201808_WZ1T2_Top15.pdf</v>
+        <v>201809_WZ1T2_Top15.pdf</v>
       </c>
       <c r="M92" t="str">
         <f>Sheet1!F92</f>
-        <v>201808_WZ1T2_Top15.xlsx</v>
+        <v>201809_WZ1T2_Top15.xlsx</v>
       </c>
     </row>
     <row r="93" spans="2:13" x14ac:dyDescent="0.25">
@@ -5316,7 +5314,7 @@
       </c>
       <c r="D93" t="str">
         <f>Sheet1!C93</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -5326,22 +5324,22 @@
       </c>
       <c r="G93" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ2CR_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ2CR_Top15.pdf</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ2CR_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ2CR_Top15.xlsx</v>
       </c>
       <c r="K93" t="s">
         <v>190</v>
       </c>
       <c r="L93" t="str">
         <f>Sheet1!E93</f>
-        <v>201808_CZ2CR_Top15.pdf</v>
+        <v>201809_CZ2CR_Top15.pdf</v>
       </c>
       <c r="M93" t="str">
         <f>Sheet1!F93</f>
-        <v>201808_CZ2CR_Top15.xlsx</v>
+        <v>201809_CZ2CR_Top15.xlsx</v>
       </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
@@ -5351,7 +5349,7 @@
       </c>
       <c r="D94" t="str">
         <f>Sheet1!C94</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -5361,22 +5359,22 @@
       </c>
       <c r="G94" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1SC_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1SC_Top15.pdf</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1SC_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1SC_Top15.xlsx</v>
       </c>
       <c r="K94" t="s">
         <v>190</v>
       </c>
       <c r="L94" t="str">
         <f>Sheet1!E94</f>
-        <v>201808_WZ1SC_Top15.pdf</v>
+        <v>201809_WZ1SC_Top15.pdf</v>
       </c>
       <c r="M94" t="str">
         <f>Sheet1!F94</f>
-        <v>201808_WZ1SC_Top15.xlsx</v>
+        <v>201809_WZ1SC_Top15.xlsx</v>
       </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
@@ -5386,7 +5384,7 @@
       </c>
       <c r="D95" t="str">
         <f>Sheet1!C95</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -5396,22 +5394,22 @@
       </c>
       <c r="G95" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1PB_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1PB_Top15.pdf</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1PB_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1PB_Top15.xlsx</v>
       </c>
       <c r="K95" t="s">
         <v>190</v>
       </c>
       <c r="L95" t="str">
         <f>Sheet1!E95</f>
-        <v>201808_WZ1PB_Top15.pdf</v>
+        <v>201809_WZ1PB_Top15.pdf</v>
       </c>
       <c r="M95" t="str">
         <f>Sheet1!F95</f>
-        <v>201808_WZ1PB_Top15.xlsx</v>
+        <v>201809_WZ1PB_Top15.xlsx</v>
       </c>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
@@ -5421,7 +5419,7 @@
       </c>
       <c r="D96" t="str">
         <f>Sheet1!C96</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -5431,22 +5429,22 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1JN_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1JN_Top15.pdf</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1JN_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1JN_Top15.xlsx</v>
       </c>
       <c r="K96" t="s">
         <v>190</v>
       </c>
       <c r="L96" t="str">
         <f>Sheet1!E96</f>
-        <v>201808_WZ1JN_Top15.pdf</v>
+        <v>201809_WZ1JN_Top15.pdf</v>
       </c>
       <c r="M96" t="str">
         <f>Sheet1!F96</f>
-        <v>201808_WZ1JN_Top15.xlsx</v>
+        <v>201809_WZ1JN_Top15.xlsx</v>
       </c>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
@@ -5456,7 +5454,7 @@
       </c>
       <c r="D97" t="str">
         <f>Sheet1!C97</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -5466,22 +5464,22 @@
       </c>
       <c r="G97" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1J2_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1J2_Top15.pdf</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1J2_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1J2_Top15.xlsx</v>
       </c>
       <c r="K97" t="s">
         <v>190</v>
       </c>
       <c r="L97" t="str">
         <f>Sheet1!E97</f>
-        <v>201808_WZ1J2_Top15.pdf</v>
+        <v>201809_WZ1J2_Top15.pdf</v>
       </c>
       <c r="M97" t="str">
         <f>Sheet1!F97</f>
-        <v>201808_WZ1J2_Top15.xlsx</v>
+        <v>201809_WZ1J2_Top15.xlsx</v>
       </c>
     </row>
     <row r="98" spans="2:13" x14ac:dyDescent="0.25">
@@ -5491,7 +5489,7 @@
       </c>
       <c r="D98" t="str">
         <f>Sheet1!C98</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -5501,22 +5499,22 @@
       </c>
       <c r="G98" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1MK_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1MK_Top15.pdf</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1MK_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1MK_Top15.xlsx</v>
       </c>
       <c r="K98" t="s">
         <v>190</v>
       </c>
       <c r="L98" t="str">
         <f>Sheet1!E98</f>
-        <v>201808_WZ1MK_Top15.pdf</v>
+        <v>201809_WZ1MK_Top15.pdf</v>
       </c>
       <c r="M98" t="str">
         <f>Sheet1!F98</f>
-        <v>201808_WZ1MK_Top15.xlsx</v>
+        <v>201809_WZ1MK_Top15.xlsx</v>
       </c>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
@@ -5526,7 +5524,7 @@
       </c>
       <c r="D99" t="str">
         <f>Sheet1!C99</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -5536,22 +5534,22 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1CA_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1CA_Top15.pdf</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1CA_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1CA_Top15.xlsx</v>
       </c>
       <c r="K99" t="s">
         <v>190</v>
       </c>
       <c r="L99" t="str">
         <f>Sheet1!E99</f>
-        <v>201808_WZ1CA_Top15.pdf</v>
+        <v>201809_WZ1CA_Top15.pdf</v>
       </c>
       <c r="M99" t="str">
         <f>Sheet1!F99</f>
-        <v>201808_WZ1CA_Top15.xlsx</v>
+        <v>201809_WZ1CA_Top15.xlsx</v>
       </c>
     </row>
     <row r="100" spans="2:13" x14ac:dyDescent="0.25">
@@ -5561,7 +5559,7 @@
       </c>
       <c r="D100" t="str">
         <f>Sheet1!C100</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -5571,22 +5569,22 @@
       </c>
       <c r="G100" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ2TM_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ2TM_Top15.pdf</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ2TM_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ2TM_Top15.xlsx</v>
       </c>
       <c r="K100" t="s">
         <v>190</v>
       </c>
       <c r="L100" t="str">
         <f>Sheet1!E100</f>
-        <v>201808_WZ2TM_Top15.pdf</v>
+        <v>201809_WZ2TM_Top15.pdf</v>
       </c>
       <c r="M100" t="str">
         <f>Sheet1!F100</f>
-        <v>201808_WZ2TM_Top15.xlsx</v>
+        <v>201809_WZ2TM_Top15.xlsx</v>
       </c>
     </row>
     <row r="101" spans="2:13" x14ac:dyDescent="0.25">
@@ -5596,7 +5594,7 @@
       </c>
       <c r="D101" t="str">
         <f>Sheet1!C101</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -5606,22 +5604,22 @@
       </c>
       <c r="G101" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ2T2_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ2T2_Top15.pdf</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ2T2_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ2T2_Top15.xlsx</v>
       </c>
       <c r="K101" t="s">
         <v>190</v>
       </c>
       <c r="L101" t="str">
         <f>Sheet1!E101</f>
-        <v>201808_WZ2T2_Top15.pdf</v>
+        <v>201809_WZ2T2_Top15.pdf</v>
       </c>
       <c r="M101" t="str">
         <f>Sheet1!F101</f>
-        <v>201808_WZ2T2_Top15.xlsx</v>
+        <v>201809_WZ2T2_Top15.xlsx</v>
       </c>
     </row>
     <row r="102" spans="2:13" x14ac:dyDescent="0.25">
@@ -5631,7 +5629,7 @@
       </c>
       <c r="D102" t="str">
         <f>Sheet1!C102</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -5641,22 +5639,22 @@
       </c>
       <c r="G102" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1BC_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1BC_Top15.pdf</v>
       </c>
       <c r="H102" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1BC_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1BC_Top15.xlsx</v>
       </c>
       <c r="K102" t="s">
         <v>190</v>
       </c>
       <c r="L102" t="str">
         <f>Sheet1!E102</f>
-        <v>201808_WZ1BC_Top15.pdf</v>
+        <v>201809_WZ1BC_Top15.pdf</v>
       </c>
       <c r="M102" t="str">
         <f>Sheet1!F102</f>
-        <v>201808_WZ1BC_Top15.xlsx</v>
+        <v>201809_WZ1BC_Top15.xlsx</v>
       </c>
     </row>
     <row r="103" spans="2:13" x14ac:dyDescent="0.25">
@@ -5666,7 +5664,7 @@
       </c>
       <c r="D103" t="str">
         <f>Sheet1!C103</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -5676,22 +5674,22 @@
       </c>
       <c r="G103" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1JL_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1JL_Top15.pdf</v>
       </c>
       <c r="H103" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1JL_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1JL_Top15.xlsx</v>
       </c>
       <c r="K103" t="s">
         <v>190</v>
       </c>
       <c r="L103" t="str">
         <f>Sheet1!E103</f>
-        <v>201808_WZ1JL_Top15.pdf</v>
+        <v>201809_WZ1JL_Top15.pdf</v>
       </c>
       <c r="M103" t="str">
         <f>Sheet1!F103</f>
-        <v>201808_WZ1JL_Top15.xlsx</v>
+        <v>201809_WZ1JL_Top15.xlsx</v>
       </c>
     </row>
     <row r="104" spans="2:13" x14ac:dyDescent="0.25">
@@ -5701,7 +5699,7 @@
       </c>
       <c r="D104" t="str">
         <f>Sheet1!C104</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -5711,22 +5709,22 @@
       </c>
       <c r="G104" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1AL_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1AL_Top15.pdf</v>
       </c>
       <c r="H104" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1AL_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1AL_Top15.xlsx</v>
       </c>
       <c r="K104" t="s">
         <v>190</v>
       </c>
       <c r="L104" t="str">
         <f>Sheet1!E104</f>
-        <v>201808_WZ1AL_Top15.pdf</v>
+        <v>201809_WZ1AL_Top15.pdf</v>
       </c>
       <c r="M104" t="str">
         <f>Sheet1!F104</f>
-        <v>201808_WZ1AL_Top15.xlsx</v>
+        <v>201809_WZ1AL_Top15.xlsx</v>
       </c>
     </row>
     <row r="105" spans="2:13" x14ac:dyDescent="0.25">
@@ -5736,7 +5734,7 @@
       </c>
       <c r="D105" t="str">
         <f>Sheet1!C105</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -5746,22 +5744,22 @@
       </c>
       <c r="G105" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1MW_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1MW_Top15.pdf</v>
       </c>
       <c r="H105" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1MW_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1MW_Top15.xlsx</v>
       </c>
       <c r="K105" t="s">
         <v>190</v>
       </c>
       <c r="L105" t="str">
         <f>Sheet1!E105</f>
-        <v>201808_WZ1MW_Top15.pdf</v>
+        <v>201809_WZ1MW_Top15.pdf</v>
       </c>
       <c r="M105" t="str">
         <f>Sheet1!F105</f>
-        <v>201808_WZ1MW_Top15.xlsx</v>
+        <v>201809_WZ1MW_Top15.xlsx</v>
       </c>
     </row>
     <row r="106" spans="2:13" x14ac:dyDescent="0.25">
@@ -5771,7 +5769,7 @@
       </c>
       <c r="D106" t="str">
         <f>Sheet1!C106</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -5781,22 +5779,22 @@
       </c>
       <c r="G106" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1MS_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1MS_Top15.pdf</v>
       </c>
       <c r="H106" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1MS_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1MS_Top15.xlsx</v>
       </c>
       <c r="K106" t="s">
         <v>190</v>
       </c>
       <c r="L106" t="str">
         <f>Sheet1!E106</f>
-        <v>201808_WZ1MS_Top15.pdf</v>
+        <v>201809_WZ1MS_Top15.pdf</v>
       </c>
       <c r="M106" t="str">
         <f>Sheet1!F106</f>
-        <v>201808_WZ1MS_Top15.xlsx</v>
+        <v>201809_WZ1MS_Top15.xlsx</v>
       </c>
     </row>
     <row r="107" spans="2:13" x14ac:dyDescent="0.25">
@@ -5806,7 +5804,7 @@
       </c>
       <c r="D107" t="str">
         <f>Sheet1!C107</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -5816,22 +5814,22 @@
       </c>
       <c r="G107" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1DF_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1DF_Top15.pdf</v>
       </c>
       <c r="H107" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1DF_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1DF_Top15.xlsx</v>
       </c>
       <c r="K107" t="s">
         <v>190</v>
       </c>
       <c r="L107" t="str">
         <f>Sheet1!E107</f>
-        <v>201808_WZ1DF_Top15.pdf</v>
+        <v>201809_WZ1DF_Top15.pdf</v>
       </c>
       <c r="M107" t="str">
         <f>Sheet1!F107</f>
-        <v>201808_WZ1DF_Top15.xlsx</v>
+        <v>201809_WZ1DF_Top15.xlsx</v>
       </c>
     </row>
     <row r="108" spans="2:13" x14ac:dyDescent="0.25">
@@ -5841,7 +5839,7 @@
       </c>
       <c r="D108" t="str">
         <f>Sheet1!C108</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -5851,22 +5849,22 @@
       </c>
       <c r="G108" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1AJ_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1AJ_Top15.pdf</v>
       </c>
       <c r="H108" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1AJ_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1AJ_Top15.xlsx</v>
       </c>
       <c r="K108" t="s">
         <v>190</v>
       </c>
       <c r="L108" t="str">
         <f>Sheet1!E108</f>
-        <v>201808_WZ1AJ_Top15.pdf</v>
+        <v>201809_WZ1AJ_Top15.pdf</v>
       </c>
       <c r="M108" t="str">
         <f>Sheet1!F108</f>
-        <v>201808_WZ1AJ_Top15.xlsx</v>
+        <v>201809_WZ1AJ_Top15.xlsx</v>
       </c>
     </row>
     <row r="109" spans="2:13" x14ac:dyDescent="0.25">
@@ -5876,7 +5874,7 @@
       </c>
       <c r="D109" t="str">
         <f>Sheet1!C109</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -5886,22 +5884,22 @@
       </c>
       <c r="G109" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1JI_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1JI_Top15.pdf</v>
       </c>
       <c r="H109" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1JI_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1JI_Top15.xlsx</v>
       </c>
       <c r="K109" t="s">
         <v>190</v>
       </c>
       <c r="L109" t="str">
         <f>Sheet1!E109</f>
-        <v>201808_WZ1JI_Top15.pdf</v>
+        <v>201809_WZ1JI_Top15.pdf</v>
       </c>
       <c r="M109" t="str">
         <f>Sheet1!F109</f>
-        <v>201808_WZ1JI_Top15.xlsx</v>
+        <v>201809_WZ1JI_Top15.xlsx</v>
       </c>
     </row>
     <row r="110" spans="2:13" x14ac:dyDescent="0.25">
@@ -5911,7 +5909,7 @@
       </c>
       <c r="D110" t="str">
         <f>Sheet1!C110</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -5921,22 +5919,22 @@
       </c>
       <c r="G110" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZJI2_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZJI2_Top15.pdf</v>
       </c>
       <c r="H110" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZJI2_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZJI2_Top15.xlsx</v>
       </c>
       <c r="K110" t="s">
         <v>190</v>
       </c>
       <c r="L110" t="str">
         <f>Sheet1!E110</f>
-        <v>201808_WZJI2_Top15.pdf</v>
+        <v>201809_WZJI2_Top15.pdf</v>
       </c>
       <c r="M110" t="str">
         <f>Sheet1!F110</f>
-        <v>201808_WZJI2_Top15.xlsx</v>
+        <v>201809_WZJI2_Top15.xlsx</v>
       </c>
     </row>
     <row r="111" spans="2:13" x14ac:dyDescent="0.25">
@@ -5946,7 +5944,7 @@
       </c>
       <c r="D111" t="str">
         <f>Sheet1!C111</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E111">
         <v>1</v>
@@ -5956,22 +5954,22 @@
       </c>
       <c r="G111" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1CM_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1CM_Top15.pdf</v>
       </c>
       <c r="H111" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1CM_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1CM_Top15.xlsx</v>
       </c>
       <c r="K111" t="s">
         <v>190</v>
       </c>
       <c r="L111" t="str">
         <f>Sheet1!E111</f>
-        <v>201808_WZ1CM_Top15.pdf</v>
+        <v>201809_WZ1CM_Top15.pdf</v>
       </c>
       <c r="M111" t="str">
         <f>Sheet1!F111</f>
-        <v>201808_WZ1CM_Top15.xlsx</v>
+        <v>201809_WZ1CM_Top15.xlsx</v>
       </c>
     </row>
     <row r="112" spans="2:13" x14ac:dyDescent="0.25">
@@ -5981,7 +5979,7 @@
       </c>
       <c r="D112" t="str">
         <f>Sheet1!C112</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -5991,22 +5989,22 @@
       </c>
       <c r="G112" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ2MS_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ2MS_Top15.pdf</v>
       </c>
       <c r="H112" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ2MS_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ2MS_Top15.xlsx</v>
       </c>
       <c r="K112" t="s">
         <v>190</v>
       </c>
       <c r="L112" t="str">
         <f>Sheet1!E112</f>
-        <v>201808_WZ2MS_Top15.pdf</v>
+        <v>201809_WZ2MS_Top15.pdf</v>
       </c>
       <c r="M112" t="str">
         <f>Sheet1!F112</f>
-        <v>201808_WZ2MS_Top15.xlsx</v>
+        <v>201809_WZ2MS_Top15.xlsx</v>
       </c>
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
@@ -6016,7 +6014,7 @@
       </c>
       <c r="D113" t="str">
         <f>Sheet1!C113</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -6026,22 +6024,22 @@
       </c>
       <c r="G113" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ2JN_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ2JN_Top15.pdf</v>
       </c>
       <c r="H113" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ2JN_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ2JN_Top15.xlsx</v>
       </c>
       <c r="K113" t="s">
         <v>190</v>
       </c>
       <c r="L113" t="str">
         <f>Sheet1!E113</f>
-        <v>201808_WZ2JN_Top15.pdf</v>
+        <v>201809_WZ2JN_Top15.pdf</v>
       </c>
       <c r="M113" t="str">
         <f>Sheet1!F113</f>
-        <v>201808_WZ2JN_Top15.xlsx</v>
+        <v>201809_WZ2JN_Top15.xlsx</v>
       </c>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
@@ -6051,7 +6049,7 @@
       </c>
       <c r="D114" t="str">
         <f>Sheet1!C114</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E114">
         <v>1</v>
@@ -6061,22 +6059,22 @@
       </c>
       <c r="G114" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1RD_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1RD_Top15.pdf</v>
       </c>
       <c r="H114" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1RD_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1RD_Top15.xlsx</v>
       </c>
       <c r="K114" t="s">
         <v>190</v>
       </c>
       <c r="L114" t="str">
         <f>Sheet1!E114</f>
-        <v>201808_CZ1RD_Top15.pdf</v>
+        <v>201809_CZ1RD_Top15.pdf</v>
       </c>
       <c r="M114" t="str">
         <f>Sheet1!F114</f>
-        <v>201808_CZ1RD_Top15.xlsx</v>
+        <v>201809_CZ1RD_Top15.xlsx</v>
       </c>
     </row>
     <row r="115" spans="2:13" x14ac:dyDescent="0.25">
@@ -6086,7 +6084,7 @@
       </c>
       <c r="D115" t="str">
         <f>Sheet1!C115</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E115">
         <v>1</v>
@@ -6096,22 +6094,22 @@
       </c>
       <c r="G115" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1GF_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1GF_Top15.pdf</v>
       </c>
       <c r="H115" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1GF_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1GF_Top15.xlsx</v>
       </c>
       <c r="K115" t="s">
         <v>190</v>
       </c>
       <c r="L115" t="str">
         <f>Sheet1!E115</f>
-        <v>201808_CZ1GF_Top15.pdf</v>
+        <v>201809_CZ1GF_Top15.pdf</v>
       </c>
       <c r="M115" t="str">
         <f>Sheet1!F115</f>
-        <v>201808_CZ1GF_Top15.xlsx</v>
+        <v>201809_CZ1GF_Top15.xlsx</v>
       </c>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
@@ -6121,7 +6119,7 @@
       </c>
       <c r="D116" t="str">
         <f>Sheet1!C116</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E116">
         <v>1</v>
@@ -6131,22 +6129,22 @@
       </c>
       <c r="G116" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1G2_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1G2_Top15.pdf</v>
       </c>
       <c r="H116" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1G2_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1G2_Top15.xlsx</v>
       </c>
       <c r="K116" t="s">
         <v>190</v>
       </c>
       <c r="L116" t="str">
         <f>Sheet1!E116</f>
-        <v>201808_CZ1G2_Top15.pdf</v>
+        <v>201809_CZ1G2_Top15.pdf</v>
       </c>
       <c r="M116" t="str">
         <f>Sheet1!F116</f>
-        <v>201808_CZ1G2_Top15.xlsx</v>
+        <v>201809_CZ1G2_Top15.xlsx</v>
       </c>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.25">
@@ -6156,7 +6154,7 @@
       </c>
       <c r="D117" t="str">
         <f>Sheet1!C117</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E117">
         <v>1</v>
@@ -6166,22 +6164,22 @@
       </c>
       <c r="G117" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1BP_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1BP_Top15.pdf</v>
       </c>
       <c r="H117" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1BP_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1BP_Top15.xlsx</v>
       </c>
       <c r="K117" t="s">
         <v>190</v>
       </c>
       <c r="L117" t="str">
         <f>Sheet1!E117</f>
-        <v>201808_QZ1BP_Top15.pdf</v>
+        <v>201809_QZ1BP_Top15.pdf</v>
       </c>
       <c r="M117" t="str">
         <f>Sheet1!F117</f>
-        <v>201808_QZ1BP_Top15.xlsx</v>
+        <v>201809_QZ1BP_Top15.xlsx</v>
       </c>
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
@@ -6191,7 +6189,7 @@
       </c>
       <c r="D118" t="str">
         <f>Sheet1!C118</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -6201,22 +6199,22 @@
       </c>
       <c r="G118" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1JF_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1JF_Top15.pdf</v>
       </c>
       <c r="H118" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1JF_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1JF_Top15.xlsx</v>
       </c>
       <c r="K118" t="s">
         <v>190</v>
       </c>
       <c r="L118" t="str">
         <f>Sheet1!E118</f>
-        <v>201808_CZ1JF_Top15.pdf</v>
+        <v>201809_CZ1JF_Top15.pdf</v>
       </c>
       <c r="M118" t="str">
         <f>Sheet1!F118</f>
-        <v>201808_CZ1JF_Top15.xlsx</v>
+        <v>201809_CZ1JF_Top15.xlsx</v>
       </c>
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.25">
@@ -6226,7 +6224,7 @@
       </c>
       <c r="D119" t="str">
         <f>Sheet1!C119</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E119">
         <v>1</v>
@@ -6236,22 +6234,22 @@
       </c>
       <c r="G119" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_AZ1CI_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_AZ1CI_Top15.pdf</v>
       </c>
       <c r="H119" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_AZ1CI_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_AZ1CI_Top15.xlsx</v>
       </c>
       <c r="K119" t="s">
         <v>190</v>
       </c>
       <c r="L119" t="str">
         <f>Sheet1!E119</f>
-        <v>201808_AZ1CI_Top15.pdf</v>
+        <v>201809_AZ1CI_Top15.pdf</v>
       </c>
       <c r="M119" t="str">
         <f>Sheet1!F119</f>
-        <v>201808_AZ1CI_Top15.xlsx</v>
+        <v>201809_AZ1CI_Top15.xlsx</v>
       </c>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.25">
@@ -6261,7 +6259,7 @@
       </c>
       <c r="D120" t="str">
         <f>Sheet1!C120</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E120">
         <v>1</v>
@@ -6271,22 +6269,22 @@
       </c>
       <c r="G120" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1KM_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1KM_Top15.pdf</v>
       </c>
       <c r="H120" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1KM_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1KM_Top15.xlsx</v>
       </c>
       <c r="K120" t="s">
         <v>190</v>
       </c>
       <c r="L120" t="str">
         <f>Sheet1!E120</f>
-        <v>201808_CZ1KM_Top15.pdf</v>
+        <v>201809_CZ1KM_Top15.pdf</v>
       </c>
       <c r="M120" t="str">
         <f>Sheet1!F120</f>
-        <v>201808_CZ1KM_Top15.xlsx</v>
+        <v>201809_CZ1KM_Top15.xlsx</v>
       </c>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.25">
@@ -6296,7 +6294,7 @@
       </c>
       <c r="D121" t="str">
         <f>Sheet1!C121</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -6306,22 +6304,22 @@
       </c>
       <c r="G121" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1OV_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1OV_Top15.pdf</v>
       </c>
       <c r="H121" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1OV_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1OV_Top15.xlsx</v>
       </c>
       <c r="K121" t="s">
         <v>190</v>
       </c>
       <c r="L121" t="str">
         <f>Sheet1!E121</f>
-        <v>201808_CZ1OV_Top15.pdf</v>
+        <v>201809_CZ1OV_Top15.pdf</v>
       </c>
       <c r="M121" t="str">
         <f>Sheet1!F121</f>
-        <v>201808_CZ1OV_Top15.xlsx</v>
+        <v>201809_CZ1OV_Top15.xlsx</v>
       </c>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.25">
@@ -6331,7 +6329,7 @@
       </c>
       <c r="D122" t="str">
         <f>Sheet1!C122</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -6341,22 +6339,22 @@
       </c>
       <c r="G122" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1JB_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1JB_Top15.pdf</v>
       </c>
       <c r="H122" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1JB_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1JB_Top15.xlsx</v>
       </c>
       <c r="K122" t="s">
         <v>190</v>
       </c>
       <c r="L122" t="str">
         <f>Sheet1!E122</f>
-        <v>201808_QZ1JB_Top15.pdf</v>
+        <v>201809_QZ1JB_Top15.pdf</v>
       </c>
       <c r="M122" t="str">
         <f>Sheet1!F122</f>
-        <v>201808_QZ1JB_Top15.xlsx</v>
+        <v>201809_QZ1JB_Top15.xlsx</v>
       </c>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.25">
@@ -6366,7 +6364,7 @@
       </c>
       <c r="D123" t="str">
         <f>Sheet1!C123</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E123">
         <v>1</v>
@@ -6376,22 +6374,22 @@
       </c>
       <c r="G123" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1BG_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1BG_Top15.pdf</v>
       </c>
       <c r="H123" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1BG_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1BG_Top15.xlsx</v>
       </c>
       <c r="K123" t="s">
         <v>190</v>
       </c>
       <c r="L123" t="str">
         <f>Sheet1!E123</f>
-        <v>201808_QZ1BG_Top15.pdf</v>
+        <v>201809_QZ1BG_Top15.pdf</v>
       </c>
       <c r="M123" t="str">
         <f>Sheet1!F123</f>
-        <v>201808_QZ1BG_Top15.xlsx</v>
+        <v>201809_QZ1BG_Top15.xlsx</v>
       </c>
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
@@ -6401,7 +6399,7 @@
       </c>
       <c r="D124" t="str">
         <f>Sheet1!C124</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E124">
         <v>1</v>
@@ -6411,22 +6409,22 @@
       </c>
       <c r="G124" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1TM_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1TM_Top15.pdf</v>
       </c>
       <c r="H124" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1TM_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1TM_Top15.xlsx</v>
       </c>
       <c r="K124" t="s">
         <v>190</v>
       </c>
       <c r="L124" t="str">
         <f>Sheet1!E124</f>
-        <v>201808_CZ1TM_Top15.pdf</v>
+        <v>201809_CZ1TM_Top15.pdf</v>
       </c>
       <c r="M124" t="str">
         <f>Sheet1!F124</f>
-        <v>201808_CZ1TM_Top15.xlsx</v>
+        <v>201809_CZ1TM_Top15.xlsx</v>
       </c>
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.25">
@@ -6436,7 +6434,7 @@
       </c>
       <c r="D125" t="str">
         <f>Sheet1!C125</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -6446,22 +6444,22 @@
       </c>
       <c r="G125" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ177_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ177_Top15.pdf</v>
       </c>
       <c r="H125" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ177_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ177_Top15.xlsx</v>
       </c>
       <c r="K125" t="s">
         <v>190</v>
       </c>
       <c r="L125" t="str">
         <f>Sheet1!E125</f>
-        <v>201808_QZ177_Top15.pdf</v>
+        <v>201809_QZ177_Top15.pdf</v>
       </c>
       <c r="M125" t="str">
         <f>Sheet1!F125</f>
-        <v>201808_QZ177_Top15.xlsx</v>
+        <v>201809_QZ177_Top15.xlsx</v>
       </c>
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.25">
@@ -6471,7 +6469,7 @@
       </c>
       <c r="D126" t="str">
         <f>Sheet1!C126</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E126">
         <v>1</v>
@@ -6481,22 +6479,22 @@
       </c>
       <c r="G126" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1JS_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1JS_Top15.pdf</v>
       </c>
       <c r="H126" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1JS_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1JS_Top15.xlsx</v>
       </c>
       <c r="K126" t="s">
         <v>190</v>
       </c>
       <c r="L126" t="str">
         <f>Sheet1!E126</f>
-        <v>201808_CZ1JS_Top15.pdf</v>
+        <v>201809_CZ1JS_Top15.pdf</v>
       </c>
       <c r="M126" t="str">
         <f>Sheet1!F126</f>
-        <v>201808_CZ1JS_Top15.xlsx</v>
+        <v>201809_CZ1JS_Top15.xlsx</v>
       </c>
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.25">
@@ -6506,7 +6504,7 @@
       </c>
       <c r="D127" t="str">
         <f>Sheet1!C127</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E127">
         <v>1</v>
@@ -6516,22 +6514,22 @@
       </c>
       <c r="G127" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1BM_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1BM_Top15.pdf</v>
       </c>
       <c r="H127" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1BM_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1BM_Top15.xlsx</v>
       </c>
       <c r="K127" t="s">
         <v>190</v>
       </c>
       <c r="L127" t="str">
         <f>Sheet1!E127</f>
-        <v>201808_QZ1BM_Top15.pdf</v>
+        <v>201809_QZ1BM_Top15.pdf</v>
       </c>
       <c r="M127" t="str">
         <f>Sheet1!F127</f>
-        <v>201808_QZ1BM_Top15.xlsx</v>
+        <v>201809_QZ1BM_Top15.xlsx</v>
       </c>
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.25">
@@ -6541,7 +6539,7 @@
       </c>
       <c r="D128" t="str">
         <f>Sheet1!C128</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E128">
         <v>1</v>
@@ -6551,22 +6549,22 @@
       </c>
       <c r="G128" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1MD_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1MD_Top15.pdf</v>
       </c>
       <c r="H128" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1MD_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1MD_Top15.xlsx</v>
       </c>
       <c r="K128" t="s">
         <v>190</v>
       </c>
       <c r="L128" t="str">
         <f>Sheet1!E128</f>
-        <v>201808_QZ1MD_Top15.pdf</v>
+        <v>201809_QZ1MD_Top15.pdf</v>
       </c>
       <c r="M128" t="str">
         <f>Sheet1!F128</f>
-        <v>201808_QZ1MD_Top15.xlsx</v>
+        <v>201809_QZ1MD_Top15.xlsx</v>
       </c>
     </row>
     <row r="129" spans="2:13" x14ac:dyDescent="0.25">
@@ -6576,7 +6574,7 @@
       </c>
       <c r="D129" t="str">
         <f>Sheet1!C129</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E129">
         <v>1</v>
@@ -6586,22 +6584,22 @@
       </c>
       <c r="G129" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_AZ1JB_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_AZ1JB_Top15.pdf</v>
       </c>
       <c r="H129" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_AZ1JB_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_AZ1JB_Top15.xlsx</v>
       </c>
       <c r="K129" t="s">
         <v>190</v>
       </c>
       <c r="L129" t="str">
         <f>Sheet1!E129</f>
-        <v>201808_AZ1JB_Top15.pdf</v>
+        <v>201809_AZ1JB_Top15.pdf</v>
       </c>
       <c r="M129" t="str">
         <f>Sheet1!F129</f>
-        <v>201808_AZ1JB_Top15.xlsx</v>
+        <v>201809_AZ1JB_Top15.xlsx</v>
       </c>
     </row>
     <row r="130" spans="2:13" x14ac:dyDescent="0.25">
@@ -6611,7 +6609,7 @@
       </c>
       <c r="D130" t="str">
         <f>Sheet1!C130</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -6621,22 +6619,22 @@
       </c>
       <c r="G130" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1AD_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1AD_Top15.pdf</v>
       </c>
       <c r="H130" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1AD_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1AD_Top15.xlsx</v>
       </c>
       <c r="K130" t="s">
         <v>190</v>
       </c>
       <c r="L130" t="str">
         <f>Sheet1!E130</f>
-        <v>201808_CZ1AD_Top15.pdf</v>
+        <v>201809_CZ1AD_Top15.pdf</v>
       </c>
       <c r="M130" t="str">
         <f>Sheet1!F130</f>
-        <v>201808_CZ1AD_Top15.xlsx</v>
+        <v>201809_CZ1AD_Top15.xlsx</v>
       </c>
     </row>
     <row r="131" spans="2:13" x14ac:dyDescent="0.25">
@@ -6646,7 +6644,7 @@
       </c>
       <c r="D131" t="str">
         <f>Sheet1!C131</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E131">
         <v>1</v>
@@ -6656,22 +6654,22 @@
       </c>
       <c r="G131" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1ML_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1ML_Top15.pdf</v>
       </c>
       <c r="H131" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1ML_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1ML_Top15.xlsx</v>
       </c>
       <c r="K131" t="s">
         <v>190</v>
       </c>
       <c r="L131" t="str">
         <f>Sheet1!E131</f>
-        <v>201808_QZ1ML_Top15.pdf</v>
+        <v>201809_QZ1ML_Top15.pdf</v>
       </c>
       <c r="M131" t="str">
         <f>Sheet1!F131</f>
-        <v>201808_QZ1ML_Top15.xlsx</v>
+        <v>201809_QZ1ML_Top15.xlsx</v>
       </c>
     </row>
     <row r="132" spans="2:13" x14ac:dyDescent="0.25">
@@ -6681,7 +6679,7 @@
       </c>
       <c r="D132" t="str">
         <f>Sheet1!C132</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -6691,22 +6689,22 @@
       </c>
       <c r="G132" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1FA_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1FA_Top15.pdf</v>
       </c>
       <c r="H132" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1FA_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1FA_Top15.xlsx</v>
       </c>
       <c r="K132" t="s">
         <v>190</v>
       </c>
       <c r="L132" t="str">
         <f>Sheet1!E132</f>
-        <v>201808_CZ1FA_Top15.pdf</v>
+        <v>201809_CZ1FA_Top15.pdf</v>
       </c>
       <c r="M132" t="str">
         <f>Sheet1!F132</f>
-        <v>201808_CZ1FA_Top15.xlsx</v>
+        <v>201809_CZ1FA_Top15.xlsx</v>
       </c>
     </row>
     <row r="133" spans="2:13" x14ac:dyDescent="0.25">
@@ -6716,7 +6714,7 @@
       </c>
       <c r="D133" t="str">
         <f>Sheet1!C133</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -6726,22 +6724,22 @@
       </c>
       <c r="G133" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ2SA_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ2SA_Top15.pdf</v>
       </c>
       <c r="H133" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ2SA_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ2SA_Top15.xlsx</v>
       </c>
       <c r="K133" t="s">
         <v>190</v>
       </c>
       <c r="L133" t="str">
         <f>Sheet1!E133</f>
-        <v>201808_CZ2SA_Top15.pdf</v>
+        <v>201809_CZ2SA_Top15.pdf</v>
       </c>
       <c r="M133" t="str">
         <f>Sheet1!F133</f>
-        <v>201808_CZ2SA_Top15.xlsx</v>
+        <v>201809_CZ2SA_Top15.xlsx</v>
       </c>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
@@ -6751,7 +6749,7 @@
       </c>
       <c r="D134" t="str">
         <f>Sheet1!C134</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E134">
         <v>1</v>
@@ -6761,22 +6759,22 @@
       </c>
       <c r="G134" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1SL_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1SL_Top15.pdf</v>
       </c>
       <c r="H134" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1SL_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1SL_Top15.xlsx</v>
       </c>
       <c r="K134" t="s">
         <v>190</v>
       </c>
       <c r="L134" t="str">
         <f>Sheet1!E134</f>
-        <v>201808_QZ1SL_Top15.pdf</v>
+        <v>201809_QZ1SL_Top15.pdf</v>
       </c>
       <c r="M134" t="str">
         <f>Sheet1!F134</f>
-        <v>201808_QZ1SL_Top15.xlsx</v>
+        <v>201809_QZ1SL_Top15.xlsx</v>
       </c>
     </row>
     <row r="135" spans="2:13" x14ac:dyDescent="0.25">
@@ -6786,7 +6784,7 @@
       </c>
       <c r="D135" t="str">
         <f>Sheet1!C135</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E135">
         <v>1</v>
@@ -6796,22 +6794,22 @@
       </c>
       <c r="G135" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_AZ1CM_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_AZ1CM_Top15.pdf</v>
       </c>
       <c r="H135" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_AZ1CM_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_AZ1CM_Top15.xlsx</v>
       </c>
       <c r="K135" t="s">
         <v>190</v>
       </c>
       <c r="L135" t="str">
         <f>Sheet1!E135</f>
-        <v>201808_AZ1CM_Top15.pdf</v>
+        <v>201809_AZ1CM_Top15.pdf</v>
       </c>
       <c r="M135" t="str">
         <f>Sheet1!F135</f>
-        <v>201808_AZ1CM_Top15.xlsx</v>
+        <v>201809_AZ1CM_Top15.xlsx</v>
       </c>
     </row>
     <row r="136" spans="2:13" x14ac:dyDescent="0.25">
@@ -6821,7 +6819,7 @@
       </c>
       <c r="D136" t="str">
         <f>Sheet1!C136</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E136">
         <v>1</v>
@@ -6831,22 +6829,22 @@
       </c>
       <c r="G136" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ3JB_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ3JB_Top15.pdf</v>
       </c>
       <c r="H136" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ3JB_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ3JB_Top15.xlsx</v>
       </c>
       <c r="K136" t="s">
         <v>190</v>
       </c>
       <c r="L136" t="str">
         <f>Sheet1!E136</f>
-        <v>201808_QZ3JB_Top15.pdf</v>
+        <v>201809_QZ3JB_Top15.pdf</v>
       </c>
       <c r="M136" t="str">
         <f>Sheet1!F136</f>
-        <v>201808_QZ3JB_Top15.xlsx</v>
+        <v>201809_QZ3JB_Top15.xlsx</v>
       </c>
     </row>
     <row r="137" spans="2:13" x14ac:dyDescent="0.25">
@@ -6856,7 +6854,7 @@
       </c>
       <c r="D137" t="str">
         <f>Sheet1!C137</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -6866,22 +6864,22 @@
       </c>
       <c r="G137" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_AZ1WH_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_AZ1WH_Top15.pdf</v>
       </c>
       <c r="H137" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_AZ1WH_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_AZ1WH_Top15.xlsx</v>
       </c>
       <c r="K137" t="s">
         <v>190</v>
       </c>
       <c r="L137" t="str">
         <f>Sheet1!E137</f>
-        <v>201808_AZ1WH_Top15.pdf</v>
+        <v>201809_AZ1WH_Top15.pdf</v>
       </c>
       <c r="M137" t="str">
         <f>Sheet1!F137</f>
-        <v>201808_AZ1WH_Top15.xlsx</v>
+        <v>201809_AZ1WH_Top15.xlsx</v>
       </c>
     </row>
     <row r="138" spans="2:13" x14ac:dyDescent="0.25">
@@ -6891,7 +6889,7 @@
       </c>
       <c r="D138" t="str">
         <f>Sheet1!C138</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E138">
         <v>1</v>
@@ -6901,22 +6899,22 @@
       </c>
       <c r="G138" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_AZ1YU_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_AZ1YU_Top15.pdf</v>
       </c>
       <c r="H138" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_AZ1YU_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_AZ1YU_Top15.xlsx</v>
       </c>
       <c r="K138" t="s">
         <v>190</v>
       </c>
       <c r="L138" t="str">
         <f>Sheet1!E138</f>
-        <v>201808_AZ1YU_Top15.pdf</v>
+        <v>201809_AZ1YU_Top15.pdf</v>
       </c>
       <c r="M138" t="str">
         <f>Sheet1!F138</f>
-        <v>201808_AZ1YU_Top15.xlsx</v>
+        <v>201809_AZ1YU_Top15.xlsx</v>
       </c>
     </row>
     <row r="139" spans="2:13" x14ac:dyDescent="0.25">
@@ -6926,7 +6924,7 @@
       </c>
       <c r="D139" t="str">
         <f>Sheet1!C139</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E139">
         <v>1</v>
@@ -6936,22 +6934,22 @@
       </c>
       <c r="G139" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_AZ1WX_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_AZ1WX_Top15.pdf</v>
       </c>
       <c r="H139" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_AZ1WX_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_AZ1WX_Top15.xlsx</v>
       </c>
       <c r="K139" t="s">
         <v>190</v>
       </c>
       <c r="L139" t="str">
         <f>Sheet1!E139</f>
-        <v>201808_AZ1WX_Top15.pdf</v>
+        <v>201809_AZ1WX_Top15.pdf</v>
       </c>
       <c r="M139" t="str">
         <f>Sheet1!F139</f>
-        <v>201808_AZ1WX_Top15.xlsx</v>
+        <v>201809_AZ1WX_Top15.xlsx</v>
       </c>
     </row>
     <row r="140" spans="2:13" x14ac:dyDescent="0.25">
@@ -6961,7 +6959,7 @@
       </c>
       <c r="D140" t="str">
         <f>Sheet1!C140</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -6971,22 +6969,22 @@
       </c>
       <c r="G140" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_AZ1XF_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_AZ1XF_Top15.pdf</v>
       </c>
       <c r="H140" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_AZ1XF_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_AZ1XF_Top15.xlsx</v>
       </c>
       <c r="K140" t="s">
         <v>190</v>
       </c>
       <c r="L140" t="str">
         <f>Sheet1!E140</f>
-        <v>201808_AZ1XF_Top15.pdf</v>
+        <v>201809_AZ1XF_Top15.pdf</v>
       </c>
       <c r="M140" t="str">
         <f>Sheet1!F140</f>
-        <v>201808_AZ1XF_Top15.xlsx</v>
+        <v>201809_AZ1XF_Top15.xlsx</v>
       </c>
     </row>
     <row r="141" spans="2:13" x14ac:dyDescent="0.25">
@@ -6996,7 +6994,7 @@
       </c>
       <c r="D141" t="str">
         <f>Sheet1!C141</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E141">
         <v>1</v>
@@ -7006,22 +7004,22 @@
       </c>
       <c r="G141" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_AZ1XT_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_AZ1XT_Top15.pdf</v>
       </c>
       <c r="H141" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_AZ1XT_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_AZ1XT_Top15.xlsx</v>
       </c>
       <c r="K141" t="s">
         <v>190</v>
       </c>
       <c r="L141" t="str">
         <f>Sheet1!E141</f>
-        <v>201808_AZ1XT_Top15.pdf</v>
+        <v>201809_AZ1XT_Top15.pdf</v>
       </c>
       <c r="M141" t="str">
         <f>Sheet1!F141</f>
-        <v>201808_AZ1XT_Top15.xlsx</v>
+        <v>201809_AZ1XT_Top15.xlsx</v>
       </c>
     </row>
     <row r="142" spans="2:13" x14ac:dyDescent="0.25">
@@ -7031,7 +7029,7 @@
       </c>
       <c r="D142" t="str">
         <f>Sheet1!C142</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E142">
         <v>1</v>
@@ -7041,22 +7039,22 @@
       </c>
       <c r="G142" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_AZ1YP_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_AZ1YP_Top15.pdf</v>
       </c>
       <c r="H142" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_AZ1YP_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_AZ1YP_Top15.xlsx</v>
       </c>
       <c r="K142" t="s">
         <v>190</v>
       </c>
       <c r="L142" t="str">
         <f>Sheet1!E142</f>
-        <v>201808_AZ1YP_Top15.pdf</v>
+        <v>201809_AZ1YP_Top15.pdf</v>
       </c>
       <c r="M142" t="str">
         <f>Sheet1!F142</f>
-        <v>201808_AZ1YP_Top15.xlsx</v>
+        <v>201809_AZ1YP_Top15.xlsx</v>
       </c>
     </row>
     <row r="143" spans="2:13" x14ac:dyDescent="0.25">
@@ -7066,7 +7064,7 @@
       </c>
       <c r="D143" t="str">
         <f>Sheet1!C143</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E143">
         <v>1</v>
@@ -7076,22 +7074,22 @@
       </c>
       <c r="G143" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1XH_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1XH_Top15.pdf</v>
       </c>
       <c r="H143" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1XH_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1XH_Top15.xlsx</v>
       </c>
       <c r="K143" t="s">
         <v>190</v>
       </c>
       <c r="L143" t="str">
         <f>Sheet1!E143</f>
-        <v>201808_QZ1XH_Top15.pdf</v>
+        <v>201809_QZ1XH_Top15.pdf</v>
       </c>
       <c r="M143" t="str">
         <f>Sheet1!F143</f>
-        <v>201808_QZ1XH_Top15.xlsx</v>
+        <v>201809_QZ1XH_Top15.xlsx</v>
       </c>
     </row>
     <row r="144" spans="2:13" x14ac:dyDescent="0.25">
@@ -7101,7 +7099,7 @@
       </c>
       <c r="D144" t="str">
         <f>Sheet1!C144</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E144">
         <v>1</v>
@@ -7111,22 +7109,22 @@
       </c>
       <c r="G144" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1X2_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1X2_Top15.pdf</v>
       </c>
       <c r="H144" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1X2_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1X2_Top15.xlsx</v>
       </c>
       <c r="K144" t="s">
         <v>190</v>
       </c>
       <c r="L144" t="str">
         <f>Sheet1!E144</f>
-        <v>201808_QZ1X2_Top15.pdf</v>
+        <v>201809_QZ1X2_Top15.pdf</v>
       </c>
       <c r="M144" t="str">
         <f>Sheet1!F144</f>
-        <v>201808_QZ1X2_Top15.xlsx</v>
+        <v>201809_QZ1X2_Top15.xlsx</v>
       </c>
     </row>
     <row r="145" spans="2:13" x14ac:dyDescent="0.25">
@@ -7136,7 +7134,7 @@
       </c>
       <c r="D145" t="str">
         <f>Sheet1!C145</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E145">
         <v>1</v>
@@ -7146,22 +7144,22 @@
       </c>
       <c r="G145" t="str">
         <f t="shared" si="4"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1TB_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1TB_Top15.pdf</v>
       </c>
       <c r="H145" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1TB_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1TB_Top15.xlsx</v>
       </c>
       <c r="K145" t="s">
         <v>190</v>
       </c>
       <c r="L145" t="str">
         <f>Sheet1!E145</f>
-        <v>201808_QZ1TB_Top15.pdf</v>
+        <v>201809_QZ1TB_Top15.pdf</v>
       </c>
       <c r="M145" t="str">
         <f>Sheet1!F145</f>
-        <v>201808_QZ1TB_Top15.xlsx</v>
+        <v>201809_QZ1TB_Top15.xlsx</v>
       </c>
     </row>
     <row r="146" spans="2:13" x14ac:dyDescent="0.25">
@@ -7171,7 +7169,7 @@
       </c>
       <c r="D146" t="str">
         <f>Sheet1!C146</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E146">
         <v>1</v>
@@ -7181,22 +7179,22 @@
       </c>
       <c r="G146" t="str">
         <f t="shared" ref="G146:G185" si="6">$K146&amp;"\"&amp;L146</f>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1TK_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1TK_Top15.pdf</v>
       </c>
       <c r="H146" t="str">
         <f t="shared" si="5"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1TK_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1TK_Top15.xlsx</v>
       </c>
       <c r="K146" t="s">
         <v>190</v>
       </c>
       <c r="L146" t="str">
         <f>Sheet1!E146</f>
-        <v>201808_QZ1TK_Top15.pdf</v>
+        <v>201809_QZ1TK_Top15.pdf</v>
       </c>
       <c r="M146" t="str">
         <f>Sheet1!F146</f>
-        <v>201808_QZ1TK_Top15.xlsx</v>
+        <v>201809_QZ1TK_Top15.xlsx</v>
       </c>
     </row>
     <row r="147" spans="2:13" x14ac:dyDescent="0.25">
@@ -7206,7 +7204,7 @@
       </c>
       <c r="D147" t="str">
         <f>Sheet1!C147</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E147">
         <v>1</v>
@@ -7216,22 +7214,22 @@
       </c>
       <c r="G147" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1YE_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1YE_Top15.pdf</v>
       </c>
       <c r="H147" t="str">
         <f t="shared" ref="H147:H185" si="7">$K147&amp;"\"&amp;M147</f>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1YE_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1YE_Top15.xlsx</v>
       </c>
       <c r="K147" t="s">
         <v>190</v>
       </c>
       <c r="L147" t="str">
         <f>Sheet1!E147</f>
-        <v>201808_QZ1YE_Top15.pdf</v>
+        <v>201809_QZ1YE_Top15.pdf</v>
       </c>
       <c r="M147" t="str">
         <f>Sheet1!F147</f>
-        <v>201808_QZ1YE_Top15.xlsx</v>
+        <v>201809_QZ1YE_Top15.xlsx</v>
       </c>
     </row>
     <row r="148" spans="2:13" x14ac:dyDescent="0.25">
@@ -7241,7 +7239,7 @@
       </c>
       <c r="D148" t="str">
         <f>Sheet1!C148</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -7251,22 +7249,22 @@
       </c>
       <c r="G148" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1TE_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1TE_Top15.pdf</v>
       </c>
       <c r="H148" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1TE_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1TE_Top15.xlsx</v>
       </c>
       <c r="K148" t="s">
         <v>190</v>
       </c>
       <c r="L148" t="str">
         <f>Sheet1!E148</f>
-        <v>201808_QZ1TE_Top15.pdf</v>
+        <v>201809_QZ1TE_Top15.pdf</v>
       </c>
       <c r="M148" t="str">
         <f>Sheet1!F148</f>
-        <v>201808_QZ1TE_Top15.xlsx</v>
+        <v>201809_QZ1TE_Top15.xlsx</v>
       </c>
     </row>
     <row r="149" spans="2:13" x14ac:dyDescent="0.25">
@@ -7276,7 +7274,7 @@
       </c>
       <c r="D149" t="str">
         <f>Sheet1!C149</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -7286,22 +7284,22 @@
       </c>
       <c r="G149" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1TI_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1TI_Top15.pdf</v>
       </c>
       <c r="H149" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1TI_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1TI_Top15.xlsx</v>
       </c>
       <c r="K149" t="s">
         <v>190</v>
       </c>
       <c r="L149" t="str">
         <f>Sheet1!E149</f>
-        <v>201808_QZ1TI_Top15.pdf</v>
+        <v>201809_QZ1TI_Top15.pdf</v>
       </c>
       <c r="M149" t="str">
         <f>Sheet1!F149</f>
-        <v>201808_QZ1TI_Top15.xlsx</v>
+        <v>201809_QZ1TI_Top15.xlsx</v>
       </c>
     </row>
     <row r="150" spans="2:13" x14ac:dyDescent="0.25">
@@ -7311,7 +7309,7 @@
       </c>
       <c r="D150" t="str">
         <f>Sheet1!C150</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E150">
         <v>1</v>
@@ -7321,22 +7319,22 @@
       </c>
       <c r="G150" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1YI_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1YI_Top15.pdf</v>
       </c>
       <c r="H150" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1YI_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1YI_Top15.xlsx</v>
       </c>
       <c r="K150" t="s">
         <v>190</v>
       </c>
       <c r="L150" t="str">
         <f>Sheet1!E150</f>
-        <v>201808_CZ1YI_Top15.pdf</v>
+        <v>201809_CZ1YI_Top15.pdf</v>
       </c>
       <c r="M150" t="str">
         <f>Sheet1!F150</f>
-        <v>201808_CZ1YI_Top15.xlsx</v>
+        <v>201809_CZ1YI_Top15.xlsx</v>
       </c>
     </row>
     <row r="151" spans="2:13" x14ac:dyDescent="0.25">
@@ -7346,7 +7344,7 @@
       </c>
       <c r="D151" t="str">
         <f>Sheet1!C151</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -7356,22 +7354,22 @@
       </c>
       <c r="G151" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1YW_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1YW_Top15.pdf</v>
       </c>
       <c r="H151" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1YW_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1YW_Top15.xlsx</v>
       </c>
       <c r="K151" t="s">
         <v>190</v>
       </c>
       <c r="L151" t="str">
         <f>Sheet1!E151</f>
-        <v>201808_CZ1YW_Top15.pdf</v>
+        <v>201809_CZ1YW_Top15.pdf</v>
       </c>
       <c r="M151" t="str">
         <f>Sheet1!F151</f>
-        <v>201808_CZ1YW_Top15.xlsx</v>
+        <v>201809_CZ1YW_Top15.xlsx</v>
       </c>
     </row>
     <row r="152" spans="2:13" x14ac:dyDescent="0.25">
@@ -7381,7 +7379,7 @@
       </c>
       <c r="D152" t="str">
         <f>Sheet1!C152</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E152">
         <v>1</v>
@@ -7391,22 +7389,22 @@
       </c>
       <c r="G152" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1UE_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1UE_Top15.pdf</v>
       </c>
       <c r="H152" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1UE_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1UE_Top15.xlsx</v>
       </c>
       <c r="K152" t="s">
         <v>190</v>
       </c>
       <c r="L152" t="str">
         <f>Sheet1!E152</f>
-        <v>201808_CZ1UE_Top15.pdf</v>
+        <v>201809_CZ1UE_Top15.pdf</v>
       </c>
       <c r="M152" t="str">
         <f>Sheet1!F152</f>
-        <v>201808_CZ1UE_Top15.xlsx</v>
+        <v>201809_CZ1UE_Top15.xlsx</v>
       </c>
     </row>
     <row r="153" spans="2:13" x14ac:dyDescent="0.25">
@@ -7416,7 +7414,7 @@
       </c>
       <c r="D153" t="str">
         <f>Sheet1!C153</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E153">
         <v>1</v>
@@ -7426,22 +7424,22 @@
       </c>
       <c r="G153" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1MJ_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1MJ_Top15.pdf</v>
       </c>
       <c r="H153" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1MJ_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1MJ_Top15.xlsx</v>
       </c>
       <c r="K153" t="s">
         <v>190</v>
       </c>
       <c r="L153" t="str">
         <f>Sheet1!E153</f>
-        <v>201808_CZ1MJ_Top15.pdf</v>
+        <v>201809_CZ1MJ_Top15.pdf</v>
       </c>
       <c r="M153" t="str">
         <f>Sheet1!F153</f>
-        <v>201808_CZ1MJ_Top15.xlsx</v>
+        <v>201809_CZ1MJ_Top15.xlsx</v>
       </c>
     </row>
     <row r="154" spans="2:13" x14ac:dyDescent="0.25">
@@ -7451,7 +7449,7 @@
       </c>
       <c r="D154" t="str">
         <f>Sheet1!C154</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -7461,22 +7459,22 @@
       </c>
       <c r="G154" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1VG_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1VG_Top15.pdf</v>
       </c>
       <c r="H154" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1VG_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1VG_Top15.xlsx</v>
       </c>
       <c r="K154" t="s">
         <v>190</v>
       </c>
       <c r="L154" t="str">
         <f>Sheet1!E154</f>
-        <v>201808_CZ1VG_Top15.pdf</v>
+        <v>201809_CZ1VG_Top15.pdf</v>
       </c>
       <c r="M154" t="str">
         <f>Sheet1!F154</f>
-        <v>201808_CZ1VG_Top15.xlsx</v>
+        <v>201809_CZ1VG_Top15.xlsx</v>
       </c>
     </row>
     <row r="155" spans="2:13" x14ac:dyDescent="0.25">
@@ -7486,7 +7484,7 @@
       </c>
       <c r="D155" t="str">
         <f>Sheet1!C155</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E155">
         <v>1</v>
@@ -7496,22 +7494,22 @@
       </c>
       <c r="G155" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1VJ_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1VJ_Top15.pdf</v>
       </c>
       <c r="H155" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1VJ_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1VJ_Top15.xlsx</v>
       </c>
       <c r="K155" t="s">
         <v>190</v>
       </c>
       <c r="L155" t="str">
         <f>Sheet1!E155</f>
-        <v>201808_CZ1VJ_Top15.pdf</v>
+        <v>201809_CZ1VJ_Top15.pdf</v>
       </c>
       <c r="M155" t="str">
         <f>Sheet1!F155</f>
-        <v>201808_CZ1VJ_Top15.xlsx</v>
+        <v>201809_CZ1VJ_Top15.xlsx</v>
       </c>
     </row>
     <row r="156" spans="2:13" x14ac:dyDescent="0.25">
@@ -7521,7 +7519,7 @@
       </c>
       <c r="D156" t="str">
         <f>Sheet1!C156</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -7531,22 +7529,22 @@
       </c>
       <c r="G156" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1MI_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1MI_Top15.pdf</v>
       </c>
       <c r="H156" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1MI_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1MI_Top15.xlsx</v>
       </c>
       <c r="K156" t="s">
         <v>190</v>
       </c>
       <c r="L156" t="str">
         <f>Sheet1!E156</f>
-        <v>201808_CZ1MI_Top15.pdf</v>
+        <v>201809_CZ1MI_Top15.pdf</v>
       </c>
       <c r="M156" t="str">
         <f>Sheet1!F156</f>
-        <v>201808_CZ1MI_Top15.xlsx</v>
+        <v>201809_CZ1MI_Top15.xlsx</v>
       </c>
     </row>
     <row r="157" spans="2:13" x14ac:dyDescent="0.25">
@@ -7556,7 +7554,7 @@
       </c>
       <c r="D157" t="str">
         <f>Sheet1!C157</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E157">
         <v>1</v>
@@ -7566,22 +7564,22 @@
       </c>
       <c r="G157" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1XD_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1XD_Top15.pdf</v>
       </c>
       <c r="H157" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1XD_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1XD_Top15.xlsx</v>
       </c>
       <c r="K157" t="s">
         <v>190</v>
       </c>
       <c r="L157" t="str">
         <f>Sheet1!E157</f>
-        <v>201808_CZ1XD_Top15.pdf</v>
+        <v>201809_CZ1XD_Top15.pdf</v>
       </c>
       <c r="M157" t="str">
         <f>Sheet1!F157</f>
-        <v>201808_CZ1XD_Top15.xlsx</v>
+        <v>201809_CZ1XD_Top15.xlsx</v>
       </c>
     </row>
     <row r="158" spans="2:13" x14ac:dyDescent="0.25">
@@ -7591,7 +7589,7 @@
       </c>
       <c r="D158" t="str">
         <f>Sheet1!C158</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E158">
         <v>1</v>
@@ -7601,22 +7599,22 @@
       </c>
       <c r="G158" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1XB_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1XB_Top15.pdf</v>
       </c>
       <c r="H158" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1XB_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1XB_Top15.xlsx</v>
       </c>
       <c r="K158" t="s">
         <v>190</v>
       </c>
       <c r="L158" t="str">
         <f>Sheet1!E158</f>
-        <v>201808_CZ1XB_Top15.pdf</v>
+        <v>201809_CZ1XB_Top15.pdf</v>
       </c>
       <c r="M158" t="str">
         <f>Sheet1!F158</f>
-        <v>201808_CZ1XB_Top15.xlsx</v>
+        <v>201809_CZ1XB_Top15.xlsx</v>
       </c>
     </row>
     <row r="159" spans="2:13" x14ac:dyDescent="0.25">
@@ -7626,7 +7624,7 @@
       </c>
       <c r="D159" t="str">
         <f>Sheet1!C159</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E159">
         <v>1</v>
@@ -7636,22 +7634,22 @@
       </c>
       <c r="G159" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1WT_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1WT_Top15.pdf</v>
       </c>
       <c r="H159" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1WT_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1WT_Top15.xlsx</v>
       </c>
       <c r="K159" t="s">
         <v>190</v>
       </c>
       <c r="L159" t="str">
         <f>Sheet1!E159</f>
-        <v>201808_CZ1WT_Top15.pdf</v>
+        <v>201809_CZ1WT_Top15.pdf</v>
       </c>
       <c r="M159" t="str">
         <f>Sheet1!F159</f>
-        <v>201808_CZ1WT_Top15.xlsx</v>
+        <v>201809_CZ1WT_Top15.xlsx</v>
       </c>
     </row>
     <row r="160" spans="2:13" x14ac:dyDescent="0.25">
@@ -7661,7 +7659,7 @@
       </c>
       <c r="D160" t="str">
         <f>Sheet1!C160</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -7671,22 +7669,22 @@
       </c>
       <c r="G160" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1XA_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1XA_Top15.pdf</v>
       </c>
       <c r="H160" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1XA_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1XA_Top15.xlsx</v>
       </c>
       <c r="K160" t="s">
         <v>190</v>
       </c>
       <c r="L160" t="str">
         <f>Sheet1!E160</f>
-        <v>201808_CZ1XA_Top15.pdf</v>
+        <v>201809_CZ1XA_Top15.pdf</v>
       </c>
       <c r="M160" t="str">
         <f>Sheet1!F160</f>
-        <v>201808_CZ1XA_Top15.xlsx</v>
+        <v>201809_CZ1XA_Top15.xlsx</v>
       </c>
     </row>
     <row r="161" spans="2:13" x14ac:dyDescent="0.25">
@@ -7696,7 +7694,7 @@
       </c>
       <c r="D161" t="str">
         <f>Sheet1!C161</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E161">
         <v>1</v>
@@ -7706,22 +7704,22 @@
       </c>
       <c r="G161" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1RB_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1RB_Top15.pdf</v>
       </c>
       <c r="H161" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1RB_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1RB_Top15.xlsx</v>
       </c>
       <c r="K161" t="s">
         <v>190</v>
       </c>
       <c r="L161" t="str">
         <f>Sheet1!E161</f>
-        <v>201808_WZ1RB_Top15.pdf</v>
+        <v>201809_WZ1RB_Top15.pdf</v>
       </c>
       <c r="M161" t="str">
         <f>Sheet1!F161</f>
-        <v>201808_WZ1RB_Top15.xlsx</v>
+        <v>201809_WZ1RB_Top15.xlsx</v>
       </c>
     </row>
     <row r="162" spans="2:13" x14ac:dyDescent="0.25">
@@ -7731,7 +7729,7 @@
       </c>
       <c r="D162" t="str">
         <f>Sheet1!C162</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -7741,22 +7739,22 @@
       </c>
       <c r="G162" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ2KF_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ2KF_Top15.pdf</v>
       </c>
       <c r="H162" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ2KF_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ2KF_Top15.xlsx</v>
       </c>
       <c r="K162" t="s">
         <v>190</v>
       </c>
       <c r="L162" t="str">
         <f>Sheet1!E162</f>
-        <v>201808_WZ2KF_Top15.pdf</v>
+        <v>201809_WZ2KF_Top15.pdf</v>
       </c>
       <c r="M162" t="str">
         <f>Sheet1!F162</f>
-        <v>201808_WZ2KF_Top15.xlsx</v>
+        <v>201809_WZ2KF_Top15.xlsx</v>
       </c>
     </row>
     <row r="163" spans="2:13" x14ac:dyDescent="0.25">
@@ -7766,7 +7764,7 @@
       </c>
       <c r="D163" t="str">
         <f>Sheet1!C163</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E163">
         <v>1</v>
@@ -7776,22 +7774,22 @@
       </c>
       <c r="G163" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ148_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ148_Top15.pdf</v>
       </c>
       <c r="H163" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ148_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ148_Top15.xlsx</v>
       </c>
       <c r="K163" t="s">
         <v>190</v>
       </c>
       <c r="L163" t="str">
         <f>Sheet1!E163</f>
-        <v>201808_WZ148_Top15.pdf</v>
+        <v>201809_WZ148_Top15.pdf</v>
       </c>
       <c r="M163" t="str">
         <f>Sheet1!F163</f>
-        <v>201808_WZ148_Top15.xlsx</v>
+        <v>201809_WZ148_Top15.xlsx</v>
       </c>
     </row>
     <row r="164" spans="2:13" x14ac:dyDescent="0.25">
@@ -7801,7 +7799,7 @@
       </c>
       <c r="D164" t="str">
         <f>Sheet1!C164</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E164">
         <v>1</v>
@@ -7811,22 +7809,22 @@
       </c>
       <c r="G164" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ8GM_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ8GM_Top15.pdf</v>
       </c>
       <c r="H164" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ8GM_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ8GM_Top15.xlsx</v>
       </c>
       <c r="K164" t="s">
         <v>190</v>
       </c>
       <c r="L164" t="str">
         <f>Sheet1!E164</f>
-        <v>201808_WZ8GM_Top15.pdf</v>
+        <v>201809_WZ8GM_Top15.pdf</v>
       </c>
       <c r="M164" t="str">
         <f>Sheet1!F164</f>
-        <v>201808_WZ8GM_Top15.xlsx</v>
+        <v>201809_WZ8GM_Top15.xlsx</v>
       </c>
     </row>
     <row r="165" spans="2:13" x14ac:dyDescent="0.25">
@@ -7836,7 +7834,7 @@
       </c>
       <c r="D165" t="str">
         <f>Sheet1!C165</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E165">
         <v>1</v>
@@ -7846,22 +7844,22 @@
       </c>
       <c r="G165" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1BH_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1BH_Top15.pdf</v>
       </c>
       <c r="H165" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1BH_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1BH_Top15.xlsx</v>
       </c>
       <c r="K165" t="s">
         <v>190</v>
       </c>
       <c r="L165" t="str">
         <f>Sheet1!E165</f>
-        <v>201808_WZ1BH_Top15.pdf</v>
+        <v>201809_WZ1BH_Top15.pdf</v>
       </c>
       <c r="M165" t="str">
         <f>Sheet1!F165</f>
-        <v>201808_WZ1BH_Top15.xlsx</v>
+        <v>201809_WZ1BH_Top15.xlsx</v>
       </c>
     </row>
     <row r="166" spans="2:13" x14ac:dyDescent="0.25">
@@ -7871,7 +7869,7 @@
       </c>
       <c r="D166" t="str">
         <f>Sheet1!C166</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E166">
         <v>1</v>
@@ -7881,22 +7879,22 @@
       </c>
       <c r="G166" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ114_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ114_Top15.pdf</v>
       </c>
       <c r="H166" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ114_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ114_Top15.xlsx</v>
       </c>
       <c r="K166" t="s">
         <v>190</v>
       </c>
       <c r="L166" t="str">
         <f>Sheet1!E166</f>
-        <v>201808_WZ114_Top15.pdf</v>
+        <v>201809_WZ114_Top15.pdf</v>
       </c>
       <c r="M166" t="str">
         <f>Sheet1!F166</f>
-        <v>201808_WZ114_Top15.xlsx</v>
+        <v>201809_WZ114_Top15.xlsx</v>
       </c>
     </row>
     <row r="167" spans="2:13" x14ac:dyDescent="0.25">
@@ -7906,7 +7904,7 @@
       </c>
       <c r="D167" t="str">
         <f>Sheet1!C167</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E167">
         <v>1</v>
@@ -7916,22 +7914,22 @@
       </c>
       <c r="G167" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1A6_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1A6_Top15.pdf</v>
       </c>
       <c r="H167" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ1A6_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ1A6_Top15.xlsx</v>
       </c>
       <c r="K167" t="s">
         <v>190</v>
       </c>
       <c r="L167" t="str">
         <f>Sheet1!E167</f>
-        <v>201808_WZ1A6_Top15.pdf</v>
+        <v>201809_WZ1A6_Top15.pdf</v>
       </c>
       <c r="M167" t="str">
         <f>Sheet1!F167</f>
-        <v>201808_WZ1A6_Top15.xlsx</v>
+        <v>201809_WZ1A6_Top15.xlsx</v>
       </c>
     </row>
     <row r="168" spans="2:13" x14ac:dyDescent="0.25">
@@ -7941,7 +7939,7 @@
       </c>
       <c r="D168" t="str">
         <f>Sheet1!C168</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E168">
         <v>1</v>
@@ -7951,22 +7949,22 @@
       </c>
       <c r="G168" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ139_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ139_Top15.pdf</v>
       </c>
       <c r="H168" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ139_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ139_Top15.xlsx</v>
       </c>
       <c r="K168" t="s">
         <v>190</v>
       </c>
       <c r="L168" t="str">
         <f>Sheet1!E168</f>
-        <v>201808_WZ139_Top15.pdf</v>
+        <v>201809_WZ139_Top15.pdf</v>
       </c>
       <c r="M168" t="str">
         <f>Sheet1!F168</f>
-        <v>201808_WZ139_Top15.xlsx</v>
+        <v>201809_WZ139_Top15.xlsx</v>
       </c>
     </row>
     <row r="169" spans="2:13" x14ac:dyDescent="0.25">
@@ -7976,7 +7974,7 @@
       </c>
       <c r="D169" t="str">
         <f>Sheet1!C169</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E169">
         <v>1</v>
@@ -7986,22 +7984,22 @@
       </c>
       <c r="G169" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1VL_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1VL_Top15.pdf</v>
       </c>
       <c r="H169" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1VL_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1VL_Top15.xlsx</v>
       </c>
       <c r="K169" t="s">
         <v>190</v>
       </c>
       <c r="L169" t="str">
         <f>Sheet1!E169</f>
-        <v>201808_CZ1VL_Top15.pdf</v>
+        <v>201809_CZ1VL_Top15.pdf</v>
       </c>
       <c r="M169" t="str">
         <f>Sheet1!F169</f>
-        <v>201808_CZ1VL_Top15.xlsx</v>
+        <v>201809_CZ1VL_Top15.xlsx</v>
       </c>
     </row>
     <row r="170" spans="2:13" x14ac:dyDescent="0.25">
@@ -8011,7 +8009,7 @@
       </c>
       <c r="D170" t="str">
         <f>Sheet1!C170</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E170">
         <v>1</v>
@@ -8021,22 +8019,22 @@
       </c>
       <c r="G170" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1VK_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1VK_Top15.pdf</v>
       </c>
       <c r="H170" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1VK_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1VK_Top15.xlsx</v>
       </c>
       <c r="K170" t="s">
         <v>190</v>
       </c>
       <c r="L170" t="str">
         <f>Sheet1!E170</f>
-        <v>201808_CZ1VK_Top15.pdf</v>
+        <v>201809_CZ1VK_Top15.pdf</v>
       </c>
       <c r="M170" t="str">
         <f>Sheet1!F170</f>
-        <v>201808_CZ1VK_Top15.xlsx</v>
+        <v>201809_CZ1VK_Top15.xlsx</v>
       </c>
     </row>
     <row r="171" spans="2:13" x14ac:dyDescent="0.25">
@@ -8046,7 +8044,7 @@
       </c>
       <c r="D171" t="str">
         <f>Sheet1!C171</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E171">
         <v>1</v>
@@ -8056,22 +8054,22 @@
       </c>
       <c r="G171" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1LR_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1LR_Top15.pdf</v>
       </c>
       <c r="H171" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1LR_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1LR_Top15.xlsx</v>
       </c>
       <c r="K171" t="s">
         <v>190</v>
       </c>
       <c r="L171" t="str">
         <f>Sheet1!E171</f>
-        <v>201808_CZ1LR_Top15.pdf</v>
+        <v>201809_CZ1LR_Top15.pdf</v>
       </c>
       <c r="M171" t="str">
         <f>Sheet1!F171</f>
-        <v>201808_CZ1LR_Top15.xlsx</v>
+        <v>201809_CZ1LR_Top15.xlsx</v>
       </c>
     </row>
     <row r="172" spans="2:13" x14ac:dyDescent="0.25">
@@ -8081,7 +8079,7 @@
       </c>
       <c r="D172" t="str">
         <f>Sheet1!C172</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E172">
         <v>1</v>
@@ -8091,22 +8089,22 @@
       </c>
       <c r="G172" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1UV_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1UV_Top15.pdf</v>
       </c>
       <c r="H172" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1UV_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1UV_Top15.xlsx</v>
       </c>
       <c r="K172" t="s">
         <v>190</v>
       </c>
       <c r="L172" t="str">
         <f>Sheet1!E172</f>
-        <v>201808_CZ1UV_Top15.pdf</v>
+        <v>201809_CZ1UV_Top15.pdf</v>
       </c>
       <c r="M172" t="str">
         <f>Sheet1!F172</f>
-        <v>201808_CZ1UV_Top15.xlsx</v>
+        <v>201809_CZ1UV_Top15.xlsx</v>
       </c>
     </row>
     <row r="173" spans="2:13" x14ac:dyDescent="0.25">
@@ -8116,7 +8114,7 @@
       </c>
       <c r="D173" t="str">
         <f>Sheet1!C173</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E173">
         <v>1</v>
@@ -8126,22 +8124,22 @@
       </c>
       <c r="G173" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1WV_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1WV_Top15.pdf</v>
       </c>
       <c r="H173" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1WV_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1WV_Top15.xlsx</v>
       </c>
       <c r="K173" t="s">
         <v>190</v>
       </c>
       <c r="L173" t="str">
         <f>Sheet1!E173</f>
-        <v>201808_CZ1WV_Top15.pdf</v>
+        <v>201809_CZ1WV_Top15.pdf</v>
       </c>
       <c r="M173" t="str">
         <f>Sheet1!F173</f>
-        <v>201808_CZ1WV_Top15.xlsx</v>
+        <v>201809_CZ1WV_Top15.xlsx</v>
       </c>
     </row>
     <row r="174" spans="2:13" x14ac:dyDescent="0.25">
@@ -8151,7 +8149,7 @@
       </c>
       <c r="D174" t="str">
         <f>Sheet1!C174</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E174">
         <v>1</v>
@@ -8161,22 +8159,22 @@
       </c>
       <c r="G174" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1UO_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1UO_Top15.pdf</v>
       </c>
       <c r="H174" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1UO_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1UO_Top15.xlsx</v>
       </c>
       <c r="K174" t="s">
         <v>190</v>
       </c>
       <c r="L174" t="str">
         <f>Sheet1!E174</f>
-        <v>201808_CZ1UO_Top15.pdf</v>
+        <v>201809_CZ1UO_Top15.pdf</v>
       </c>
       <c r="M174" t="str">
         <f>Sheet1!F174</f>
-        <v>201808_CZ1UO_Top15.xlsx</v>
+        <v>201809_CZ1UO_Top15.xlsx</v>
       </c>
     </row>
     <row r="175" spans="2:13" x14ac:dyDescent="0.25">
@@ -8186,7 +8184,7 @@
       </c>
       <c r="D175" t="str">
         <f>Sheet1!C175</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E175">
         <v>1</v>
@@ -8196,22 +8194,22 @@
       </c>
       <c r="G175" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1XC_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1XC_Top15.pdf</v>
       </c>
       <c r="H175" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1XC_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1XC_Top15.xlsx</v>
       </c>
       <c r="K175" t="s">
         <v>190</v>
       </c>
       <c r="L175" t="str">
         <f>Sheet1!E175</f>
-        <v>201808_CZ1XC_Top15.pdf</v>
+        <v>201809_CZ1XC_Top15.pdf</v>
       </c>
       <c r="M175" t="str">
         <f>Sheet1!F175</f>
-        <v>201808_CZ1XC_Top15.xlsx</v>
+        <v>201809_CZ1XC_Top15.xlsx</v>
       </c>
     </row>
     <row r="176" spans="2:13" x14ac:dyDescent="0.25">
@@ -8221,7 +8219,7 @@
       </c>
       <c r="D176" t="str">
         <f>Sheet1!C176</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E176">
         <v>1</v>
@@ -8231,22 +8229,22 @@
       </c>
       <c r="G176" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1YN_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1YN_Top15.pdf</v>
       </c>
       <c r="H176" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1YN_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1YN_Top15.xlsx</v>
       </c>
       <c r="K176" t="s">
         <v>190</v>
       </c>
       <c r="L176" t="str">
         <f>Sheet1!E176</f>
-        <v>201808_CZ1YN_Top15.pdf</v>
+        <v>201809_CZ1YN_Top15.pdf</v>
       </c>
       <c r="M176" t="str">
         <f>Sheet1!F176</f>
-        <v>201808_CZ1YN_Top15.xlsx</v>
+        <v>201809_CZ1YN_Top15.xlsx</v>
       </c>
     </row>
     <row r="177" spans="2:13" x14ac:dyDescent="0.25">
@@ -8256,7 +8254,7 @@
       </c>
       <c r="D177" t="str">
         <f>Sheet1!C177</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -8266,22 +8264,22 @@
       </c>
       <c r="G177" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1UI_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1UI_Top15.pdf</v>
       </c>
       <c r="H177" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1UI_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1UI_Top15.xlsx</v>
       </c>
       <c r="K177" t="s">
         <v>190</v>
       </c>
       <c r="L177" t="str">
         <f>Sheet1!E177</f>
-        <v>201808_CZ1UI_Top15.pdf</v>
+        <v>201809_CZ1UI_Top15.pdf</v>
       </c>
       <c r="M177" t="str">
         <f>Sheet1!F177</f>
-        <v>201808_CZ1UI_Top15.xlsx</v>
+        <v>201809_CZ1UI_Top15.xlsx</v>
       </c>
     </row>
     <row r="178" spans="2:13" x14ac:dyDescent="0.25">
@@ -8291,7 +8289,7 @@
       </c>
       <c r="D178" t="str">
         <f>Sheet1!C178</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -8301,22 +8299,22 @@
       </c>
       <c r="G178" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1UU_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1UU_Top15.pdf</v>
       </c>
       <c r="H178" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1UU_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1UU_Top15.xlsx</v>
       </c>
       <c r="K178" t="s">
         <v>190</v>
       </c>
       <c r="L178" t="str">
         <f>Sheet1!E178</f>
-        <v>201808_CZ1UU_Top15.pdf</v>
+        <v>201809_CZ1UU_Top15.pdf</v>
       </c>
       <c r="M178" t="str">
         <f>Sheet1!F178</f>
-        <v>201808_CZ1UU_Top15.xlsx</v>
+        <v>201809_CZ1UU_Top15.xlsx</v>
       </c>
     </row>
     <row r="179" spans="2:13" x14ac:dyDescent="0.25">
@@ -8326,7 +8324,7 @@
       </c>
       <c r="D179" t="str">
         <f>Sheet1!C179</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E179">
         <v>1</v>
@@ -8336,22 +8334,22 @@
       </c>
       <c r="G179" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1UW_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1UW_Top15.pdf</v>
       </c>
       <c r="H179" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1UW_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1UW_Top15.xlsx</v>
       </c>
       <c r="K179" t="s">
         <v>190</v>
       </c>
       <c r="L179" t="str">
         <f>Sheet1!E179</f>
-        <v>201808_CZ1UW_Top15.pdf</v>
+        <v>201809_CZ1UW_Top15.pdf</v>
       </c>
       <c r="M179" t="str">
         <f>Sheet1!F179</f>
-        <v>201808_CZ1UW_Top15.xlsx</v>
+        <v>201809_CZ1UW_Top15.xlsx</v>
       </c>
     </row>
     <row r="180" spans="2:13" x14ac:dyDescent="0.25">
@@ -8361,7 +8359,7 @@
       </c>
       <c r="D180" t="str">
         <f>Sheet1!C180</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E180">
         <v>1</v>
@@ -8371,22 +8369,22 @@
       </c>
       <c r="G180" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1VC_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1VC_Top15.pdf</v>
       </c>
       <c r="H180" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1VC_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1VC_Top15.xlsx</v>
       </c>
       <c r="K180" t="s">
         <v>190</v>
       </c>
       <c r="L180" t="str">
         <f>Sheet1!E180</f>
-        <v>201808_CZ1VC_Top15.pdf</v>
+        <v>201809_CZ1VC_Top15.pdf</v>
       </c>
       <c r="M180" t="str">
         <f>Sheet1!F180</f>
-        <v>201808_CZ1VC_Top15.xlsx</v>
+        <v>201809_CZ1VC_Top15.xlsx</v>
       </c>
     </row>
     <row r="181" spans="2:13" x14ac:dyDescent="0.25">
@@ -8396,7 +8394,7 @@
       </c>
       <c r="D181" t="str">
         <f>Sheet1!C181</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E181">
         <v>1</v>
@@ -8406,22 +8404,22 @@
       </c>
       <c r="G181" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1UX_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1UX_Top15.pdf</v>
       </c>
       <c r="H181" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1UX_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1UX_Top15.xlsx</v>
       </c>
       <c r="K181" t="s">
         <v>190</v>
       </c>
       <c r="L181" t="str">
         <f>Sheet1!E181</f>
-        <v>201808_CZ1UX_Top15.pdf</v>
+        <v>201809_CZ1UX_Top15.pdf</v>
       </c>
       <c r="M181" t="str">
         <f>Sheet1!F181</f>
-        <v>201808_CZ1UX_Top15.xlsx</v>
+        <v>201809_CZ1UX_Top15.xlsx</v>
       </c>
     </row>
     <row r="182" spans="2:13" x14ac:dyDescent="0.25">
@@ -8431,7 +8429,7 @@
       </c>
       <c r="D182" t="str">
         <f>Sheet1!C182</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E182">
         <v>1</v>
@@ -8441,22 +8439,22 @@
       </c>
       <c r="G182" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1UZ_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1UZ_Top15.pdf</v>
       </c>
       <c r="H182" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1UZ_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1UZ_Top15.xlsx</v>
       </c>
       <c r="K182" t="s">
         <v>190</v>
       </c>
       <c r="L182" t="str">
         <f>Sheet1!E182</f>
-        <v>201808_CZ1UZ_Top15.pdf</v>
+        <v>201809_CZ1UZ_Top15.pdf</v>
       </c>
       <c r="M182" t="str">
         <f>Sheet1!F182</f>
-        <v>201808_CZ1UZ_Top15.xlsx</v>
+        <v>201809_CZ1UZ_Top15.xlsx</v>
       </c>
     </row>
     <row r="183" spans="2:13" x14ac:dyDescent="0.25">
@@ -8466,7 +8464,7 @@
       </c>
       <c r="D183" t="str">
         <f>Sheet1!C183</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E183">
         <v>1</v>
@@ -8476,22 +8474,22 @@
       </c>
       <c r="G183" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ9JP_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ9JP_Top15.pdf</v>
       </c>
       <c r="H183" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_WZ9JP_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_WZ9JP_Top15.xlsx</v>
       </c>
       <c r="K183" t="s">
         <v>190</v>
       </c>
       <c r="L183" t="str">
         <f>Sheet1!E183</f>
-        <v>201808_WZ9JP_Top15.pdf</v>
+        <v>201809_WZ9JP_Top15.pdf</v>
       </c>
       <c r="M183" t="str">
         <f>Sheet1!F183</f>
-        <v>201808_WZ9JP_Top15.xlsx</v>
+        <v>201809_WZ9JP_Top15.xlsx</v>
       </c>
     </row>
     <row r="184" spans="2:13" x14ac:dyDescent="0.25">
@@ -8501,7 +8499,7 @@
       </c>
       <c r="D184" t="str">
         <f>Sheet1!C184</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E184">
         <v>1</v>
@@ -8511,22 +8509,22 @@
       </c>
       <c r="G184" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1DG_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1DG_Top15.pdf</v>
       </c>
       <c r="H184" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1DG_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1DG_Top15.xlsx</v>
       </c>
       <c r="K184" t="s">
         <v>190</v>
       </c>
       <c r="L184" t="str">
         <f>Sheet1!E184</f>
-        <v>201808_CZ1DG_Top15.pdf</v>
+        <v>201809_CZ1DG_Top15.pdf</v>
       </c>
       <c r="M184" t="str">
         <f>Sheet1!F184</f>
-        <v>201808_CZ1DG_Top15.xlsx</v>
+        <v>201809_CZ1DG_Top15.xlsx</v>
       </c>
     </row>
     <row r="185" spans="2:13" x14ac:dyDescent="0.25">
@@ -8536,7 +8534,7 @@
       </c>
       <c r="D185" t="str">
         <f>Sheet1!C185</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E185">
         <v>1</v>
@@ -8546,22 +8544,22 @@
       </c>
       <c r="G185" t="str">
         <f t="shared" si="6"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1LE_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1LE_Top15.pdf</v>
       </c>
       <c r="H185" t="str">
         <f t="shared" si="7"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ1LE_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ1LE_Top15.xlsx</v>
       </c>
       <c r="K185" t="s">
         <v>190</v>
       </c>
       <c r="L185" t="str">
         <f>Sheet1!E185</f>
-        <v>201808_CZ1LE_Top15.pdf</v>
+        <v>201809_CZ1LE_Top15.pdf</v>
       </c>
       <c r="M185" t="str">
         <f>Sheet1!F185</f>
-        <v>201808_CZ1LE_Top15.xlsx</v>
+        <v>201809_CZ1LE_Top15.xlsx</v>
       </c>
     </row>
     <row r="186" spans="2:13" x14ac:dyDescent="0.25">
@@ -8571,7 +8569,7 @@
       </c>
       <c r="D186" t="str">
         <f>Sheet1!C186</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -8581,22 +8579,22 @@
       </c>
       <c r="G186" t="str">
         <f t="shared" ref="G186:G187" si="8">$K186&amp;"\"&amp;L186</f>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1OM_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1OM_Top15.pdf</v>
       </c>
       <c r="H186" t="str">
         <f t="shared" ref="H186:H187" si="9">$K186&amp;"\"&amp;M186</f>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_QZ1OM_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_QZ1OM_Top15.xlsx</v>
       </c>
       <c r="K186" t="s">
         <v>190</v>
       </c>
       <c r="L186" t="str">
         <f>Sheet1!E186</f>
-        <v>201808_QZ1OM_Top15.pdf</v>
+        <v>201809_QZ1OM_Top15.pdf</v>
       </c>
       <c r="M186" t="str">
         <f>Sheet1!F186</f>
-        <v>201808_QZ1OM_Top15.xlsx</v>
+        <v>201809_QZ1OM_Top15.xlsx</v>
       </c>
     </row>
     <row r="187" spans="2:13" x14ac:dyDescent="0.25">
@@ -8606,7 +8604,7 @@
       </c>
       <c r="D187" t="str">
         <f>Sheet1!C187</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E187">
         <v>1</v>
@@ -8616,22 +8614,22 @@
       </c>
       <c r="G187" t="str">
         <f t="shared" si="8"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ2JS_Top15.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ2JS_Top15.pdf</v>
       </c>
       <c r="H187" t="str">
         <f t="shared" si="9"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201808_CZ2JS_Top15.xlsx</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_FSC_Top_15\201809_CZ2JS_Top15.xlsx</v>
       </c>
       <c r="K187" t="s">
         <v>190</v>
       </c>
       <c r="L187" t="str">
         <f>Sheet1!E187</f>
-        <v>201808_CZ2JS_Top15.pdf</v>
+        <v>201809_CZ2JS_Top15.pdf</v>
       </c>
       <c r="M187" t="str">
         <f>Sheet1!F187</f>
-        <v>201808_CZ2JS_Top15.xlsx</v>
+        <v>201809_CZ2JS_Top15.xlsx</v>
       </c>
     </row>
   </sheetData>
@@ -8647,9 +8645,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F187"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A172" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9067,15 +9066,15 @@
       </c>
       <c r="C2" t="str">
         <f>C3</f>
-        <v>FSC Top 15 Summary for August 2018</v>
+        <v>FSC Top 15 Summary for September 2018</v>
       </c>
       <c r="E2" t="str">
         <f>E3</f>
-        <v>201808_CZ1SD_Top15.pdf</v>
+        <v>201809_CZ1SD_Top15.pdf</v>
       </c>
       <c r="F2" t="str">
         <f>F3</f>
-        <v>201808_CZ1SD_Top15.xlsx</v>
+        <v>201809_CZ1SD_Top15.xlsx</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
